--- a/gd/主界面/主界面逻辑设计.xlsx
+++ b/gd/主界面/主界面逻辑设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,12 @@
     <sheet name="设计备忘" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="needlevel">配置结构!$C$5:$E$5</definedName>
     <definedName name="当玩家一次性提升多个等级时_弹出多个提示界面_如玩家从1级升到3级_则提示2个界面_第一个界面关闭后弹出第二个界面">提示类逻辑!$F$42:$Q$42</definedName>
     <definedName name="功能开启预告">提示类逻辑!$E$46:$P$52</definedName>
-    <definedName name="图标点击后会做有缩放效果">UI相关逻辑!$G$231:$I$231</definedName>
+    <definedName name="图标点击后会做有缩放效果">UI相关逻辑!$G$230:$I$230</definedName>
     <definedName name="图标构成">UI相关逻辑!$E$202:$I$209</definedName>
+    <definedName name="图标上层或者下层可以支持帧动画或者粒子特效效果">UI相关逻辑!$G$226:$K$226</definedName>
     <definedName name="玩家等级格式">提示类逻辑!$G$32:$I$32</definedName>
     <definedName name="显示长度为200像素">UI相关逻辑!$F$64:$H$64</definedName>
     <definedName name="战斗后获得经验后_均与界面同时展现_副本结果移动到屏幕上方后__且出现在副本结算界面上层">提示类逻辑!$F$74:$I$74</definedName>
@@ -30,174 +32,174 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="457">
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>主界面逻辑设计</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>明确主界面相关规则逻辑</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>svn://10.21.2.47/gd/主界面/主界面逻辑设计.xlsx</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>主界面UI示意</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>角色信息显示区</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>货币信息显示区</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>活动信息按钮显示区</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>基础功能按钮显示区</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>聊天信息显示区</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>走马灯显示区</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>系统提示、系统公告显示区</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>角色头像</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示角色的头像</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -213,67 +215,67 @@
       </rPr>
       <t>6*96</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>默认的头像样式为固定的logo（给予一个于游戏风格一致的图标）（后续会随社交玩法推出头像变更功能）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>点击头像可以弹出系统设置界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>角色等级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>最大可显示3位数字</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>角色名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示玩家角色名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>字色与字号见美术规范文档</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>角色经验条</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>初始等级为1级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>背景</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>百分比</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>玩家当前非满级状态时，显示经验条当前百分比且当玩家在主界面获得经验后，百分比动态变化</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>玩家当前为满级状态时，显示为MAXLEVEL字样</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>当玩家为满级状态时，进度条为0且不会随之变化</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>角色疲劳值</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -289,27 +291,27 @@
       </rPr>
       <t xml:space="preserve"> 当前疲劳值/当前等级疲劳值上限</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>字色与字号见美术规范文档</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>当前等级疲劳值上限相关规则见疲劳值文档</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>当前疲劳值相关规则见疲劳值文档</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>金币显示区</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>左侧显示金币，显示格式为 金币图标：金币数值</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -325,259 +327,259 @@
       </rPr>
       <t>00像素</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>钻石显示区</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>数字靠右对齐</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>右侧显示钻石，显示格式为 钻石图标：钻石数值</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>钻石数值显示大小为200像素</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>钻石数值右侧为购买钻石按钮</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮可以打开商城购买钻石的界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>金币数值右侧为购买金币按钮</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮可以打开钻石购买金币的界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示在界面左侧，角色信息下方</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>目前版本包括 签到、 活动指引、 充值（商城） 三个功能图标</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示在界面上方，包括金币、钻石</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>签到</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>包括签到的图标以及对应名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开签到界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>活动指引</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>包括活动指引的图标以及对应名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开活动指引界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>充值（商城）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>包括充值（商城）的图标以及对应名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开充值（商城）界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示在界面右下角，走马灯上方</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>包括任务的图标以及对应名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开任务界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>包括宠物的图标以及对应名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开宠物界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>包括背包的图标以及对应名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开背包界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示基础聊天显示框</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>具体显示格式与样式见IM系统设计文档</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>当有走马灯信息时，在此处显示走马灯信息</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>当有系统提示、系统公告信息时，在此处显示系统提示、系统公告信息信息</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>包括经验条背景、横向进度条、百分比</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>横向进度条</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>经验条背景为160*20大小的条状</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>为满足主界面图标显示多样性，制定如下主界面中图标的通用规则</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>适用于主界面中各类图标</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>目前版本包括 任务、宠物、背包 三个功能图标以及缩进/展开按钮</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>缩进/展开按钮</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>默认为展开状态，展开时点击缩进按钮可以将功能图标隐藏，隐藏有动画效果（各图标依次向缩进按钮移动，移动至缩进按钮后消失）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>缩进时点击展开按钮可以将功能图标展开，展开有动画效果（各图标依次从展开按钮移动到对应位置）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>缩进图标示例</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>需求不要是单面的，后续可能扩展在缩进按钮上方增加功能图标</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>展开图标示例</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>图标构成</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>图标本体</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>图标图片的表现形式</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>图标名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>该图标代表的功能的正式名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>状态标示</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示在图标本体右上角</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>当该图标代表的功能有可用或者可点的操作时（具体效果各个功能标注），右上角出现该提示，提示始终存在，直至无可用或者可点操作消失</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示在图标本体下方</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>角色升级提示</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>新功能开启提示</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>升级提示界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>界面标题</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示为 Level up！或者其他带有升级类意义的词语，具体见美术设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>升级信息</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>玩家等级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>当前疲劳值</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -593,11 +595,11 @@
       </rPr>
       <t xml:space="preserve"> 目标疲劳值</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>疲劳值上限</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -613,571 +615,563 @@
       </rPr>
       <t xml:space="preserve"> 目标疲劳值上限</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>升级信息中的内容，只显示有数值变化的项，不变化的不显示，已显示的项垂直居中分布</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>确定按钮</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>点击确定按钮，则关闭当前界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>该窗口为模态不可移动</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>窗口出现后背景有半透明遮罩效果</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>该窗口不同于一般提示性窗口，需要比较炫丽，请美术同学单独设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>新功能开启提示界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示为Congratulation！或者其他带有恭喜，祝贺类意义的词语，具体见美术设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>提示内容</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示为提示信息文本</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>字色与字体见美术规范文档</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>字色与字体见美术规范文档，可保证显示下5行文本即可，每行长度大概300像素</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>提示说明</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示解锁的系统或者功能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>字色与字体见美术规范文档，需要与提示内容文本颜色区分开</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>该窗口不同于一般提示性窗口，需要有独特样式，请美术同学单独设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>点击界面后界面关闭，同时自动转动镜头至新开系统的图标或者处于屏幕水平中心位置</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>同时该图标或者按钮处于提示点击的样式并进入新功能引导逻辑</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>此期间内玩家无法自动旋转镜头以及进行其他功能操作</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>当玩家提升到一定等级后，会开启对应新功能，此时会弹出新功能提示界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>如玩家在非主界面中升级后退出游戏，则下次进入主界面后再次弹出提示</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>新功能提示只会进行一次，且由服务器端记录是否已经进行完毕（引导结束视为进行完毕）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1.角色信息区UI</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>包括</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1.头像边框、头像logo设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>2.玩家等级样式设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3.玩家名称样式设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>4.进度条样式设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>5.疲劳值样式设计、补充疲劳值按钮设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>2.货币信息区UI</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>包括</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1.金币显示区样式设计、补充金币按钮设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>2.钻石显示区样式设计、补充钻石按钮设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3.活动信息区图标</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1.签到图标以及文字样式设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>2.活动指引图标以及文字样式设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3.充值（商城）图标以及活动样式设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>4.基础功能图标按钮UI</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1.任务图标以及文字样式设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>2.宠物图标以及文字样式设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3.背包图标以及文字样式设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>5.图标通用</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3.图标状态标识样式设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1.图标提示文本样式设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>包括 hot、new字样的动态效果</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>主界面图标通用规则</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>图标效果</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示效果</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>点击效果</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>限时图标</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标需要支持帧动画效果</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>当配置为多张图时播放帧动画效果</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>图标支持定时显示与倒计时消失功能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>当配置开启时间后，则在开启时间出现图标，开始时间之前不显示图标</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>当配置倒计时消失时间后，则在图标出现后开始计时，倒计时到达时图标消失</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>图标响应规则</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>点击图标后，识别抬起时手指是否还在图标响应范围内</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>如超出范围，则不响应点击</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>如未超出范围，抬起手指时响应点击效果</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>按下手指时不在图标上，则抬起时无论是否在图标上都不响应点击</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>6.角色升级UI</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1.升级界面整体样式设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>2.升级界面字体样式设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3.确定按钮样式设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>7.新功能提示UI</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>包括</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1.新功能提示整体样式设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>2.新功能提示字体样式设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3.新功能入口特效样式设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>物件显示规则</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>场景结构</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>结构组成</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>主场景为3D形式</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>内容为一个日常起居室（详细需求见【美术需求】分页）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>参考图如下样式</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>场景介绍</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>整体为一个四面墙的起居室，可见范围为左前右三面墙以及部分地板以及天花板</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>屋内有各类生活物件组成（如衣柜、床、书桌、书柜等等）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>物件均为3D形式展现</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>镜头相关</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>镜头移动</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>场景中镜头可以按照固定轨迹左右滑动</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>需求移动轨迹可以配置调整</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>镜头高度</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>镜头高度为1.4米，大概为角色坐在床上或者椅子上时眼睛高度一致</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>镜头视距</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>滑动速度以及距离根据玩家滑动的力度以及速度决定</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>镜头视距为1.5米左右，固定不变</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>镜头角度</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>镜头视角为平视（大概为水平夹角在15至-20之间）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>视角不可手动变化</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>默认镜头</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>默认镜头为开启客户端后首次进入主场景的镜头，需求可配置</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>开启其他界面后，未关闭客户端的情况下再次返回主场景，应该保留进入其他界面前的镜头位置</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>场景大小</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>由左至右拖动镜头需求可完整展现大概2.5屏幕的内容</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>左右需要各预留半屏左右大小的场景用于镜头回弹（镜头回弹详见镜头相关）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>单屏幕展现内容示意</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>镜头回弹</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>左右拖动镜头至边界时，无法继续拖动，会有一个类似下拉列表的回弹效果（可继续拉伸一段距离，松手后回弹到边界位置）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>黄色实线为镜头两个边界，黄色虚线为镜头中心线</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>绿色边框为镜头正常可见范围，红色与绿色相接位置即为可见场景的边界</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>图1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>图2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>图1为正常情况下显示的镜头边界角度</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>当滑动镜头至图1后，继续向右可以滑动至图2位置，松手后镜头回弹至图1位置</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>左侧边界同理</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>如下镜头顶视图示意</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>蓝色实线为镜头滑动轨迹</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>回弹过程持续0.5秒，镜头角度平缓变化</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>物件定义</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>场景中的家具、电器、用品等可被操作的物品成为物件</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>物件交互</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>当某个物件配置了对应的功能或者玩法入口时，且玩家开启该功能或者玩法的条件时，玩家可以与物件进行交互</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>交互形式</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>点击物件后物件可播放点击动作以及特效，然后打开对应入口界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>响应规则</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>如不处于响应范围内，则不响应点击效果</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>点击物件后判断抬起手指位置是否处于物件响应范围内</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>如处于响应范围内，则响应点击效果</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>交互响应开启规则</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>当玩家不满足某个物件的开启条件时，无法与物件进行交互</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>点击物件不会有点击效果反馈，同时不会打开对应入口</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>此时物件为普通物件</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>当玩家满足某个物件的开启条件时，普通物件变为可交互物件</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>效果反馈</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>普通物件</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>未点击状态的普通物件无特效反馈</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>点击普通物件无特效反馈</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>点击普通物件无动作反馈</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>可交互物件</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>未点击状态的普通物件有特效反馈</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>点击可交互物件有动作反馈（点击后播放对应点击动作动画，播放一次即可）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>点击可交互物件有特效反馈（点击后播放对应动作的特效效果）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>主界面场景功能扩展</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1. 照妖镜可以在场景中使用，并照出隐藏功能玩法</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>2.可以支持场景物件扩展（玩家宠物变换为手办形式存放于场景中）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3.窗外昼夜变换</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>点击物件会有点击效果反馈</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>若物件无动作反馈，则直接打开入口界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>若物件有动作反馈，则播放动作后打开入口界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1193,19 +1187,19 @@
       </rPr>
       <t>I需求</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>场景需求</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1.主界面场景</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>日常起居室，可以承载目前世界观风格的三面墙场景，需要包含地面与天花板</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1221,7 +1215,7 @@
       </rPr>
       <t>.场景物件</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1237,95 +1231,95 @@
       </rPr>
       <t>PC商店</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>对应功能/玩法</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>可参考物件</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>抽蛋</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本选择</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>大冒险</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>新玩法1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>公会</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>合成</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>分解</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>电脑屏幕</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>衣柜</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>漫画/墙上挂件</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>电话</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>垃圾桶</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>纸抽/存钱罐/魔方</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>需要满足上述玩法对应设计物件</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>某种玩具</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>动作需求</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>暂缓</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1341,7 +1335,7 @@
       </rPr>
       <t>.可交互物件未点击时的自发光特效</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1357,171 +1351,171 @@
       </rPr>
       <t>.物件点击后的特效</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> mt</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>初版文档等待mt审核</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>有些地方是大写的LVL（宠物，结算），需要空格或者点么</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>这里是否需要缩放规则</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>填充方式，逐渐增长的还是突进的，还是待设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>百分比精确位数</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>这个用的是通用控件还是单独控件？</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>多语言在这儿写还是各个功能写</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>多语言，id用已有的</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邮箱装备宠物里面用的红点，这个是不是统一一下</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>这个不建议有，因为游戏中会频繁获得材料怪（早年说每天都能获得几只），这样只材料怪而已没必要提示</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>当new和数量同时存在的时候，容易被误解为有x个new</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>new和状态标识同时出现的时候很容易被误解</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>灰掉标上要做的版本号</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>感觉这个功能简单的提示解锁了什么就行，没必要提示这么多文字，要是想提示文字，发个邮件也可以吧</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>配置结构缺失，哪些等级开启哪些功能待定么？</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>文字自动缩放？玩家名字是不是可以规定最大字数</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>还要名称么？多语言</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>还要名称么？多语言</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>同上</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邮箱？</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>扩展了就不能叫左右了，你不说清楚，帆爷绝逼给你做成左右的</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>名称要考虑多语言，可能图标的宽度显示不下</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物进阶、装备强化都与玩家等级有关</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>时</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>只有这个界面感觉不够，最好经过一次返回主界面，点主界面或者对应入口，这样有助于玩家记忆入口位置</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>这个控件有了，不用提了</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>变化方式，是直接跳还是每次加1逐渐变化/单位时间内增长速度</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>详见签到文档吧</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>如果玩家在线过刷新点也弹出签到界面么，还是重登陆，待定</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>这句im文档写了，删掉吧</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>该图的帧动画</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>界面什么时候出现，是在任何位置升级都触发这个界面么？--都弹</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>说一下都什么时候弹</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>进行完毕后，显示下一个</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>关门放吕布</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>把大界面截过来</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1537,63 +1531,59 @@
       </rPr>
       <t>玩家当前等级</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>已改</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>当玩家非满级状态时，玩家在主界面获得经验后，进度条由左至右动态填充</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>百分比精确至个位数</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>每次变化最小值为1%，保持与进度条同时结束即可</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>通用控件，但是商店系统没写…我还是留着吧</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>各个功能自己写</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>当有已完成的任务时，任务图标右上角显示红点提示</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>各系统自己写</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>容易产生歧义，去掉此功能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>已改图</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>删</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>图标是 做图上的</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>已去掉文本提示</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>当配置为1张图时播放该图的帧动画效果</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1609,238 +1599,222 @@
       </rPr>
       <t>.9版本有运营活动时添加</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>已改</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>已补充</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>升级界面弹出规则</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邮箱、任务等界面获得经验的界面中，获得经验后直接弹出升级界面，且出现在邮箱、任务等界面上层</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>已补充</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>功能名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>新功能开启</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>功能提示</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>当玩家一次提升多个等级时，可能会同时开启多个新功能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>此时需要按照新功能开启等级由低到高一项一项显示（上一项进行完毕后，再次回到主界面后，显示下一个）</t>
   </si>
   <si>
     <t>开启等级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>lvl</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>已补充</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>该提示信息只在主界面时才会弹出，如当前在非主界面中升级，则在玩家下次返回主界面时进行提示</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示不下可以滚动查看</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>包括功能名称，简介，开启情况</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>功能名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>读取配置表中的功能名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>简介</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>读取配置表中的简介</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>开启情况</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>本级开启的显示 绿色 “已开启”</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能简介</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>只提示功能性内容</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.5</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_levelup_dengji</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_levelup_pilao</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_levelup_shangxian</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>多语言ID：main_shengji_title</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_new_title</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_new_tishi</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>战斗后获得经验后，均与界面同时展现（副本结果移动到屏幕上方后），且出现在副本结算界面上层</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>功能开启预告</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>包括已开启与将要开启两部分</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>已开启</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>未开启</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>预告内容</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_shengji_kaiqi</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>非本级开启的显示 红色 “X级开启”</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_shengji_weikaiqi</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>补充功能开启预告的规则</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>删除多余文字</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.6</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示目标等级之后将要开启的两个新功能，如同一个等级有多个新功能开启，则按照配置表的顺序依次显示</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.6</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>程序、qc、美术、木木、mt</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>取消升级后新功能提醒，改为新手引导制作</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示长度为200像素</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>取消名称缩放需求</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>图标点击后会做有缩放效果</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>图标按下直接缩放处理</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>删除图标提示文本需求</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1856,19 +1830,19 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>签到界面的弹出方式详见签到功能文档</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>其他相关</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>疲劳值名称待确定</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1884,19 +1858,19 @@
       </rPr>
       <t>M布局与雪姬确认</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>创建角色界面增加头像选择功能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>同一个等级可以开启多个新功能？</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示本次等级提升所有已开启的功能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1912,36 +1886,381 @@
       </rPr>
       <t>3级，则提示2个界面，第一个界面关闭后弹出第二个界面</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>一次提升多个等级弹出多个升级提示界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示格式为，恭喜您提升到X级！</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>玩家等级提示方式变更</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>包含 玩家等级、当前疲劳值、疲劳值上限</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标上层或者下层可以支持帧动画或者粒子特效效果</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更图标帧动画效果为图标前后可以增加帧动画图片或者粒子特效</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.7</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>3fat</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置+验收</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>原画</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0d</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                   </t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                       </t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                 </t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                   </t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级信息提示封装</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.5d</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.镜头调整</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.场景编辑，选中效果</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.添加到流程</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">主界面UI </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t> MG-1496</t>
+  </si>
+  <si>
+    <t> MG-1497</t>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>esc</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eedlevel</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2315,134 +2634,143 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10963,10 +11291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H33"/>
+  <dimension ref="A2:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -11025,97 +11353,97 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42" t="s">
+      <c r="C12" s="62"/>
+      <c r="D12" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="64"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="58"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" s="65" t="s">
         <v>302</v>
       </c>
-      <c r="D14" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="67"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="49"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="37"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="58"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="58"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="60"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -11153,7 +11481,7 @@
         <v>42299</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -11164,35 +11492,35 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C24" s="11">
         <v>42303</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E24" s="31"/>
       <c r="G24" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C25" s="11">
         <v>42303</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E25" s="35"/>
       <c r="G25" s="3" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -11200,66 +11528,105 @@
       <c r="C26" s="11"/>
       <c r="G26" s="5"/>
       <c r="H26" s="34" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B27" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C27" s="11">
+        <v>42305</v>
+      </c>
+      <c r="E27" s="53"/>
+      <c r="G27" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B28" s="2"/>
+      <c r="C28" s="11"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="34"/>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+      <c r="C29" s="11"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="34"/>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+      <c r="C30" s="11"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="34"/>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+      <c r="C31" s="11"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="34"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C33" s="36">
+        <v>42304</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E34" s="50" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E35" s="50" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E36" s="50" t="s">
         <v>409</v>
       </c>
-      <c r="C28" s="50">
-        <v>42304</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E29" s="64" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E30" s="64" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E31" s="64" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E32" s="64" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E33" s="64" t="s">
-        <v>428</v>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E37" s="50" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E38" s="50" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -11274,15 +11641,16 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H25" location="功能开启预告" display="补充功能开启预告的规则"/>
     <hyperlink ref="H26" location="战斗后获得经验后_均与界面同时展现_副本结果移动到屏幕上方后__且出现在副本结算界面上层" display="删除多余文字"/>
-    <hyperlink ref="E29" location="显示长度为200像素" display="取消名称缩放需求"/>
-    <hyperlink ref="E30" location="图标点击后会做有缩放效果" display="图标按下直接缩放处理"/>
-    <hyperlink ref="E31" location="图标构成" display="删除图标提示文本需求"/>
-    <hyperlink ref="E32" location="当玩家一次性提升多个等级时_弹出多个提示界面_如玩家从1级升到3级_则提示2个界面_第一个界面关闭后弹出第二个界面" display="一次提升多个等级弹出多个升级提示界面"/>
-    <hyperlink ref="E33" location="玩家等级格式" display="玩家等级提示方式变更"/>
+    <hyperlink ref="E34" location="显示长度为200像素" display="取消名称缩放需求"/>
+    <hyperlink ref="E35" location="图标点击后会做有缩放效果" display="图标按下直接缩放处理"/>
+    <hyperlink ref="E36" location="图标构成" display="删除图标提示文本需求"/>
+    <hyperlink ref="E37" location="当玩家一次性提升多个等级时_弹出多个提示界面_如玩家从1级升到3级_则提示2个界面_第一个界面关闭后弹出第二个界面" display="一次提升多个等级弹出多个升级提示界面"/>
+    <hyperlink ref="E38" location="玩家等级格式" display="玩家等级提示方式变更"/>
+    <hyperlink ref="H27" location="图标上层或者下层可以支持帧动画或者粒子特效效果" display="变更图标帧动画效果为图标前后可以增加帧动画图片或者粒子特效"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11293,8 +11661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T140"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="M137" sqref="M137"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="J113" sqref="J113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11305,90 +11673,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C25" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C26" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C27" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C31" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C32" s="18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C34" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
       <c r="B48" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="C49" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
       <c r="C50" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -11427,7 +11795,7 @@
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
       <c r="C62" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -11436,13 +11804,13 @@
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="C65" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -11451,13 +11819,13 @@
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="C68" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -11466,19 +11834,19 @@
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="20"/>
       <c r="B70" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="20"/>
       <c r="C71" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="20"/>
       <c r="C72" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -11487,19 +11855,19 @@
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="20"/>
       <c r="B74" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="20"/>
       <c r="C75" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="20"/>
       <c r="C76" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -11508,37 +11876,37 @@
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="20"/>
       <c r="B78" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="20"/>
       <c r="C79" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
       <c r="C80" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="20"/>
       <c r="D81" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="20"/>
       <c r="D82" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="20"/>
       <c r="D83" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -11587,38 +11955,38 @@
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="20"/>
       <c r="F98" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O98" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="T98" s="19"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="20"/>
       <c r="D99" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="T99" s="19"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="20"/>
       <c r="D100" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="T100" s="19"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="20"/>
       <c r="D101" s="18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="T101" s="19"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="20"/>
       <c r="D102" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="T102" s="19"/>
     </row>
@@ -11627,150 +11995,170 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T104" s="19"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B105" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C106" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B108" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
+      </c>
+      <c r="J108" s="54" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C109" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C110" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D111" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="K112" s="54" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="113" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C113" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="J113" s="54" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="114" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D114" s="18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="115" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="E115" s="18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="116" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="E116" s="18" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C113" s="18" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D114" s="18" t="s">
+      <c r="K116" s="54" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="118" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C118" s="18" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E115" s="18" t="s">
+    <row r="119" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D119" s="18" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E116" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C118" s="18" t="s">
+    <row r="120" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D120" s="18" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D119" s="18" t="s">
+    <row r="121" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D121" s="18" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D120" s="18" t="s">
+    <row r="123" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D123" s="18" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D121" s="18" t="s">
+    <row r="124" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D124" s="18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="E125" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="L125" s="54" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="126" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="E126" s="18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="127" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C127" s="18" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D123" s="18" t="s">
+    <row r="128" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D128" s="18" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D124" s="18" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E125" s="18" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E126" s="18" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C127" s="18" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D128" s="18" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="129" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E129" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
+      </c>
+      <c r="N129" s="54" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="130" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E130" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E131" s="18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D133" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="134" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E134" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="135" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E135" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="136" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E136" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140" spans="4:20" x14ac:dyDescent="0.3">
       <c r="T140" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11778,9 +12166,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R245"/>
+  <dimension ref="A2:R244"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="G226" sqref="G226:K226"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11832,18 +12222,18 @@
     </row>
     <row r="57" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B57" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="F57" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
+        <v>303</v>
+      </c>
+      <c r="F57" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B58" s="27" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>51</v>
@@ -11871,20 +12261,20 @@
     </row>
     <row r="64" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="F64" s="52" t="s">
-        <v>412</v>
-      </c>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
+        <v>304</v>
+      </c>
+      <c r="F64" s="38" t="s">
+        <v>405</v>
+      </c>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B65" s="27" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F65" s="14" t="s">
         <v>49</v>
@@ -11904,168 +12294,168 @@
       <c r="F69" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="56"/>
-      <c r="K69" s="56"/>
-      <c r="L69" s="56"/>
-      <c r="M69" s="56"/>
-      <c r="N69" s="56"/>
-      <c r="O69" s="56"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="G70" s="63" t="s">
+      <c r="G70" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="H70" s="56"/>
-      <c r="I70" s="56"/>
-      <c r="J70" s="56"/>
-      <c r="K70" s="56"/>
-      <c r="L70" s="56"/>
-      <c r="M70" s="56"/>
-      <c r="N70" s="56"/>
-      <c r="O70" s="56"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="42"/>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F71" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G71" s="63"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="56"/>
-      <c r="K71" s="56"/>
-      <c r="L71" s="56"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="56"/>
-      <c r="O71" s="56"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="42"/>
+      <c r="O71" s="42"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B72" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="G72" s="57" t="s">
-        <v>345</v>
-      </c>
-      <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="56"/>
-      <c r="K72" s="56"/>
-      <c r="L72" s="56"/>
-      <c r="M72" s="56"/>
-      <c r="N72" s="56"/>
-      <c r="O72" s="56"/>
+        <v>305</v>
+      </c>
+      <c r="G72" s="43" t="s">
+        <v>343</v>
+      </c>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B73" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="G73" s="63" t="s">
+        <v>342</v>
+      </c>
+      <c r="G73" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="56"/>
-      <c r="K73" s="56"/>
-      <c r="L73" s="56"/>
-      <c r="M73" s="56"/>
-      <c r="N73" s="56"/>
-      <c r="O73" s="56"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="42"/>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F74" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G74" s="63"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="56"/>
-      <c r="K74" s="56"/>
-      <c r="L74" s="56"/>
-      <c r="M74" s="56"/>
-      <c r="N74" s="56"/>
-      <c r="O74" s="56"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="42"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F75" s="14"/>
-      <c r="G75" s="57" t="s">
-        <v>346</v>
-      </c>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="56"/>
-      <c r="K75" s="56"/>
-      <c r="L75" s="56"/>
-      <c r="M75" s="56"/>
-      <c r="N75" s="56"/>
-      <c r="O75" s="56"/>
+      <c r="G75" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="42"/>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B76" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="G76" s="57" t="s">
+        <v>331</v>
+      </c>
+      <c r="G76" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="H76" s="56"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="56"/>
-      <c r="K76" s="56"/>
-      <c r="L76" s="56"/>
-      <c r="M76" s="56"/>
-      <c r="N76" s="56"/>
-      <c r="O76" s="56"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="42"/>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B77" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="G77" s="57" t="s">
-        <v>347</v>
-      </c>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="56"/>
-      <c r="K77" s="56"/>
-      <c r="L77" s="56"/>
-      <c r="M77" s="56"/>
-      <c r="N77" s="56"/>
-      <c r="O77" s="56"/>
+        <v>342</v>
+      </c>
+      <c r="G77" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="42"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B78" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F78" s="14"/>
-      <c r="G78" s="63" t="s">
+      <c r="G78" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="H78" s="56"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="56"/>
-      <c r="K78" s="56"/>
-      <c r="L78" s="56"/>
-      <c r="M78" s="56"/>
-      <c r="N78" s="56"/>
-      <c r="O78" s="56"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="42"/>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B79" s="27" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F79" s="14"/>
-      <c r="G79" s="63" t="s">
+      <c r="G79" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="56"/>
-      <c r="K79" s="56"/>
-      <c r="L79" s="56"/>
-      <c r="M79" s="56"/>
-      <c r="N79" s="56"/>
-      <c r="O79" s="56"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="42"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F80" s="14"/>
@@ -12109,12 +12499,12 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="27" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
@@ -12192,7 +12582,7 @@
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B112" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D112" s="13" t="s">
         <v>35</v>
@@ -12200,7 +12590,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B113" s="27" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F113" s="14" t="s">
         <v>73</v>
@@ -12218,7 +12608,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F128" s="14" t="s">
         <v>77</v>
@@ -12236,17 +12626,17 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B131" s="21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B132" s="21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B133" s="27" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E133" s="13" t="s">
         <v>79</v>
@@ -12254,7 +12644,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="22" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F134" s="14" t="s">
         <v>80</v>
@@ -12277,7 +12667,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="22" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F139" s="14" t="s">
         <v>83</v>
@@ -12314,12 +12704,12 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B151" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F151" s="14" t="s">
         <v>104</v>
@@ -12327,7 +12717,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B152" s="27" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -12338,7 +12728,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B154" s="23"/>
       <c r="F154" s="14" t="s">
@@ -12353,7 +12743,7 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B156" s="28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F156" s="14" t="s">
         <v>88</v>
@@ -12361,25 +12751,25 @@
     </row>
     <row r="157" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B157" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="F157" s="57" t="s">
-        <v>350</v>
-      </c>
-      <c r="G157" s="56"/>
-      <c r="H157" s="56"/>
-      <c r="I157" s="56"/>
-      <c r="J157" s="56"/>
+        <v>310</v>
+      </c>
+      <c r="F157" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="G157" s="42"/>
+      <c r="H157" s="42"/>
+      <c r="I157" s="42"/>
+      <c r="J157" s="42"/>
     </row>
     <row r="158" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B158" s="22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F158" s="14"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B159" s="28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -12390,7 +12780,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B161" s="23"/>
       <c r="F161" s="14" t="s">
@@ -12411,13 +12801,13 @@
     </row>
     <row r="164" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B164" s="22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F164" s="14"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B165" s="28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -12431,7 +12821,7 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="22" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B168" s="23"/>
       <c r="F168" s="14" t="s">
@@ -12491,7 +12881,7 @@
     </row>
     <row r="180" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A180" s="22" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F180" s="14"/>
       <c r="G180" s="14" t="s">
@@ -12500,7 +12890,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F181" s="14"/>
     </row>
@@ -12524,13 +12914,13 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B186" s="21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F186" s="14"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B187" s="27" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -12588,12 +12978,12 @@
     </row>
     <row r="209" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A209" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="28" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -12643,7 +13033,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B220" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F220" s="15"/>
       <c r="G220" s="15" t="s">
@@ -12652,7 +13042,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B221" s="27" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F221" s="15"/>
       <c r="G221" s="15"/>
@@ -12679,64 +13069,70 @@
       <c r="G225" s="15"/>
     </row>
     <row r="226" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="F226" s="54"/>
-      <c r="G226" s="55" t="s">
+      <c r="F226" s="40"/>
+      <c r="G226" s="52" t="s">
+        <v>423</v>
+      </c>
+      <c r="H226" s="39"/>
+      <c r="I226" s="39"/>
+      <c r="J226" s="39"/>
+      <c r="K226" s="39"/>
+    </row>
+    <row r="227" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B227" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="F227" s="40"/>
+      <c r="G227" s="51"/>
+      <c r="H227" s="42"/>
+      <c r="I227" s="42"/>
+      <c r="J227" s="42"/>
+    </row>
+    <row r="228" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B228" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="F228" s="15"/>
+      <c r="G228" s="17"/>
+    </row>
+    <row r="229" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F229" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G229" s="15"/>
+    </row>
+    <row r="230" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F230" s="15"/>
+      <c r="G230" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="H230" s="39"/>
+      <c r="I230" s="39"/>
+    </row>
+    <row r="232" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B232" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="F232" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="G232" s="30"/>
+      <c r="H232" s="30"/>
+      <c r="I232" s="30"/>
+      <c r="J232" s="30"/>
+      <c r="K232" s="30"/>
+      <c r="L232" s="30"/>
+      <c r="M232" s="30"/>
+      <c r="N232" s="30"/>
+    </row>
+    <row r="233" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B233" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="F233" s="30"/>
+      <c r="G233" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="H226" s="56"/>
-      <c r="I226" s="56"/>
-      <c r="J226" s="56"/>
-    </row>
-    <row r="227" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="F227" s="54"/>
-      <c r="G227" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="H227" s="56"/>
-      <c r="I227" s="56"/>
-      <c r="J227" s="56"/>
-    </row>
-    <row r="228" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B228" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="F228" s="54"/>
-      <c r="G228" s="57" t="s">
-        <v>357</v>
-      </c>
-      <c r="H228" s="56"/>
-      <c r="I228" s="56"/>
-      <c r="J228" s="56"/>
-    </row>
-    <row r="229" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B229" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="F229" s="15"/>
-      <c r="G229" s="17"/>
-    </row>
-    <row r="230" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="F230" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="G230" s="15"/>
-    </row>
-    <row r="231" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="F231" s="15"/>
-      <c r="G231" s="52" t="s">
-        <v>414</v>
-      </c>
-      <c r="H231" s="53"/>
-      <c r="I231" s="53"/>
-    </row>
-    <row r="233" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B233" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="F233" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="G233" s="30"/>
       <c r="H233" s="30"/>
       <c r="I233" s="30"/>
       <c r="J233" s="30"/>
@@ -12746,12 +13142,9 @@
       <c r="N233" s="30"/>
     </row>
     <row r="234" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B234" s="27" t="s">
-        <v>359</v>
-      </c>
       <c r="F234" s="30"/>
       <c r="G234" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H234" s="30"/>
       <c r="I234" s="30"/>
@@ -12764,7 +13157,7 @@
     <row r="235" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F235" s="30"/>
       <c r="G235" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H235" s="30"/>
       <c r="I235" s="30"/>
@@ -12776,9 +13169,7 @@
     </row>
     <row r="236" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F236" s="30"/>
-      <c r="G236" s="29" t="s">
-        <v>185</v>
-      </c>
+      <c r="G236" s="30"/>
       <c r="H236" s="30"/>
       <c r="I236" s="30"/>
       <c r="J236" s="30"/>
@@ -12786,51 +13177,40 @@
       <c r="L236" s="30"/>
       <c r="M236" s="30"/>
       <c r="N236" s="30"/>
-    </row>
-    <row r="237" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="F237" s="30"/>
-      <c r="G237" s="30"/>
-      <c r="H237" s="30"/>
-      <c r="I237" s="30"/>
-      <c r="J237" s="30"/>
-      <c r="K237" s="30"/>
-      <c r="L237" s="30"/>
-      <c r="M237" s="30"/>
-      <c r="N237" s="30"/>
-      <c r="O237" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="P237" s="26"/>
-      <c r="Q237" s="26"/>
-      <c r="R237" s="26"/>
+      <c r="O236" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="P236" s="26"/>
+      <c r="Q236" s="26"/>
+      <c r="R236" s="26"/>
+    </row>
+    <row r="239" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="E239" s="13" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="240" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="E240" s="13" t="s">
+      <c r="F240" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="241" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="G241" s="17" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="241" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F241" s="17" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="242" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G242" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="244" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F244" s="17" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="243" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G243" s="17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="245" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F245" s="17" t="s">
-        <v>190</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="notContainsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -12851,8 +13231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q120"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12885,7 +13265,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F24" s="32" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -12898,10 +13278,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>125</v>
@@ -12910,18 +13290,18 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="F28" s="51" t="s">
-        <v>429</v>
+        <v>357</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F29" s="15"/>
     </row>
@@ -12934,16 +13314,16 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
       <c r="F31" s="32" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F32" s="15"/>
-      <c r="G32" s="52" t="s">
-        <v>427</v>
-      </c>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
+      <c r="G32" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F33" s="15"/>
@@ -12956,7 +13336,7 @@
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F35" s="32" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.3">
@@ -12975,7 +13355,7 @@
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F39" s="32" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.3">
@@ -12984,24 +13364,24 @@
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F42" s="52" t="s">
-        <v>425</v>
-      </c>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
+      <c r="F42" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
     </row>
     <row r="43" spans="2:17" ht="33" x14ac:dyDescent="0.3">
       <c r="B43" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F43" s="15" t="s">
         <v>131</v>
@@ -13009,7 +13389,7 @@
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" s="22" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F44" s="16" t="s">
         <v>141</v>
@@ -13017,313 +13397,313 @@
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="D45" s="58"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="56"/>
-      <c r="P45" s="56"/>
+        <v>360</v>
+      </c>
+      <c r="D45" s="44"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46" s="22"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="60" t="s">
-        <v>396</v>
-      </c>
-      <c r="F46" s="59"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="56"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="F46" s="45"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47" s="22"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="61" t="s">
-        <v>397</v>
-      </c>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="56"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="47" t="s">
+        <v>390</v>
+      </c>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48" s="22"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="61" t="s">
-        <v>398</v>
-      </c>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="47" t="s">
+        <v>391</v>
+      </c>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" s="22"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="62" t="s">
-        <v>424</v>
-      </c>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="56"/>
-      <c r="P49" s="56"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="48" t="s">
+        <v>417</v>
+      </c>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="22"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="61" t="s">
-        <v>399</v>
-      </c>
-      <c r="H50" s="60"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="56"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="H50" s="46"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="22"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="60" t="s">
-        <v>408</v>
-      </c>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="56"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="22"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="61" t="s">
-        <v>400</v>
-      </c>
-      <c r="G52" s="60"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="56"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="47" t="s">
+        <v>393</v>
+      </c>
+      <c r="G52" s="46"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="22"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="57" t="s">
-        <v>376</v>
-      </c>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="56"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" s="22"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="57" t="s">
-        <v>377</v>
-      </c>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B55" s="22"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="57" t="s">
-        <v>378</v>
-      </c>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B56" s="22"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="57" t="s">
-        <v>379</v>
-      </c>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="56"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B57" s="22"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="57" t="s">
-        <v>380</v>
-      </c>
-      <c r="I57" s="56"/>
-      <c r="J57" s="56"/>
-      <c r="K57" s="56"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B58" s="22"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="57" t="s">
-        <v>381</v>
-      </c>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="56"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B59" s="22"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="57" t="s">
-        <v>382</v>
-      </c>
-      <c r="I59" s="56"/>
-      <c r="J59" s="56"/>
-      <c r="K59" s="56"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
       <c r="L59" s="32" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="M59" s="33"/>
       <c r="N59" s="33"/>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B60" s="22"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="60" t="s">
-        <v>402</v>
-      </c>
-      <c r="I60" s="56"/>
-      <c r="J60" s="56"/>
-      <c r="K60" s="56"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
       <c r="L60" s="32" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="M60" s="33"/>
       <c r="N60" s="33"/>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B61" s="22"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="56"/>
-      <c r="K61" s="56"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B62" s="22"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="57" t="s">
-        <v>375</v>
-      </c>
-      <c r="H62" s="56"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="56"/>
-      <c r="K62" s="56"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B63" s="12"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="56"/>
-      <c r="K63" s="56"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D64" s="58"/>
-      <c r="E64" s="54" t="s">
+      <c r="D64" s="44"/>
+      <c r="E64" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="F64" s="54"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="56"/>
-      <c r="K64" s="56"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F65" s="15" t="s">
@@ -13361,785 +13741,785 @@
       <c r="F71" s="15"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E72" s="57" t="s">
-        <v>361</v>
-      </c>
-      <c r="F72" s="54"/>
-      <c r="G72" s="56"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="56"/>
-      <c r="K72" s="56"/>
-      <c r="L72" s="56"/>
-      <c r="M72" s="56"/>
-      <c r="N72" s="56"/>
-      <c r="O72" s="56"/>
-      <c r="P72" s="56"/>
+      <c r="E72" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="F72" s="40"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="42"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E73" s="54"/>
-      <c r="F73" s="57" t="s">
-        <v>362</v>
-      </c>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="56"/>
-      <c r="K73" s="56"/>
-      <c r="L73" s="56"/>
-      <c r="M73" s="56"/>
-      <c r="N73" s="56"/>
-      <c r="O73" s="56"/>
-      <c r="P73" s="56"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="42"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E74" s="54"/>
-      <c r="F74" s="60" t="s">
-        <v>395</v>
-      </c>
-      <c r="G74" s="56"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="56"/>
-      <c r="K74" s="56"/>
-      <c r="L74" s="56"/>
-      <c r="M74" s="56"/>
-      <c r="N74" s="56"/>
-      <c r="O74" s="56"/>
-      <c r="P74" s="56"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="42"/>
+      <c r="P74" s="42"/>
     </row>
     <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="55"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="56"/>
-      <c r="K75" s="56"/>
-      <c r="L75" s="56"/>
-      <c r="M75" s="56"/>
-      <c r="N75" s="56"/>
-      <c r="O75" s="56"/>
-      <c r="P75" s="56"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="42"/>
+      <c r="P75" s="42"/>
     </row>
     <row r="76" spans="1:16" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" s="22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="56"/>
-      <c r="K76" s="56"/>
-      <c r="L76" s="56"/>
-      <c r="M76" s="56"/>
-      <c r="N76" s="56"/>
-      <c r="O76" s="56"/>
-      <c r="P76" s="56"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="42"/>
+      <c r="P76" s="42"/>
     </row>
     <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="E77" s="55" t="s">
+        <v>368</v>
+      </c>
+      <c r="E77" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="F77" s="56"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="56"/>
-      <c r="K77" s="56"/>
-      <c r="L77" s="56"/>
-      <c r="M77" s="56"/>
-      <c r="N77" s="56"/>
-      <c r="O77" s="56"/>
-      <c r="P77" s="56"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="42"/>
+      <c r="P77" s="42"/>
     </row>
     <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="E78" s="57" t="s">
-        <v>367</v>
-      </c>
-      <c r="F78" s="56"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="56"/>
-      <c r="K78" s="56"/>
-      <c r="L78" s="56"/>
-      <c r="M78" s="56"/>
-      <c r="N78" s="56"/>
-      <c r="O78" s="56"/>
-      <c r="P78" s="56"/>
+        <v>338</v>
+      </c>
+      <c r="E78" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="42"/>
+      <c r="P78" s="42"/>
     </row>
     <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="E79" s="57" t="s">
-        <v>368</v>
-      </c>
-      <c r="F79" s="56"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="56"/>
-      <c r="K79" s="56"/>
-      <c r="L79" s="56"/>
-      <c r="M79" s="56"/>
-      <c r="N79" s="56"/>
-      <c r="O79" s="56"/>
-      <c r="P79" s="56"/>
+        <v>342</v>
+      </c>
+      <c r="E79" s="43" t="s">
+        <v>365</v>
+      </c>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="42"/>
+      <c r="P79" s="42"/>
     </row>
     <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="E80" s="57" t="s">
-        <v>374</v>
-      </c>
-      <c r="F80" s="56"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="56"/>
-      <c r="K80" s="56"/>
-      <c r="L80" s="56"/>
-      <c r="M80" s="56"/>
-      <c r="N80" s="56"/>
-      <c r="O80" s="56"/>
-      <c r="P80" s="56"/>
+        <v>328</v>
+      </c>
+      <c r="E80" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="42"/>
+      <c r="P80" s="42"/>
     </row>
     <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="27" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B81" s="22"/>
-      <c r="E81" s="55" t="s">
+      <c r="E81" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="F81" s="56"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="56"/>
-      <c r="K81" s="56"/>
-      <c r="L81" s="56"/>
-      <c r="M81" s="56"/>
-      <c r="N81" s="56"/>
-      <c r="O81" s="56"/>
-      <c r="P81" s="56"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="42"/>
+      <c r="P81" s="42"/>
     </row>
     <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" s="22"/>
-      <c r="E82" s="55" t="s">
+      <c r="E82" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="56"/>
-      <c r="K82" s="56"/>
-      <c r="L82" s="56"/>
-      <c r="M82" s="56"/>
-      <c r="N82" s="56"/>
-      <c r="O82" s="56"/>
-      <c r="P82" s="56"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
+      <c r="M82" s="42"/>
+      <c r="N82" s="42"/>
+      <c r="O82" s="42"/>
+      <c r="P82" s="42"/>
     </row>
     <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="56"/>
-      <c r="F83" s="56"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="56"/>
-      <c r="K83" s="56"/>
-      <c r="L83" s="56"/>
-      <c r="M83" s="56"/>
-      <c r="N83" s="56"/>
-      <c r="O83" s="56"/>
-      <c r="P83" s="56"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="42"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="42"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="42"/>
+      <c r="O83" s="42"/>
+      <c r="P83" s="42"/>
     </row>
     <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="D84" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="56"/>
-      <c r="J84" s="56"/>
-      <c r="K84" s="56"/>
-      <c r="L84" s="56"/>
-      <c r="M84" s="56"/>
-      <c r="N84" s="56"/>
-      <c r="O84" s="56"/>
-      <c r="P84" s="56"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="42"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="42"/>
+      <c r="N84" s="42"/>
+      <c r="O84" s="42"/>
+      <c r="P84" s="42"/>
     </row>
     <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="56"/>
-      <c r="F85" s="56"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="56"/>
-      <c r="K85" s="56"/>
-      <c r="L85" s="56"/>
-      <c r="M85" s="56"/>
-      <c r="N85" s="56"/>
-      <c r="O85" s="56"/>
-      <c r="P85" s="56"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="42"/>
+      <c r="M85" s="42"/>
+      <c r="N85" s="42"/>
+      <c r="O85" s="42"/>
+      <c r="P85" s="42"/>
     </row>
     <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="56"/>
-      <c r="I86" s="56"/>
-      <c r="J86" s="56"/>
-      <c r="K86" s="56"/>
-      <c r="L86" s="56"/>
-      <c r="M86" s="56"/>
-      <c r="N86" s="56"/>
-      <c r="O86" s="56"/>
-      <c r="P86" s="56"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="42"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="42"/>
+      <c r="M86" s="42"/>
+      <c r="N86" s="42"/>
+      <c r="O86" s="42"/>
+      <c r="P86" s="42"/>
     </row>
     <row r="87" spans="1:16" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="22" t="s">
-        <v>319</v>
-      </c>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="56"/>
-      <c r="K87" s="56"/>
-      <c r="L87" s="56"/>
-      <c r="M87" s="56"/>
-      <c r="N87" s="56"/>
-      <c r="O87" s="56"/>
-      <c r="P87" s="56"/>
+        <v>317</v>
+      </c>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="42"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="42"/>
+      <c r="N87" s="42"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="42"/>
     </row>
     <row r="88" spans="1:16" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="E88" s="56"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="56"/>
-      <c r="H88" s="56"/>
-      <c r="I88" s="56"/>
-      <c r="J88" s="56"/>
-      <c r="K88" s="56"/>
-      <c r="L88" s="56"/>
-      <c r="M88" s="56"/>
-      <c r="N88" s="56"/>
-      <c r="O88" s="56"/>
-      <c r="P88" s="56"/>
+        <v>329</v>
+      </c>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
+      <c r="K88" s="42"/>
+      <c r="L88" s="42"/>
+      <c r="M88" s="42"/>
+      <c r="N88" s="42"/>
+      <c r="O88" s="42"/>
+      <c r="P88" s="42"/>
     </row>
     <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E89" s="56"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="56"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="56"/>
-      <c r="K89" s="56"/>
-      <c r="L89" s="56"/>
-      <c r="M89" s="56"/>
-      <c r="N89" s="56"/>
-      <c r="O89" s="56"/>
-      <c r="P89" s="56"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="42"/>
+      <c r="K89" s="42"/>
+      <c r="L89" s="42"/>
+      <c r="M89" s="42"/>
+      <c r="N89" s="42"/>
+      <c r="O89" s="42"/>
+      <c r="P89" s="42"/>
     </row>
     <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
-      <c r="G90" s="56"/>
-      <c r="H90" s="56"/>
-      <c r="I90" s="56"/>
-      <c r="J90" s="56"/>
-      <c r="K90" s="56"/>
-      <c r="L90" s="56"/>
-      <c r="M90" s="56"/>
-      <c r="N90" s="56"/>
-      <c r="O90" s="56"/>
-      <c r="P90" s="56"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="42"/>
+      <c r="M90" s="42"/>
+      <c r="N90" s="42"/>
+      <c r="O90" s="42"/>
+      <c r="P90" s="42"/>
     </row>
     <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="E91" s="56"/>
-      <c r="F91" s="56"/>
-      <c r="G91" s="56"/>
-      <c r="H91" s="56"/>
-      <c r="I91" s="56"/>
-      <c r="J91" s="56"/>
-      <c r="K91" s="56"/>
-      <c r="L91" s="56"/>
-      <c r="M91" s="56"/>
-      <c r="N91" s="56"/>
-      <c r="O91" s="56"/>
-      <c r="P91" s="56"/>
+        <v>339</v>
+      </c>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="42"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="42"/>
+      <c r="M91" s="42"/>
+      <c r="N91" s="42"/>
+      <c r="O91" s="42"/>
+      <c r="P91" s="42"/>
     </row>
     <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="56"/>
-      <c r="H92" s="56"/>
-      <c r="I92" s="56"/>
-      <c r="J92" s="56"/>
-      <c r="K92" s="56"/>
-      <c r="L92" s="56"/>
-      <c r="M92" s="56"/>
-      <c r="N92" s="56"/>
-      <c r="O92" s="56"/>
-      <c r="P92" s="56"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="42"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="42"/>
+      <c r="M92" s="42"/>
+      <c r="N92" s="42"/>
+      <c r="O92" s="42"/>
+      <c r="P92" s="42"/>
     </row>
     <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="56"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="56"/>
-      <c r="K93" s="56"/>
-      <c r="L93" s="56"/>
-      <c r="M93" s="56"/>
-      <c r="N93" s="56"/>
-      <c r="O93" s="56"/>
-      <c r="P93" s="56"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="42"/>
+      <c r="M93" s="42"/>
+      <c r="N93" s="42"/>
+      <c r="O93" s="42"/>
+      <c r="P93" s="42"/>
     </row>
     <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E94" s="56"/>
-      <c r="F94" s="56"/>
-      <c r="G94" s="56"/>
-      <c r="H94" s="56"/>
-      <c r="I94" s="56"/>
-      <c r="J94" s="56"/>
-      <c r="K94" s="56"/>
-      <c r="L94" s="56"/>
-      <c r="M94" s="56"/>
-      <c r="N94" s="56"/>
-      <c r="O94" s="56"/>
-      <c r="P94" s="56"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="42"/>
+      <c r="J94" s="42"/>
+      <c r="K94" s="42"/>
+      <c r="L94" s="42"/>
+      <c r="M94" s="42"/>
+      <c r="N94" s="42"/>
+      <c r="O94" s="42"/>
+      <c r="P94" s="42"/>
     </row>
     <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E95" s="56"/>
-      <c r="F95" s="56"/>
-      <c r="G95" s="56"/>
-      <c r="H95" s="56"/>
-      <c r="I95" s="56"/>
-      <c r="J95" s="56"/>
-      <c r="K95" s="56"/>
-      <c r="L95" s="56"/>
-      <c r="M95" s="56"/>
-      <c r="N95" s="56"/>
-      <c r="O95" s="56"/>
-      <c r="P95" s="56"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="42"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="42"/>
+      <c r="M95" s="42"/>
+      <c r="N95" s="42"/>
+      <c r="O95" s="42"/>
+      <c r="P95" s="42"/>
     </row>
     <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E96" s="56"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="56"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="56"/>
-      <c r="J96" s="56"/>
-      <c r="K96" s="56"/>
-      <c r="L96" s="56"/>
-      <c r="M96" s="56"/>
-      <c r="N96" s="56"/>
-      <c r="O96" s="56"/>
-      <c r="P96" s="56"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="42"/>
+      <c r="N96" s="42"/>
+      <c r="O96" s="42"/>
+      <c r="P96" s="42"/>
     </row>
     <row r="97" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="E97" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="E97" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="F97" s="56"/>
-      <c r="G97" s="56"/>
-      <c r="H97" s="56"/>
-      <c r="I97" s="56"/>
-      <c r="J97" s="56"/>
-      <c r="K97" s="56"/>
-      <c r="L97" s="56"/>
-      <c r="M97" s="56"/>
-      <c r="N97" s="56"/>
-      <c r="O97" s="56"/>
-      <c r="P97" s="56"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="42"/>
+      <c r="K97" s="42"/>
+      <c r="L97" s="42"/>
+      <c r="M97" s="42"/>
+      <c r="N97" s="42"/>
+      <c r="O97" s="42"/>
+      <c r="P97" s="42"/>
     </row>
     <row r="98" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="22"/>
-      <c r="E98" s="60" t="s">
-        <v>393</v>
-      </c>
-      <c r="F98" s="56"/>
-      <c r="G98" s="56"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="56"/>
-      <c r="J98" s="56"/>
-      <c r="K98" s="56"/>
-      <c r="L98" s="56"/>
-      <c r="M98" s="56"/>
-      <c r="N98" s="56"/>
-      <c r="O98" s="56"/>
-      <c r="P98" s="56"/>
+      <c r="E98" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="F98" s="42"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="42"/>
+      <c r="K98" s="42"/>
+      <c r="L98" s="42"/>
+      <c r="M98" s="42"/>
+      <c r="N98" s="42"/>
+      <c r="O98" s="42"/>
+      <c r="P98" s="42"/>
     </row>
     <row r="99" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E99" s="56"/>
-      <c r="F99" s="59" t="s">
+      <c r="E99" s="42"/>
+      <c r="F99" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="G99" s="56"/>
-      <c r="H99" s="56"/>
-      <c r="I99" s="56"/>
-      <c r="J99" s="56"/>
-      <c r="K99" s="56"/>
-      <c r="L99" s="56"/>
-      <c r="M99" s="56"/>
-      <c r="N99" s="56"/>
-      <c r="O99" s="56"/>
-      <c r="P99" s="56"/>
+      <c r="G99" s="42"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="42"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="42"/>
+      <c r="M99" s="42"/>
+      <c r="N99" s="42"/>
+      <c r="O99" s="42"/>
+      <c r="P99" s="42"/>
     </row>
     <row r="100" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E100" s="56"/>
-      <c r="F100" s="59" t="s">
+      <c r="E100" s="42"/>
+      <c r="F100" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="G100" s="56"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="56"/>
-      <c r="J100" s="56"/>
-      <c r="K100" s="56"/>
-      <c r="L100" s="56"/>
-      <c r="M100" s="56"/>
-      <c r="N100" s="56"/>
-      <c r="O100" s="56"/>
-      <c r="P100" s="56"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42"/>
+      <c r="K100" s="42"/>
+      <c r="L100" s="42"/>
+      <c r="M100" s="42"/>
+      <c r="N100" s="42"/>
+      <c r="O100" s="42"/>
+      <c r="P100" s="42"/>
     </row>
     <row r="101" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E101" s="56"/>
-      <c r="F101" s="56"/>
-      <c r="G101" s="56"/>
-      <c r="H101" s="56"/>
-      <c r="I101" s="56"/>
-      <c r="J101" s="56"/>
-      <c r="K101" s="56"/>
-      <c r="L101" s="56"/>
-      <c r="M101" s="56"/>
-      <c r="N101" s="56"/>
-      <c r="O101" s="56"/>
-      <c r="P101" s="56"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
+      <c r="G101" s="42"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="42"/>
+      <c r="K101" s="42"/>
+      <c r="L101" s="42"/>
+      <c r="M101" s="42"/>
+      <c r="N101" s="42"/>
+      <c r="O101" s="42"/>
+      <c r="P101" s="42"/>
     </row>
     <row r="102" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E102" s="54" t="s">
+      <c r="E102" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="F102" s="56"/>
-      <c r="G102" s="56"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="56"/>
-      <c r="J102" s="56"/>
-      <c r="K102" s="56"/>
-      <c r="L102" s="56"/>
-      <c r="M102" s="56"/>
-      <c r="N102" s="56"/>
-      <c r="O102" s="56"/>
-      <c r="P102" s="56"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="42"/>
+      <c r="K102" s="42"/>
+      <c r="L102" s="42"/>
+      <c r="M102" s="42"/>
+      <c r="N102" s="42"/>
+      <c r="O102" s="42"/>
+      <c r="P102" s="42"/>
     </row>
     <row r="103" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="E103" s="56"/>
-      <c r="F103" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="E103" s="42"/>
+      <c r="F103" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="G103" s="56"/>
-      <c r="H103" s="56"/>
-      <c r="I103" s="56"/>
-      <c r="J103" s="56"/>
-      <c r="K103" s="56"/>
-      <c r="L103" s="56"/>
-      <c r="M103" s="56"/>
-      <c r="N103" s="56"/>
-      <c r="O103" s="56"/>
-      <c r="P103" s="56"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="42"/>
+      <c r="J103" s="42"/>
+      <c r="K103" s="42"/>
+      <c r="L103" s="42"/>
+      <c r="M103" s="42"/>
+      <c r="N103" s="42"/>
+      <c r="O103" s="42"/>
+      <c r="P103" s="42"/>
     </row>
     <row r="104" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E104" s="56"/>
-      <c r="F104" s="59" t="s">
+      <c r="E104" s="42"/>
+      <c r="F104" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="G104" s="56"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="56"/>
-      <c r="J104" s="56"/>
-      <c r="K104" s="56"/>
-      <c r="L104" s="56"/>
-      <c r="M104" s="56"/>
-      <c r="N104" s="56"/>
-      <c r="O104" s="56"/>
-      <c r="P104" s="56"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="42"/>
+      <c r="K104" s="42"/>
+      <c r="L104" s="42"/>
+      <c r="M104" s="42"/>
+      <c r="N104" s="42"/>
+      <c r="O104" s="42"/>
+      <c r="P104" s="42"/>
     </row>
     <row r="105" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E105" s="56"/>
-      <c r="F105" s="56"/>
-      <c r="G105" s="56"/>
-      <c r="H105" s="56"/>
-      <c r="I105" s="56"/>
-      <c r="J105" s="56"/>
-      <c r="K105" s="56"/>
-      <c r="L105" s="56"/>
-      <c r="M105" s="56"/>
-      <c r="N105" s="56"/>
-      <c r="O105" s="56"/>
-      <c r="P105" s="56"/>
+      <c r="E105" s="42"/>
+      <c r="F105" s="42"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="42"/>
+      <c r="J105" s="42"/>
+      <c r="K105" s="42"/>
+      <c r="L105" s="42"/>
+      <c r="M105" s="42"/>
+      <c r="N105" s="42"/>
+      <c r="O105" s="42"/>
+      <c r="P105" s="42"/>
     </row>
     <row r="106" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E106" s="54" t="s">
+      <c r="E106" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="F106" s="56"/>
-      <c r="G106" s="56"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="56"/>
-      <c r="J106" s="56"/>
-      <c r="K106" s="56"/>
-      <c r="L106" s="56"/>
-      <c r="M106" s="56"/>
-      <c r="N106" s="56"/>
-      <c r="O106" s="56"/>
-      <c r="P106" s="56"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="42"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="42"/>
+      <c r="M106" s="42"/>
+      <c r="N106" s="42"/>
+      <c r="O106" s="42"/>
+      <c r="P106" s="42"/>
     </row>
     <row r="107" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E107" s="60" t="s">
-        <v>394</v>
-      </c>
-      <c r="F107" s="56"/>
-      <c r="G107" s="56"/>
-      <c r="H107" s="56"/>
-      <c r="I107" s="56"/>
-      <c r="J107" s="56"/>
-      <c r="K107" s="56"/>
-      <c r="L107" s="56"/>
-      <c r="M107" s="56"/>
-      <c r="N107" s="56"/>
-      <c r="O107" s="56"/>
-      <c r="P107" s="56"/>
+      <c r="E107" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="F107" s="42"/>
+      <c r="G107" s="42"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="42"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="42"/>
+      <c r="M107" s="42"/>
+      <c r="N107" s="42"/>
+      <c r="O107" s="42"/>
+      <c r="P107" s="42"/>
     </row>
     <row r="108" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E108" s="56"/>
-      <c r="F108" s="54" t="s">
+      <c r="E108" s="42"/>
+      <c r="F108" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="G108" s="56"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="56"/>
-      <c r="J108" s="56"/>
-      <c r="K108" s="56"/>
-      <c r="L108" s="56"/>
-      <c r="M108" s="56"/>
-      <c r="N108" s="56"/>
-      <c r="O108" s="56"/>
-      <c r="P108" s="56"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="42"/>
+      <c r="K108" s="42"/>
+      <c r="L108" s="42"/>
+      <c r="M108" s="42"/>
+      <c r="N108" s="42"/>
+      <c r="O108" s="42"/>
+      <c r="P108" s="42"/>
     </row>
     <row r="109" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E109" s="56"/>
-      <c r="F109" s="54" t="s">
+      <c r="E109" s="42"/>
+      <c r="F109" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="G109" s="56"/>
-      <c r="H109" s="56"/>
-      <c r="I109" s="56"/>
-      <c r="J109" s="56"/>
-      <c r="K109" s="56"/>
-      <c r="L109" s="56"/>
-      <c r="M109" s="56"/>
-      <c r="N109" s="56"/>
-      <c r="O109" s="56"/>
-      <c r="P109" s="56"/>
+      <c r="G109" s="42"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="42"/>
+      <c r="J109" s="42"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="42"/>
+      <c r="M109" s="42"/>
+      <c r="N109" s="42"/>
+      <c r="O109" s="42"/>
+      <c r="P109" s="42"/>
     </row>
     <row r="110" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E110" s="56"/>
-      <c r="F110" s="56"/>
-      <c r="G110" s="56"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="56"/>
-      <c r="J110" s="56"/>
-      <c r="K110" s="56"/>
-      <c r="L110" s="56"/>
-      <c r="M110" s="56"/>
-      <c r="N110" s="56"/>
-      <c r="O110" s="56"/>
-      <c r="P110" s="56"/>
+      <c r="E110" s="42"/>
+      <c r="F110" s="42"/>
+      <c r="G110" s="42"/>
+      <c r="H110" s="42"/>
+      <c r="I110" s="42"/>
+      <c r="J110" s="42"/>
+      <c r="K110" s="42"/>
+      <c r="L110" s="42"/>
+      <c r="M110" s="42"/>
+      <c r="N110" s="42"/>
+      <c r="O110" s="42"/>
+      <c r="P110" s="42"/>
     </row>
     <row r="111" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E111" s="56"/>
-      <c r="F111" s="56"/>
-      <c r="G111" s="56"/>
-      <c r="H111" s="56"/>
-      <c r="I111" s="56"/>
-      <c r="J111" s="56"/>
-      <c r="K111" s="56"/>
-      <c r="L111" s="56"/>
-      <c r="M111" s="56"/>
-      <c r="N111" s="56"/>
-      <c r="O111" s="56"/>
-      <c r="P111" s="56"/>
+      <c r="E111" s="42"/>
+      <c r="F111" s="42"/>
+      <c r="G111" s="42"/>
+      <c r="H111" s="42"/>
+      <c r="I111" s="42"/>
+      <c r="J111" s="42"/>
+      <c r="K111" s="42"/>
+      <c r="L111" s="42"/>
+      <c r="M111" s="42"/>
+      <c r="N111" s="42"/>
+      <c r="O111" s="42"/>
+      <c r="P111" s="42"/>
     </row>
     <row r="112" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E112" s="54" t="s">
+      <c r="E112" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="F112" s="56"/>
-      <c r="G112" s="56"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="56"/>
-      <c r="J112" s="56"/>
-      <c r="K112" s="56"/>
-      <c r="L112" s="56"/>
-      <c r="M112" s="56"/>
-      <c r="N112" s="56"/>
-      <c r="O112" s="56"/>
-      <c r="P112" s="56"/>
+      <c r="F112" s="42"/>
+      <c r="G112" s="42"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="42"/>
+      <c r="J112" s="42"/>
+      <c r="K112" s="42"/>
+      <c r="L112" s="42"/>
+      <c r="M112" s="42"/>
+      <c r="N112" s="42"/>
+      <c r="O112" s="42"/>
+      <c r="P112" s="42"/>
     </row>
     <row r="113" spans="5:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E113" s="54" t="s">
+      <c r="E113" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="F113" s="56"/>
-      <c r="G113" s="56"/>
-      <c r="H113" s="56"/>
-      <c r="I113" s="56"/>
-      <c r="J113" s="56"/>
-      <c r="K113" s="56"/>
-      <c r="L113" s="56"/>
-      <c r="M113" s="56"/>
-      <c r="N113" s="56"/>
-      <c r="O113" s="56"/>
-      <c r="P113" s="56"/>
+      <c r="F113" s="42"/>
+      <c r="G113" s="42"/>
+      <c r="H113" s="42"/>
+      <c r="I113" s="42"/>
+      <c r="J113" s="42"/>
+      <c r="K113" s="42"/>
+      <c r="L113" s="42"/>
+      <c r="M113" s="42"/>
+      <c r="N113" s="42"/>
+      <c r="O113" s="42"/>
+      <c r="P113" s="42"/>
     </row>
     <row r="114" spans="5:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E114" s="56"/>
-      <c r="F114" s="56"/>
-      <c r="G114" s="56"/>
-      <c r="H114" s="56"/>
-      <c r="I114" s="56"/>
-      <c r="J114" s="56"/>
-      <c r="K114" s="56"/>
-      <c r="L114" s="56"/>
-      <c r="M114" s="56"/>
-      <c r="N114" s="56"/>
-      <c r="O114" s="56"/>
-      <c r="P114" s="56"/>
+      <c r="E114" s="42"/>
+      <c r="F114" s="42"/>
+      <c r="G114" s="42"/>
+      <c r="H114" s="42"/>
+      <c r="I114" s="42"/>
+      <c r="J114" s="42"/>
+      <c r="K114" s="42"/>
+      <c r="L114" s="42"/>
+      <c r="M114" s="42"/>
+      <c r="N114" s="42"/>
+      <c r="O114" s="42"/>
+      <c r="P114" s="42"/>
     </row>
     <row r="115" spans="5:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E115" s="54" t="s">
+      <c r="E115" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="F115" s="56"/>
-      <c r="G115" s="56"/>
-      <c r="H115" s="56"/>
-      <c r="I115" s="56"/>
-      <c r="J115" s="56"/>
-      <c r="K115" s="56"/>
-      <c r="L115" s="56"/>
-      <c r="M115" s="56"/>
-      <c r="N115" s="56"/>
-      <c r="O115" s="56"/>
-      <c r="P115" s="56"/>
+      <c r="F115" s="42"/>
+      <c r="G115" s="42"/>
+      <c r="H115" s="42"/>
+      <c r="I115" s="42"/>
+      <c r="J115" s="42"/>
+      <c r="K115" s="42"/>
+      <c r="L115" s="42"/>
+      <c r="M115" s="42"/>
+      <c r="N115" s="42"/>
+      <c r="O115" s="42"/>
+      <c r="P115" s="42"/>
     </row>
     <row r="116" spans="5:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E116" s="54" t="s">
+      <c r="E116" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="F116" s="56"/>
-      <c r="G116" s="56"/>
-      <c r="H116" s="56"/>
-      <c r="I116" s="56"/>
-      <c r="J116" s="56"/>
-      <c r="K116" s="56"/>
-      <c r="L116" s="56"/>
-      <c r="M116" s="56"/>
-      <c r="N116" s="56"/>
-      <c r="O116" s="56"/>
-      <c r="P116" s="56"/>
+      <c r="F116" s="42"/>
+      <c r="G116" s="42"/>
+      <c r="H116" s="42"/>
+      <c r="I116" s="42"/>
+      <c r="J116" s="42"/>
+      <c r="K116" s="42"/>
+      <c r="L116" s="42"/>
+      <c r="M116" s="42"/>
+      <c r="N116" s="42"/>
+      <c r="O116" s="42"/>
+      <c r="P116" s="42"/>
     </row>
     <row r="117" spans="5:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E117" s="54" t="s">
+      <c r="E117" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="F117" s="56"/>
-      <c r="G117" s="56"/>
-      <c r="H117" s="56"/>
-      <c r="I117" s="56"/>
-      <c r="J117" s="56"/>
-      <c r="K117" s="56"/>
-      <c r="L117" s="56"/>
-      <c r="M117" s="56"/>
-      <c r="N117" s="56"/>
-      <c r="O117" s="56"/>
-      <c r="P117" s="56"/>
+      <c r="F117" s="42"/>
+      <c r="G117" s="42"/>
+      <c r="H117" s="42"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="42"/>
+      <c r="K117" s="42"/>
+      <c r="L117" s="42"/>
+      <c r="M117" s="42"/>
+      <c r="N117" s="42"/>
+      <c r="O117" s="42"/>
+      <c r="P117" s="42"/>
     </row>
     <row r="118" spans="5:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E118" s="56"/>
-      <c r="F118" s="56"/>
-      <c r="G118" s="56"/>
-      <c r="H118" s="56"/>
-      <c r="I118" s="56"/>
-      <c r="J118" s="56"/>
-      <c r="K118" s="56"/>
-      <c r="L118" s="56"/>
-      <c r="M118" s="56"/>
-      <c r="N118" s="56"/>
-      <c r="O118" s="56"/>
-      <c r="P118" s="56"/>
+      <c r="E118" s="42"/>
+      <c r="F118" s="42"/>
+      <c r="G118" s="42"/>
+      <c r="H118" s="42"/>
+      <c r="I118" s="42"/>
+      <c r="J118" s="42"/>
+      <c r="K118" s="42"/>
+      <c r="L118" s="42"/>
+      <c r="M118" s="42"/>
+      <c r="N118" s="42"/>
+      <c r="O118" s="42"/>
+      <c r="P118" s="42"/>
     </row>
     <row r="119" spans="5:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E119" s="56"/>
-      <c r="F119" s="56"/>
-      <c r="G119" s="56"/>
-      <c r="H119" s="56"/>
-      <c r="I119" s="56"/>
-      <c r="J119" s="56"/>
-      <c r="K119" s="56"/>
-      <c r="L119" s="56"/>
-      <c r="M119" s="56"/>
-      <c r="N119" s="56"/>
-      <c r="O119" s="56"/>
-      <c r="P119" s="56"/>
+      <c r="E119" s="42"/>
+      <c r="F119" s="42"/>
+      <c r="G119" s="42"/>
+      <c r="H119" s="42"/>
+      <c r="I119" s="42"/>
+      <c r="J119" s="42"/>
+      <c r="K119" s="42"/>
+      <c r="L119" s="42"/>
+      <c r="M119" s="42"/>
+      <c r="N119" s="42"/>
+      <c r="O119" s="42"/>
+      <c r="P119" s="42"/>
     </row>
     <row r="120" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E120" s="56"/>
-      <c r="F120" s="56"/>
-      <c r="G120" s="56"/>
-      <c r="H120" s="56"/>
-      <c r="I120" s="56"/>
-      <c r="J120" s="56"/>
-      <c r="K120" s="56"/>
-      <c r="L120" s="56"/>
-      <c r="M120" s="56"/>
-      <c r="N120" s="56"/>
-      <c r="O120" s="56"/>
-      <c r="P120" s="56"/>
+      <c r="E120" s="42"/>
+      <c r="F120" s="42"/>
+      <c r="G120" s="42"/>
+      <c r="H120" s="42"/>
+      <c r="I120" s="42"/>
+      <c r="J120" s="42"/>
+      <c r="K120" s="42"/>
+      <c r="L120" s="42"/>
+      <c r="M120" s="42"/>
+      <c r="N120" s="42"/>
+      <c r="O120" s="42"/>
+      <c r="P120" s="42"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="notContainsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -14158,52 +14538,48 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F5"/>
+  <dimension ref="B3:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="24"/>
+    <col min="1" max="4" width="9" style="24"/>
+    <col min="5" max="5" width="10.625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C4" s="24" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D4" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>384</v>
+        <v>367</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14212,7 +14588,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H133"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14222,7 +14600,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
@@ -14267,7 +14645,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -14277,7 +14655,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>162</v>
@@ -14360,7 +14738,7 @@
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C61" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.3">
@@ -14370,22 +14748,22 @@
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E81" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E82" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E83" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="3:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="C86" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="3:5" hidden="1" x14ac:dyDescent="0.3"/>
@@ -14405,155 +14783,155 @@
     <row r="101" spans="2:5" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="102" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="D102" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="E103" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="104" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="E104" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="105" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="E105" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B108" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C109" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D110" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C112" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E113" s="27" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G113" s="27" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E114" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G114" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E115" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G115" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E116" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G116" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E117" s="18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E118" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E119" s="18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E120" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E121" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E122" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G122" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E123" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G123" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D125" s="18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C128" s="18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B130" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C131" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C133" s="18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="A1:A15 A17:A1048576">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -14566,19 +14944,126 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="18"/>
+    <col min="1" max="3" width="9" style="18"/>
+    <col min="4" max="4" width="24.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="18"/>
   </cols>
-  <sheetData/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="54"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D4" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D5" s="55" t="s">
+        <v>450</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D6" s="55" t="s">
+        <v>451</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D7" s="55" t="s">
+        <v>452</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="54" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>436</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>434</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="54" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="54" t="s">
+        <v>429</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>430</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G13" r:id="rId1" display="http://192.168.199.122:8880/browse/MG-1496"/>
+    <hyperlink ref="G11" r:id="rId2" display="http://192.168.199.122:8880/browse/MG-1497"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -14597,61 +15082,61 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C3" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C5" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C7" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="51" t="s">
-        <v>417</v>
+      <c r="B11" s="37" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C12" s="51" t="s">
-        <v>418</v>
+      <c r="C12" s="37" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="51" t="s">
-        <v>419</v>
+      <c r="B15" s="37" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C16" s="51" t="s">
-        <v>420</v>
+      <c r="C16" s="37" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="51" t="s">
-        <v>421</v>
+      <c r="C17" s="37" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="51" t="s">
-        <v>422</v>
+      <c r="C18" s="37" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="51" t="s">
-        <v>423</v>
+      <c r="C19" s="37" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gd/主界面/主界面逻辑设计.xlsx
+++ b/gd/主界面/主界面逻辑设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,10 @@
     <sheet name="美术需求" sheetId="6" r:id="rId6"/>
     <sheet name="任务拆分" sheetId="7" r:id="rId7"/>
     <sheet name="设计备忘" sheetId="8" r:id="rId8"/>
+    <sheet name="功能验收" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_2015_11_2">功能验收!$A$16:$F$34</definedName>
     <definedName name="needlevel">配置结构!$C$5:$E$5</definedName>
     <definedName name="当玩家一次性提升多个等级时_弹出多个提示界面_如玩家从1级升到3级_则提示2个界面_第一个界面关闭后弹出第二个界面">提示类逻辑!$F$42:$Q$42</definedName>
     <definedName name="功能开启预告">提示类逻辑!$E$46:$P$52</definedName>
@@ -32,174 +34,174 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="487">
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.1</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>主界面逻辑设计</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>明确主界面相关规则逻辑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>svn://10.21.2.47/gd/主界面/主界面逻辑设计.xlsx</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>主界面UI示意</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>角色信息显示区</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>货币信息显示区</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>活动信息按钮显示区</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>基础功能按钮显示区</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>聊天信息显示区</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>走马灯显示区</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>系统提示、系统公告显示区</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>角色头像</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示角色的头像</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -215,67 +217,67 @@
       </rPr>
       <t>6*96</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>默认的头像样式为固定的logo（给予一个于游戏风格一致的图标）（后续会随社交玩法推出头像变更功能）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>点击头像可以弹出系统设置界面</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>角色等级</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>最大可显示3位数字</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>角色名称</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示玩家角色名称</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>字色与字号见美术规范文档</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>角色经验条</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>初始等级为1级</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>背景</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>百分比</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>玩家当前非满级状态时，显示经验条当前百分比且当玩家在主界面获得经验后，百分比动态变化</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>玩家当前为满级状态时，显示为MAXLEVEL字样</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当玩家为满级状态时，进度条为0且不会随之变化</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>角色疲劳值</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -291,27 +293,27 @@
       </rPr>
       <t xml:space="preserve"> 当前疲劳值/当前等级疲劳值上限</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>字色与字号见美术规范文档</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当前等级疲劳值上限相关规则见疲劳值文档</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当前疲劳值相关规则见疲劳值文档</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>金币显示区</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>左侧显示金币，显示格式为 金币图标：金币数值</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -327,259 +329,259 @@
       </rPr>
       <t>00像素</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>钻石显示区</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>数字靠右对齐</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>右侧显示钻石，显示格式为 钻石图标：钻石数值</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>钻石数值显示大小为200像素</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>钻石数值右侧为购买钻石按钮</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮可以打开商城购买钻石的界面</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>金币数值右侧为购买金币按钮</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮可以打开钻石购买金币的界面</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示在界面左侧，角色信息下方</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>目前版本包括 签到、 活动指引、 充值（商城） 三个功能图标</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示在界面上方，包括金币、钻石</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>签到</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>包括签到的图标以及对应名称</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开签到界面</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>活动指引</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>包括活动指引的图标以及对应名称</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开活动指引界面</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>充值（商城）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>包括充值（商城）的图标以及对应名称</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开充值（商城）界面</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示在界面右下角，走马灯上方</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>包括任务的图标以及对应名称</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开任务界面</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>包括宠物的图标以及对应名称</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开宠物界面</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>包括背包的图标以及对应名称</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开背包界面</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示基础聊天显示框</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>具体显示格式与样式见IM系统设计文档</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当有走马灯信息时，在此处显示走马灯信息</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当有系统提示、系统公告信息时，在此处显示系统提示、系统公告信息信息</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>包括经验条背景、横向进度条、百分比</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>横向进度条</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>经验条背景为160*20大小的条状</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>为满足主界面图标显示多样性，制定如下主界面中图标的通用规则</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>适用于主界面中各类图标</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>目前版本包括 任务、宠物、背包 三个功能图标以及缩进/展开按钮</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>缩进/展开按钮</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>默认为展开状态，展开时点击缩进按钮可以将功能图标隐藏，隐藏有动画效果（各图标依次向缩进按钮移动，移动至缩进按钮后消失）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>缩进时点击展开按钮可以将功能图标展开，展开有动画效果（各图标依次从展开按钮移动到对应位置）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>缩进图标示例</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>需求不要是单面的，后续可能扩展在缩进按钮上方增加功能图标</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>展开图标示例</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>图标构成</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>图标本体</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>图标图片的表现形式</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>图标名称</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>该图标代表的功能的正式名称</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>状态标示</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示在图标本体右上角</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当该图标代表的功能有可用或者可点的操作时（具体效果各个功能标注），右上角出现该提示，提示始终存在，直至无可用或者可点操作消失</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示在图标本体下方</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>角色升级提示</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>新功能开启提示</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>升级提示界面</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>界面标题</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示为 Level up！或者其他带有升级类意义的词语，具体见美术设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>升级信息</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>玩家等级</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当前疲劳值</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -595,11 +597,11 @@
       </rPr>
       <t xml:space="preserve"> 目标疲劳值</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>疲劳值上限</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -615,563 +617,563 @@
       </rPr>
       <t xml:space="preserve"> 目标疲劳值上限</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>升级信息中的内容，只显示有数值变化的项，不变化的不显示，已显示的项垂直居中分布</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>确定按钮</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>点击确定按钮，则关闭当前界面</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>该窗口为模态不可移动</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>窗口出现后背景有半透明遮罩效果</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>该窗口不同于一般提示性窗口，需要比较炫丽，请美术同学单独设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>新功能开启提示界面</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示为Congratulation！或者其他带有恭喜，祝贺类意义的词语，具体见美术设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>提示内容</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示为提示信息文本</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>字色与字体见美术规范文档</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>字色与字体见美术规范文档，可保证显示下5行文本即可，每行长度大概300像素</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>提示说明</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示解锁的系统或者功能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>字色与字体见美术规范文档，需要与提示内容文本颜色区分开</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>该窗口不同于一般提示性窗口，需要有独特样式，请美术同学单独设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>点击界面后界面关闭，同时自动转动镜头至新开系统的图标或者处于屏幕水平中心位置</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>同时该图标或者按钮处于提示点击的样式并进入新功能引导逻辑</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>此期间内玩家无法自动旋转镜头以及进行其他功能操作</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当玩家提升到一定等级后，会开启对应新功能，此时会弹出新功能提示界面</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>如玩家在非主界面中升级后退出游戏，则下次进入主界面后再次弹出提示</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>新功能提示只会进行一次，且由服务器端记录是否已经进行完毕（引导结束视为进行完毕）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>1.角色信息区UI</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>包括</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>1.头像边框、头像logo设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>2.玩家等级样式设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>3.玩家名称样式设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>4.进度条样式设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>5.疲劳值样式设计、补充疲劳值按钮设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>2.货币信息区UI</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>包括</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>1.金币显示区样式设计、补充金币按钮设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>2.钻石显示区样式设计、补充钻石按钮设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>3.活动信息区图标</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>1.签到图标以及文字样式设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>2.活动指引图标以及文字样式设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>3.充值（商城）图标以及活动样式设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>4.基础功能图标按钮UI</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>1.任务图标以及文字样式设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>2.宠物图标以及文字样式设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>3.背包图标以及文字样式设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>5.图标通用</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>3.图标状态标识样式设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>1.图标提示文本样式设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>包括 hot、new字样的动态效果</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>主界面图标通用规则</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>图标效果</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示效果</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>点击效果</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>限时图标</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>图标支持定时显示与倒计时消失功能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当配置开启时间后，则在开启时间出现图标，开始时间之前不显示图标</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当配置倒计时消失时间后，则在图标出现后开始计时，倒计时到达时图标消失</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>图标响应规则</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>点击图标后，识别抬起时手指是否还在图标响应范围内</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>如超出范围，则不响应点击</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>如未超出范围，抬起手指时响应点击效果</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>按下手指时不在图标上，则抬起时无论是否在图标上都不响应点击</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>6.角色升级UI</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>1.升级界面整体样式设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>2.升级界面字体样式设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>3.确定按钮样式设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>7.新功能提示UI</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>包括</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>1.新功能提示整体样式设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>2.新功能提示字体样式设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>3.新功能入口特效样式设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>物件显示规则</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>场景结构</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>结构组成</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>主场景为3D形式</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>内容为一个日常起居室（详细需求见【美术需求】分页）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>参考图如下样式</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>场景介绍</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>整体为一个四面墙的起居室，可见范围为左前右三面墙以及部分地板以及天花板</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>屋内有各类生活物件组成（如衣柜、床、书桌、书柜等等）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>物件均为3D形式展现</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>镜头相关</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>镜头移动</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>场景中镜头可以按照固定轨迹左右滑动</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>需求移动轨迹可以配置调整</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>镜头高度</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>镜头高度为1.4米，大概为角色坐在床上或者椅子上时眼睛高度一致</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>镜头视距</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>滑动速度以及距离根据玩家滑动的力度以及速度决定</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>镜头视距为1.5米左右，固定不变</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>镜头角度</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>镜头视角为平视（大概为水平夹角在15至-20之间）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>视角不可手动变化</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>默认镜头</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>默认镜头为开启客户端后首次进入主场景的镜头，需求可配置</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>开启其他界面后，未关闭客户端的情况下再次返回主场景，应该保留进入其他界面前的镜头位置</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>场景大小</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>由左至右拖动镜头需求可完整展现大概2.5屏幕的内容</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>左右需要各预留半屏左右大小的场景用于镜头回弹（镜头回弹详见镜头相关）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>单屏幕展现内容示意</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>镜头回弹</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>左右拖动镜头至边界时，无法继续拖动，会有一个类似下拉列表的回弹效果（可继续拉伸一段距离，松手后回弹到边界位置）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>黄色实线为镜头两个边界，黄色虚线为镜头中心线</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>绿色边框为镜头正常可见范围，红色与绿色相接位置即为可见场景的边界</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>图1</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>图2</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>图1为正常情况下显示的镜头边界角度</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当滑动镜头至图1后，继续向右可以滑动至图2位置，松手后镜头回弹至图1位置</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>左侧边界同理</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>如下镜头顶视图示意</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>蓝色实线为镜头滑动轨迹</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>回弹过程持续0.5秒，镜头角度平缓变化</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>物件定义</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>场景中的家具、电器、用品等可被操作的物品成为物件</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>物件交互</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当某个物件配置了对应的功能或者玩法入口时，且玩家开启该功能或者玩法的条件时，玩家可以与物件进行交互</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>交互形式</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>点击物件后物件可播放点击动作以及特效，然后打开对应入口界面</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>响应规则</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>如不处于响应范围内，则不响应点击效果</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>点击物件后判断抬起手指位置是否处于物件响应范围内</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>如处于响应范围内，则响应点击效果</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>交互响应开启规则</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当玩家不满足某个物件的开启条件时，无法与物件进行交互</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>点击物件不会有点击效果反馈，同时不会打开对应入口</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>此时物件为普通物件</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当玩家满足某个物件的开启条件时，普通物件变为可交互物件</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>效果反馈</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>普通物件</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>未点击状态的普通物件无特效反馈</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>点击普通物件无特效反馈</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>点击普通物件无动作反馈</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>可交互物件</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>未点击状态的普通物件有特效反馈</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>点击可交互物件有动作反馈（点击后播放对应点击动作动画，播放一次即可）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>点击可交互物件有特效反馈（点击后播放对应动作的特效效果）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>主界面场景功能扩展</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>1. 照妖镜可以在场景中使用，并照出隐藏功能玩法</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>2.可以支持场景物件扩展（玩家宠物变换为手办形式存放于场景中）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>3.窗外昼夜变换</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>点击物件会有点击效果反馈</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>若物件无动作反馈，则直接打开入口界面</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>若物件有动作反馈，则播放动作后打开入口界面</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1187,19 +1189,19 @@
       </rPr>
       <t>I需求</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>场景需求</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>1.主界面场景</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>日常起居室，可以承载目前世界观风格的三面墙场景，需要包含地面与天花板</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1215,7 +1217,7 @@
       </rPr>
       <t>.场景物件</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1231,95 +1233,95 @@
       </rPr>
       <t>PC商店</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>对应功能/玩法</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>可参考物件</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>抽蛋</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>副本选择</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>大冒险</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>新玩法1</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>公会</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>合成</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>分解</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>电脑屏幕</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>衣柜</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>漫画/墙上挂件</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>电话</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>垃圾桶</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>纸抽/存钱罐/魔方</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>需要满足上述玩法对应设计物件</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>某种玩具</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>动作需求</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>暂缓</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1335,7 +1337,7 @@
       </rPr>
       <t>.可交互物件未点击时的自发光特效</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1351,171 +1353,171 @@
       </rPr>
       <t>.物件点击后的特效</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> mt</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>初版文档等待mt审核</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>有些地方是大写的LVL（宠物，结算），需要空格或者点么</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>这里是否需要缩放规则</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>填充方式，逐渐增长的还是突进的，还是待设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>百分比精确位数</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>这个用的是通用控件还是单独控件？</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>多语言在这儿写还是各个功能写</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>多语言，id用已有的</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>邮箱装备宠物里面用的红点，这个是不是统一一下</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>这个不建议有，因为游戏中会频繁获得材料怪（早年说每天都能获得几只），这样只材料怪而已没必要提示</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当new和数量同时存在的时候，容易被误解为有x个new</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>new和状态标识同时出现的时候很容易被误解</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>灰掉标上要做的版本号</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>感觉这个功能简单的提示解锁了什么就行，没必要提示这么多文字，要是想提示文字，发个邮件也可以吧</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>配置结构缺失，哪些等级开启哪些功能待定么？</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>文字自动缩放？玩家名字是不是可以规定最大字数</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>还要名称么？多语言</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>还要名称么？多语言</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>同上</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>邮箱？</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>扩展了就不能叫左右了，你不说清楚，帆爷绝逼给你做成左右的</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>名称要考虑多语言，可能图标的宽度显示不下</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>宠物进阶、装备强化都与玩家等级有关</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>时</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>只有这个界面感觉不够，最好经过一次返回主界面，点主界面或者对应入口，这样有助于玩家记忆入口位置</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>这个控件有了，不用提了</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>变化方式，是直接跳还是每次加1逐渐变化/单位时间内增长速度</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>详见签到文档吧</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>如果玩家在线过刷新点也弹出签到界面么，还是重登陆，待定</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>这句im文档写了，删掉吧</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>该图的帧动画</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>界面什么时候出现，是在任何位置升级都触发这个界面么？--都弹</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>说一下都什么时候弹</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>进行完毕后，显示下一个</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>关门放吕布</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>把大界面截过来</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1531,59 +1533,59 @@
       </rPr>
       <t>玩家当前等级</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>已改</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当玩家非满级状态时，玩家在主界面获得经验后，进度条由左至右动态填充</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>百分比精确至个位数</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>每次变化最小值为1%，保持与进度条同时结束即可</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>通用控件，但是商店系统没写…我还是留着吧</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>各个功能自己写</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当有已完成的任务时，任务图标右上角显示红点提示</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>各系统自己写</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>容易产生歧义，去掉此功能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>已改图</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>删</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>图标是 做图上的</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>已去掉文本提示</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1599,222 +1601,222 @@
       </rPr>
       <t>.9版本有运营活动时添加</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>已改</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>已补充</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>升级界面弹出规则</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>邮箱、任务等界面获得经验的界面中，获得经验后直接弹出升级界面，且出现在邮箱、任务等界面上层</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>已补充</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>功能名称</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>新功能开启</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>功能提示</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当玩家一次提升多个等级时，可能会同时开启多个新功能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>此时需要按照新功能开启等级由低到高一项一项显示（上一项进行完毕后，再次回到主界面后，显示下一个）</t>
   </si>
   <si>
     <t>开启等级</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>已补充</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>该提示信息只在主界面时才会弹出，如当前在非主界面中升级，则在玩家下次返回主界面时进行提示</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示不下可以滚动查看</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>包括功能名称，简介，开启情况</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>功能名称</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>读取配置表中的功能名称</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>简介</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>读取配置表中的简介</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>开启情况</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>本级开启的显示 绿色 “已开启”</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>只提示功能性内容</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.5</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_levelup_dengji</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_levelup_pilao</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_levelup_shangxian</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>多语言ID：main_shengji_title</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_new_title</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_new_tishi</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>战斗后获得经验后，均与界面同时展现（副本结果移动到屏幕上方后），且出现在副本结算界面上层</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>功能开启预告</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>包括已开启与将要开启两部分</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>已开启</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>未开启</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>预告内容</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_shengji_kaiqi</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>非本级开启的显示 红色 “X级开启”</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_shengji_weikaiqi</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>补充功能开启预告的规则</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>删除多余文字</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.6</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示目标等级之后将要开启的两个新功能，如同一个等级有多个新功能开启，则按照配置表的顺序依次显示</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.6</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>程序、qc、美术、木木、mt</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>取消升级后新功能提醒，改为新手引导制作</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示长度为200像素</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>取消名称缩放需求</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>图标点击后会做有缩放效果</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>图标按下直接缩放处理</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>删除图标提示文本需求</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1830,19 +1832,19 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>签到界面的弹出方式详见签到功能文档</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>其他相关</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>疲劳值名称待确定</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1858,19 +1860,19 @@
       </rPr>
       <t>M布局与雪姬确认</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>创建角色界面增加头像选择功能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>同一个等级可以开启多个新功能？</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示本次等级提升所有已开启的功能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1886,51 +1888,51 @@
       </rPr>
       <t>3级，则提示2个界面，第一个界面关闭后弹出第二个界面</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>一次提升多个等级弹出多个升级提示界面</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示格式为，恭喜您提升到X级！</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>玩家等级提示方式变更</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>包含 玩家等级、当前疲劳值、疲劳值上限</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>图标上层或者下层可以支持帧动画或者粒子特效效果</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>变更图标帧动画效果为图标前后可以增加帧动画图片或者粒子特效</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.7</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>配置+验收</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1946,11 +1948,11 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>原画</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1966,7 +1968,7 @@
       </rPr>
       <t>D</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1982,7 +1984,7 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1998,7 +2000,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2014,7 +2016,7 @@
       </rPr>
       <t>0d</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2030,15 +2032,15 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2054,7 +2056,7 @@
       </rPr>
       <t xml:space="preserve">                   </t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2070,7 +2072,7 @@
       </rPr>
       <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                       </t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2086,7 +2088,7 @@
       </rPr>
       <t xml:space="preserve">     </t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2102,7 +2104,7 @@
       </rPr>
       <t xml:space="preserve">    </t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2118,7 +2120,7 @@
       </rPr>
       <t xml:space="preserve">                 </t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2134,7 +2136,7 @@
       </rPr>
       <t xml:space="preserve">                   </t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>升级信息提示封装</t>
@@ -2156,7 +2158,7 @@
       </rPr>
       <t>.5d</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2172,23 +2174,23 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>1.镜头调整</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>2.场景编辑，选中效果</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>3.添加到流程</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">主界面UI </t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t> MG-1496</t>
@@ -2210,7 +2212,7 @@
       </rPr>
       <t>esc</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2226,20 +2228,166 @@
       </rPr>
       <t>eedlevel</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面UI验收</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.经验条比例显示不正常，每次获得经验后经验条为满，重新登录后经验条为0，实际经验条可能为50%</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.角色等级显示不正常，每次升级后返回主界面后角色等级显示为99级，重新登录后显示正常</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级提示界面验收</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.文本内容没有读表（显示的是翻译代号）</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.新功能提示没有读表，每次都显示的是任务（客户端改表function后无法进入游戏）</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级提升无法验证是否正确</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力提升无法验证是否正确</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力上限提升无法验证是否正确</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加主界面UI验收内容</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次验收</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>主界面U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色信息界面</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验条</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待活力值系统</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮旋转</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能入口</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标展开/缩放</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础功能部分</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级提示界面</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级提升</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值提升</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值上限提升</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>新功能预告</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加UI部分二次验收结果</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2634,140 +2782,143 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7943,7 +8094,7 @@
                 <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
                 <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               </a:rPr>
-              <a:t>当前疲劳值：</a:t>
+              <a:t>当前活力：</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0">
@@ -8020,7 +8171,7 @@
                 <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
                 <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               </a:rPr>
-              <a:t>疲劳值上限：</a:t>
+              <a:t>活力上限：</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0">
@@ -11293,8 +11444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -11353,28 +11504,28 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="64"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="58"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="61"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
@@ -11383,67 +11534,67 @@
       <c r="C14" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="68" t="s">
         <v>302</v>
       </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="67"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="70"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="73"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="58"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="61"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="58"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="61"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="58"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="63"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -11550,13 +11701,17 @@
       <c r="B28" s="2"/>
       <c r="C28" s="11"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="34"/>
+      <c r="H28" s="34" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
       <c r="C29" s="11"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="34"/>
+      <c r="H29" s="34" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
@@ -11641,7 +11796,7 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H25" location="功能开启预告" display="补充功能开启预告的规则"/>
     <hyperlink ref="H26" location="战斗后获得经验后_均与界面同时展现_副本结果移动到屏幕上方后__且出现在副本结算界面上层" display="删除多余文字"/>
@@ -11651,6 +11806,7 @@
     <hyperlink ref="E37" location="当玩家一次性提升多个等级时_弹出多个提示界面_如玩家从1级升到3级_则提示2个界面_第一个界面关闭后弹出第二个界面" display="一次提升多个等级弹出多个升级提示界面"/>
     <hyperlink ref="E38" location="玩家等级格式" display="玩家等级提示方式变更"/>
     <hyperlink ref="H27" location="图标上层或者下层可以支持帧动画或者粒子特效效果" display="变更图标帧动画效果为图标前后可以增加帧动画图片或者粒子特效"/>
+    <hyperlink ref="H29" location="_2015_11_2" display="添加UI部分二次验收结果"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12158,7 +12314,7 @@
       <c r="T140" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -13210,7 +13366,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="notContainsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -13232,7 +13388,7 @@
   <dimension ref="A2:Q120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14519,7 +14675,7 @@
       <c r="P120" s="42"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="notContainsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -14540,7 +14696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -14571,15 +14727,15 @@
       <c r="C5" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="57" t="s">
         <v>455</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="57" t="s">
         <v>456</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14931,7 +15087,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="A1:A15 A17:A1048576">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -15057,7 +15213,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G13" r:id="rId1" display="http://192.168.199.122:8880/browse/MG-1496"/>
     <hyperlink ref="G11" r:id="rId2" display="http://192.168.199.122:8880/browse/MG-1497"/>
@@ -15136,7 +15292,204 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="59"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="58">
+        <v>42307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="59" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="59" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="59" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="59" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="59" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="59" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="59" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="59" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="59" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="58">
+        <v>42310</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="74" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="74" t="s">
+        <v>470</v>
+      </c>
+      <c r="E19" s="74" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="74" t="s">
+        <v>471</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="E21" s="74" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="E22" s="74" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="E23" s="74" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="74" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="74" t="s">
+        <v>477</v>
+      </c>
+      <c r="E26" s="74" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="74" t="s">
+        <v>478</v>
+      </c>
+      <c r="E27" s="74" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="74" t="s">
+        <v>479</v>
+      </c>
+      <c r="E28" s="74" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="74"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="74" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="74" t="s">
+        <v>482</v>
+      </c>
+      <c r="E31" s="74" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="74" t="s">
+        <v>483</v>
+      </c>
+      <c r="E32" s="74" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="74" t="s">
+        <v>484</v>
+      </c>
+      <c r="E33" s="74" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="74" t="s">
+        <v>485</v>
+      </c>
+      <c r="E34" s="74" t="s">
+        <v>475</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gd/主界面/主界面逻辑设计.xlsx
+++ b/gd/主界面/主界面逻辑设计.xlsx
@@ -20,7 +20,9 @@
   <definedNames>
     <definedName name="_2015_11_2">功能验收!$A$16:$F$34</definedName>
     <definedName name="needlevel">配置结构!$C$5:$E$5</definedName>
+    <definedName name="百分比精确至个位数_向上取整">UI相关逻辑!$G$75:$I$75</definedName>
     <definedName name="当玩家一次性提升多个等级时_弹出多个提示界面_如玩家从1级升到3级_则提示2个界面_第一个界面关闭后弹出第二个界面">提示类逻辑!$F$42:$Q$42</definedName>
+    <definedName name="多语言ID_main_levelup_title">提示类逻辑!$F$24:$H$24</definedName>
     <definedName name="功能开启预告">提示类逻辑!$E$46:$P$52</definedName>
     <definedName name="图标点击后会做有缩放效果">UI相关逻辑!$G$230:$I$230</definedName>
     <definedName name="图标构成">UI相关逻辑!$E$202:$I$209</definedName>
@@ -34,174 +36,174 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="491">
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>主界面逻辑设计</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>明确主界面相关规则逻辑</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>svn://10.21.2.47/gd/主界面/主界面逻辑设计.xlsx</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>主界面UI示意</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>角色信息显示区</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>货币信息显示区</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>活动信息按钮显示区</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>基础功能按钮显示区</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>聊天信息显示区</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>走马灯显示区</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>系统提示、系统公告显示区</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>角色头像</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示角色的头像</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -217,67 +219,67 @@
       </rPr>
       <t>6*96</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>默认的头像样式为固定的logo（给予一个于游戏风格一致的图标）（后续会随社交玩法推出头像变更功能）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击头像可以弹出系统设置界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>角色等级</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>最大可显示3位数字</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>角色名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示玩家角色名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>字色与字号见美术规范文档</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>角色经验条</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>初始等级为1级</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>背景</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>百分比</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>玩家当前非满级状态时，显示经验条当前百分比且当玩家在主界面获得经验后，百分比动态变化</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>玩家当前为满级状态时，显示为MAXLEVEL字样</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当玩家为满级状态时，进度条为0且不会随之变化</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>角色疲劳值</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -293,27 +295,27 @@
       </rPr>
       <t xml:space="preserve"> 当前疲劳值/当前等级疲劳值上限</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>字色与字号见美术规范文档</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当前等级疲劳值上限相关规则见疲劳值文档</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当前疲劳值相关规则见疲劳值文档</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>金币显示区</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>左侧显示金币，显示格式为 金币图标：金币数值</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -329,259 +331,259 @@
       </rPr>
       <t>00像素</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>钻石显示区</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>数字靠右对齐</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>右侧显示钻石，显示格式为 钻石图标：钻石数值</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>钻石数值显示大小为200像素</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>钻石数值右侧为购买钻石按钮</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮可以打开商城购买钻石的界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>金币数值右侧为购买金币按钮</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮可以打开钻石购买金币的界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示在界面左侧，角色信息下方</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>目前版本包括 签到、 活动指引、 充值（商城） 三个功能图标</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示在界面上方，包括金币、钻石</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>签到</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>包括签到的图标以及对应名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开签到界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>活动指引</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>包括活动指引的图标以及对应名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开活动指引界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>充值（商城）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>包括充值（商城）的图标以及对应名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开充值（商城）界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示在界面右下角，走马灯上方</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>包括任务的图标以及对应名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开任务界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>包括宠物的图标以及对应名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开宠物界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>包括背包的图标以及对应名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开背包界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示基础聊天显示框</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>具体显示格式与样式见IM系统设计文档</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当有走马灯信息时，在此处显示走马灯信息</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当有系统提示、系统公告信息时，在此处显示系统提示、系统公告信息信息</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>包括经验条背景、横向进度条、百分比</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>横向进度条</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>经验条背景为160*20大小的条状</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>为满足主界面图标显示多样性，制定如下主界面中图标的通用规则</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>适用于主界面中各类图标</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>目前版本包括 任务、宠物、背包 三个功能图标以及缩进/展开按钮</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>缩进/展开按钮</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>默认为展开状态，展开时点击缩进按钮可以将功能图标隐藏，隐藏有动画效果（各图标依次向缩进按钮移动，移动至缩进按钮后消失）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>缩进时点击展开按钮可以将功能图标展开，展开有动画效果（各图标依次从展开按钮移动到对应位置）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>缩进图标示例</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>需求不要是单面的，后续可能扩展在缩进按钮上方增加功能图标</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>展开图标示例</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>图标构成</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>图标本体</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>图标图片的表现形式</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>图标名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>该图标代表的功能的正式名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>状态标示</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示在图标本体右上角</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当该图标代表的功能有可用或者可点的操作时（具体效果各个功能标注），右上角出现该提示，提示始终存在，直至无可用或者可点操作消失</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示在图标本体下方</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>角色升级提示</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>新功能开启提示</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>升级提示界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>界面标题</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示为 Level up！或者其他带有升级类意义的词语，具体见美术设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>升级信息</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>玩家等级</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当前疲劳值</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -597,11 +599,11 @@
       </rPr>
       <t xml:space="preserve"> 目标疲劳值</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>疲劳值上限</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -617,563 +619,563 @@
       </rPr>
       <t xml:space="preserve"> 目标疲劳值上限</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>升级信息中的内容，只显示有数值变化的项，不变化的不显示，已显示的项垂直居中分布</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>确定按钮</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击确定按钮，则关闭当前界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>该窗口为模态不可移动</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>窗口出现后背景有半透明遮罩效果</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>该窗口不同于一般提示性窗口，需要比较炫丽，请美术同学单独设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>新功能开启提示界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示为Congratulation！或者其他带有恭喜，祝贺类意义的词语，具体见美术设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>提示内容</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示为提示信息文本</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>字色与字体见美术规范文档</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>字色与字体见美术规范文档，可保证显示下5行文本即可，每行长度大概300像素</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>提示说明</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示解锁的系统或者功能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>字色与字体见美术规范文档，需要与提示内容文本颜色区分开</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>该窗口不同于一般提示性窗口，需要有独特样式，请美术同学单独设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击界面后界面关闭，同时自动转动镜头至新开系统的图标或者处于屏幕水平中心位置</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>同时该图标或者按钮处于提示点击的样式并进入新功能引导逻辑</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>此期间内玩家无法自动旋转镜头以及进行其他功能操作</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当玩家提升到一定等级后，会开启对应新功能，此时会弹出新功能提示界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>如玩家在非主界面中升级后退出游戏，则下次进入主界面后再次弹出提示</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>新功能提示只会进行一次，且由服务器端记录是否已经进行完毕（引导结束视为进行完毕）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1.角色信息区UI</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>包括</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1.头像边框、头像logo设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2.玩家等级样式设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>3.玩家名称样式设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>4.进度条样式设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>5.疲劳值样式设计、补充疲劳值按钮设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2.货币信息区UI</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>包括</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1.金币显示区样式设计、补充金币按钮设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2.钻石显示区样式设计、补充钻石按钮设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>3.活动信息区图标</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1.签到图标以及文字样式设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2.活动指引图标以及文字样式设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>3.充值（商城）图标以及活动样式设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>4.基础功能图标按钮UI</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1.任务图标以及文字样式设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2.宠物图标以及文字样式设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>3.背包图标以及文字样式设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>5.图标通用</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>3.图标状态标识样式设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1.图标提示文本样式设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>包括 hot、new字样的动态效果</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>主界面图标通用规则</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>图标效果</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示效果</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击效果</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>限时图标</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>图标支持定时显示与倒计时消失功能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当配置开启时间后，则在开启时间出现图标，开始时间之前不显示图标</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当配置倒计时消失时间后，则在图标出现后开始计时，倒计时到达时图标消失</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>图标响应规则</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击图标后，识别抬起时手指是否还在图标响应范围内</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>如超出范围，则不响应点击</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>如未超出范围，抬起手指时响应点击效果</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>按下手指时不在图标上，则抬起时无论是否在图标上都不响应点击</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>6.角色升级UI</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1.升级界面整体样式设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2.升级界面字体样式设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>3.确定按钮样式设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>7.新功能提示UI</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>包括</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1.新功能提示整体样式设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2.新功能提示字体样式设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>3.新功能入口特效样式设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>物件显示规则</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>场景结构</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>结构组成</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>主场景为3D形式</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>内容为一个日常起居室（详细需求见【美术需求】分页）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>参考图如下样式</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>场景介绍</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>整体为一个四面墙的起居室，可见范围为左前右三面墙以及部分地板以及天花板</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>屋内有各类生活物件组成（如衣柜、床、书桌、书柜等等）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>物件均为3D形式展现</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>镜头相关</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>镜头移动</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>场景中镜头可以按照固定轨迹左右滑动</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>需求移动轨迹可以配置调整</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>镜头高度</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>镜头高度为1.4米，大概为角色坐在床上或者椅子上时眼睛高度一致</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>镜头视距</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>滑动速度以及距离根据玩家滑动的力度以及速度决定</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>镜头视距为1.5米左右，固定不变</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>镜头角度</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>镜头视角为平视（大概为水平夹角在15至-20之间）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>视角不可手动变化</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>默认镜头</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>默认镜头为开启客户端后首次进入主场景的镜头，需求可配置</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>开启其他界面后，未关闭客户端的情况下再次返回主场景，应该保留进入其他界面前的镜头位置</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>场景大小</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>由左至右拖动镜头需求可完整展现大概2.5屏幕的内容</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>左右需要各预留半屏左右大小的场景用于镜头回弹（镜头回弹详见镜头相关）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>单屏幕展现内容示意</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>镜头回弹</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>左右拖动镜头至边界时，无法继续拖动，会有一个类似下拉列表的回弹效果（可继续拉伸一段距离，松手后回弹到边界位置）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>黄色实线为镜头两个边界，黄色虚线为镜头中心线</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>绿色边框为镜头正常可见范围，红色与绿色相接位置即为可见场景的边界</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>图1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>图2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>图1为正常情况下显示的镜头边界角度</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当滑动镜头至图1后，继续向右可以滑动至图2位置，松手后镜头回弹至图1位置</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>左侧边界同理</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>如下镜头顶视图示意</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>蓝色实线为镜头滑动轨迹</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>回弹过程持续0.5秒，镜头角度平缓变化</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>物件定义</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>场景中的家具、电器、用品等可被操作的物品成为物件</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>物件交互</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当某个物件配置了对应的功能或者玩法入口时，且玩家开启该功能或者玩法的条件时，玩家可以与物件进行交互</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>交互形式</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击物件后物件可播放点击动作以及特效，然后打开对应入口界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>响应规则</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>如不处于响应范围内，则不响应点击效果</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击物件后判断抬起手指位置是否处于物件响应范围内</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>如处于响应范围内，则响应点击效果</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>交互响应开启规则</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当玩家不满足某个物件的开启条件时，无法与物件进行交互</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击物件不会有点击效果反馈，同时不会打开对应入口</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>此时物件为普通物件</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当玩家满足某个物件的开启条件时，普通物件变为可交互物件</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>效果反馈</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>普通物件</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>未点击状态的普通物件无特效反馈</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击普通物件无特效反馈</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击普通物件无动作反馈</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>可交互物件</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>未点击状态的普通物件有特效反馈</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击可交互物件有动作反馈（点击后播放对应点击动作动画，播放一次即可）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击可交互物件有特效反馈（点击后播放对应动作的特效效果）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>主界面场景功能扩展</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1. 照妖镜可以在场景中使用，并照出隐藏功能玩法</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2.可以支持场景物件扩展（玩家宠物变换为手办形式存放于场景中）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>3.窗外昼夜变换</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>点击物件会有点击效果反馈</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>若物件无动作反馈，则直接打开入口界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>若物件有动作反馈，则播放动作后打开入口界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1189,19 +1191,19 @@
       </rPr>
       <t>I需求</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>场景需求</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1.主界面场景</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>日常起居室，可以承载目前世界观风格的三面墙场景，需要包含地面与天花板</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1217,7 +1219,7 @@
       </rPr>
       <t>.场景物件</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1233,95 +1235,95 @@
       </rPr>
       <t>PC商店</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对应功能/玩法</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>可参考物件</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>抽蛋</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>副本选择</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>大冒险</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>新玩法1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>公会</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>合成</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>分解</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>电脑屏幕</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>衣柜</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>漫画/墙上挂件</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>电话</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>垃圾桶</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>纸抽/存钱罐/魔方</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>需要满足上述玩法对应设计物件</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>某种玩具</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>动作需求</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>暂缓</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1337,7 +1339,7 @@
       </rPr>
       <t>.可交互物件未点击时的自发光特效</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1353,171 +1355,171 @@
       </rPr>
       <t>.物件点击后的特效</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> mt</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>初版文档等待mt审核</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>有些地方是大写的LVL（宠物，结算），需要空格或者点么</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>这里是否需要缩放规则</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>填充方式，逐渐增长的还是突进的，还是待设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>百分比精确位数</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>这个用的是通用控件还是单独控件？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>多语言在这儿写还是各个功能写</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>多语言，id用已有的</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>邮箱装备宠物里面用的红点，这个是不是统一一下</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>这个不建议有，因为游戏中会频繁获得材料怪（早年说每天都能获得几只），这样只材料怪而已没必要提示</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当new和数量同时存在的时候，容易被误解为有x个new</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>new和状态标识同时出现的时候很容易被误解</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>灰掉标上要做的版本号</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>感觉这个功能简单的提示解锁了什么就行，没必要提示这么多文字，要是想提示文字，发个邮件也可以吧</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>配置结构缺失，哪些等级开启哪些功能待定么？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>文字自动缩放？玩家名字是不是可以规定最大字数</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>还要名称么？多语言</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>还要名称么？多语言</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>同上</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>邮箱？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>扩展了就不能叫左右了，你不说清楚，帆爷绝逼给你做成左右的</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>名称要考虑多语言，可能图标的宽度显示不下</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>宠物进阶、装备强化都与玩家等级有关</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>时</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>只有这个界面感觉不够，最好经过一次返回主界面，点主界面或者对应入口，这样有助于玩家记忆入口位置</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>这个控件有了，不用提了</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>变化方式，是直接跳还是每次加1逐渐变化/单位时间内增长速度</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>详见签到文档吧</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>如果玩家在线过刷新点也弹出签到界面么，还是重登陆，待定</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>这句im文档写了，删掉吧</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>该图的帧动画</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>界面什么时候出现，是在任何位置升级都触发这个界面么？--都弹</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>说一下都什么时候弹</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>进行完毕后，显示下一个</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>关门放吕布</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>把大界面截过来</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1533,59 +1535,55 @@
       </rPr>
       <t>玩家当前等级</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>已改</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当玩家非满级状态时，玩家在主界面获得经验后，进度条由左至右动态填充</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比精确至个位数</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>每次变化最小值为1%，保持与进度条同时结束即可</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>通用控件，但是商店系统没写…我还是留着吧</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>各个功能自己写</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当有已完成的任务时，任务图标右上角显示红点提示</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>各系统自己写</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>容易产生歧义，去掉此功能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>已改图</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>删</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>图标是 做图上的</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>已去掉文本提示</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1601,222 +1599,210 @@
       </rPr>
       <t>.9版本有运营活动时添加</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>已改</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>已补充</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>升级界面弹出规则</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>邮箱、任务等界面获得经验的界面中，获得经验后直接弹出升级界面，且出现在邮箱、任务等界面上层</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>已补充</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>功能名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>新功能开启</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>功能提示</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>当玩家一次提升多个等级时，可能会同时开启多个新功能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>此时需要按照新功能开启等级由低到高一项一项显示（上一项进行完毕后，再次回到主界面后，显示下一个）</t>
   </si>
   <si>
     <t>开启等级</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>已补充</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>该提示信息只在主界面时才会弹出，如当前在非主界面中升级，则在玩家下次返回主界面时进行提示</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示不下可以滚动查看</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>包括功能名称，简介，开启情况</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>功能名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>读取配置表中的功能名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>简介</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>读取配置表中的简介</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>开启情况</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>本级开启的显示 绿色 “已开启”</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>只提示功能性内容</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.5</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_levelup_dengji</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_levelup_pilao</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_levelup_shangxian</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>多语言ID：main_shengji_title</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_new_title</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_new_tishi</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>战斗后获得经验后，均与界面同时展现（副本结果移动到屏幕上方后），且出现在副本结算界面上层</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>功能开启预告</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>包括已开启与将要开启两部分</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>已开启</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>未开启</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>预告内容</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>多语言：main_shengji_kaiqi</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>非本级开启的显示 红色 “X级开启”</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>多语言：main_shengji_weikaiqi</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>补充功能开启预告的规则</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>删除多余文字</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.6</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示目标等级之后将要开启的两个新功能，如同一个等级有多个新功能开启，则按照配置表的顺序依次显示</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.6</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>程序、qc、美术、木木、mt</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>取消升级后新功能提醒，改为新手引导制作</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示长度为200像素</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>取消名称缩放需求</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>图标点击后会做有缩放效果</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>图标按下直接缩放处理</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>删除图标提示文本需求</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1832,19 +1818,19 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>签到界面的弹出方式详见签到功能文档</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>其他相关</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>疲劳值名称待确定</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1860,19 +1846,19 @@
       </rPr>
       <t>M布局与雪姬确认</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>创建角色界面增加头像选择功能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>同一个等级可以开启多个新功能？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示本次等级提升所有已开启的功能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1888,51 +1874,51 @@
       </rPr>
       <t>3级，则提示2个界面，第一个界面关闭后弹出第二个界面</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>一次提升多个等级弹出多个升级提示界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示格式为，恭喜您提升到X级！</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>玩家等级提示方式变更</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>包含 玩家等级、当前疲劳值、疲劳值上限</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>图标上层或者下层可以支持帧动画或者粒子特效效果</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>变更图标帧动画效果为图标前后可以增加帧动画图片或者粒子特效</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.7</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>配置+验收</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1948,11 +1934,11 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>原画</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1968,7 +1954,7 @@
       </rPr>
       <t>D</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1984,7 +1970,7 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2000,7 +1986,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2016,7 +2002,7 @@
       </rPr>
       <t>0d</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2032,15 +2018,15 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2056,7 +2042,7 @@
       </rPr>
       <t xml:space="preserve">                   </t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2072,7 +2058,7 @@
       </rPr>
       <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                       </t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2088,7 +2074,7 @@
       </rPr>
       <t xml:space="preserve">     </t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2104,7 +2090,7 @@
       </rPr>
       <t xml:space="preserve">    </t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2120,7 +2106,7 @@
       </rPr>
       <t xml:space="preserve">                 </t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2136,7 +2122,7 @@
       </rPr>
       <t xml:space="preserve">                   </t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>升级信息提示封装</t>
@@ -2158,7 +2144,7 @@
       </rPr>
       <t>.5d</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2174,23 +2160,23 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1.镜头调整</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2.场景编辑，选中效果</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>3.添加到流程</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">主界面UI </t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t> MG-1496</t>
@@ -2212,7 +2198,7 @@
       </rPr>
       <t>esc</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2228,51 +2214,51 @@
       </rPr>
       <t>eedlevel</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>主界面UI验收</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1.经验条比例显示不正常，每次获得经验后经验条为满，重新登录后经验条为0，实际经验条可能为50%</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2.角色等级显示不正常，每次升级后返回主界面后角色等级显示为99级，重新登录后显示正常</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>升级提示界面验收</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1.文本内容没有读表（显示的是翻译代号）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2.新功能提示没有读表，每次都显示的是任务（客户端改表function后无法进入游戏）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>等级提升无法验证是否正确</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>活力提升无法验证是否正确</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>活力上限提升无法验证是否正确</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>增加主界面UI验收内容</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>二次验收</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2288,92 +2274,211 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>角色信息界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>头像</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>经验条</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>活力</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>等待活力值系统</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>按钮旋转</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>功能入口</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>图标展开/缩放</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>基础功能部分</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>升级提示界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>等级提升</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>活力值提升</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>活力值上限提升</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>新功能预告</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>添加UI部分二次验收结果</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比精确至个位数，向上取整</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充经验条百分比取整方式</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.8</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>多语言ID：main_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>levelup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_title</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整升级界面title多语言ID与现在的统一</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>多语言：main_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>levelup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_kaiqi</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>多语言：main_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>levelup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_weikaiqi</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2782,146 +2887,150 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11445,7 +11554,7 @@
   <dimension ref="A2:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -11504,28 +11613,28 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66" t="s">
+      <c r="C12" s="69"/>
+      <c r="D12" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="71"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="61"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
@@ -11534,67 +11643,67 @@
       <c r="C14" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="72" t="s">
         <v>302</v>
       </c>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="70"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="73"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="77"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="61"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="65"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="61"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="65"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="65"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="67"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -11643,35 +11752,35 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C24" s="11">
         <v>42303</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E24" s="31"/>
       <c r="G24" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C25" s="11">
         <v>42303</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E25" s="35"/>
       <c r="G25" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -11679,22 +11788,22 @@
       <c r="C26" s="11"/>
       <c r="G26" s="5"/>
       <c r="H26" s="34" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C27" s="11">
         <v>42305</v>
       </c>
       <c r="E27" s="53"/>
       <c r="G27" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -11702,7 +11811,7 @@
       <c r="C28" s="11"/>
       <c r="G28" s="5"/>
       <c r="H28" s="34" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -11710,20 +11819,34 @@
       <c r="C29" s="11"/>
       <c r="G29" s="5"/>
       <c r="H29" s="34" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B30" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C30" s="11">
+        <v>42312</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B30" s="2"/>
-      <c r="C30" s="11"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="34"/>
+      <c r="E30" s="35"/>
+      <c r="G30" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
       <c r="C31" s="11"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="34"/>
+      <c r="H31" s="34" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -11746,42 +11869,42 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C33" s="36">
         <v>42304</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E34" s="50" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E35" s="50" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E36" s="50" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E37" s="50" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E38" s="50" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -11796,7 +11919,7 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H25" location="功能开启预告" display="补充功能开启预告的规则"/>
     <hyperlink ref="H26" location="战斗后获得经验后_均与界面同时展现_副本结果移动到屏幕上方后__且出现在副本结算界面上层" display="删除多余文字"/>
@@ -11807,6 +11930,8 @@
     <hyperlink ref="E38" location="玩家等级格式" display="玩家等级提示方式变更"/>
     <hyperlink ref="H27" location="图标上层或者下层可以支持帧动画或者粒子特效效果" display="变更图标帧动画效果为图标前后可以增加帧动画图片或者粒子特效"/>
     <hyperlink ref="H29" location="_2015_11_2" display="添加UI部分二次验收结果"/>
+    <hyperlink ref="H30" location="百分比精确至个位数_向上取整" display="补充经验条百分比取整方式"/>
+    <hyperlink ref="H31" location="多语言ID_main_levelup_title" display="调整升级界面title多语言ID与现在的统一"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11818,7 +11943,7 @@
   <dimension ref="A1:T140"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J113" sqref="J113"/>
+      <selection activeCell="N111" sqref="N111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12170,7 +12295,7 @@
         <v>241</v>
       </c>
       <c r="J108" s="54" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
@@ -12190,7 +12315,7 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K112" s="54" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="113" spans="3:12" x14ac:dyDescent="0.3">
@@ -12198,7 +12323,7 @@
         <v>245</v>
       </c>
       <c r="J113" s="54" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="114" spans="3:12" x14ac:dyDescent="0.3">
@@ -12216,7 +12341,7 @@
         <v>246</v>
       </c>
       <c r="K116" s="54" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="118" spans="3:12" x14ac:dyDescent="0.3">
@@ -12254,7 +12379,7 @@
         <v>269</v>
       </c>
       <c r="L125" s="54" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="126" spans="3:12" x14ac:dyDescent="0.3">
@@ -12277,7 +12402,7 @@
         <v>256</v>
       </c>
       <c r="N129" s="54" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="130" spans="4:20" x14ac:dyDescent="0.3">
@@ -12314,7 +12439,7 @@
       <c r="T140" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12324,8 +12449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R244"/>
   <sheetViews>
-    <sheetView topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="G226" sqref="G226:K226"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75:I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12423,7 +12548,7 @@
         <v>304</v>
       </c>
       <c r="F64" s="38" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G64" s="39"/>
       <c r="H64" s="39"/>
@@ -12535,11 +12660,11 @@
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F75" s="14"/>
-      <c r="G75" s="43" t="s">
-        <v>344</v>
-      </c>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
+      <c r="G75" s="61" t="s">
+        <v>483</v>
+      </c>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
       <c r="J75" s="42"/>
       <c r="K75" s="42"/>
       <c r="L75" s="42"/>
@@ -12568,7 +12693,7 @@
         <v>342</v>
       </c>
       <c r="G77" s="43" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H77" s="42"/>
       <c r="I77" s="42"/>
@@ -12660,7 +12785,7 @@
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
@@ -12746,7 +12871,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B113" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F113" s="14" t="s">
         <v>73</v>
@@ -12873,7 +12998,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B152" s="27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -12910,7 +13035,7 @@
         <v>310</v>
       </c>
       <c r="F157" s="43" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G157" s="42"/>
       <c r="H157" s="42"/>
@@ -12925,7 +13050,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B159" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -12963,7 +13088,7 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B165" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -13046,7 +13171,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F181" s="14"/>
     </row>
@@ -13076,7 +13201,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B187" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -13139,7 +13264,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -13198,7 +13323,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B221" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F221" s="15"/>
       <c r="G221" s="15"/>
@@ -13227,7 +13352,7 @@
     <row r="226" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F226" s="40"/>
       <c r="G226" s="52" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H226" s="39"/>
       <c r="I226" s="39"/>
@@ -13246,7 +13371,7 @@
     </row>
     <row r="228" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B228" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F228" s="15"/>
       <c r="G228" s="17"/>
@@ -13260,7 +13385,7 @@
     <row r="230" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F230" s="15"/>
       <c r="G230" s="38" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H230" s="39"/>
       <c r="I230" s="39"/>
@@ -13283,7 +13408,7 @@
     </row>
     <row r="233" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B233" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F233" s="30"/>
       <c r="G233" s="29" t="s">
@@ -13334,7 +13459,7 @@
       <c r="M236" s="30"/>
       <c r="N236" s="30"/>
       <c r="O236" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P236" s="26"/>
       <c r="Q236" s="26"/>
@@ -13366,7 +13491,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="notContainsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -13387,8 +13512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13420,8 +13545,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F24" s="32" t="s">
-        <v>385</v>
+      <c r="F24" s="63" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -13449,15 +13574,15 @@
         <v>327</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F29" s="15"/>
     </row>
@@ -13470,13 +13595,13 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
       <c r="F31" s="32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F32" s="15"/>
       <c r="G32" s="38" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="39"/>
@@ -13492,7 +13617,7 @@
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F35" s="32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.3">
@@ -13511,7 +13636,7 @@
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F39" s="32" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.3">
@@ -13521,7 +13646,7 @@
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F42" s="38" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
@@ -13553,7 +13678,7 @@
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D45" s="44"/>
       <c r="E45" s="42"/>
@@ -13573,7 +13698,7 @@
       <c r="B46" s="22"/>
       <c r="D46" s="44"/>
       <c r="E46" s="46" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F46" s="45"/>
       <c r="G46" s="42"/>
@@ -13592,7 +13717,7 @@
       <c r="D47" s="44"/>
       <c r="E47" s="43"/>
       <c r="F47" s="47" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G47" s="42"/>
       <c r="H47" s="42"/>
@@ -13611,7 +13736,7 @@
       <c r="E48" s="43"/>
       <c r="F48" s="45"/>
       <c r="G48" s="47" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H48" s="42"/>
       <c r="I48" s="42"/>
@@ -13630,7 +13755,7 @@
       <c r="F49" s="45"/>
       <c r="G49" s="45"/>
       <c r="H49" s="48" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="I49" s="42"/>
       <c r="J49" s="42"/>
@@ -13647,7 +13772,7 @@
       <c r="E50" s="43"/>
       <c r="F50" s="45"/>
       <c r="G50" s="47" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H50" s="46"/>
       <c r="I50" s="42"/>
@@ -13666,7 +13791,7 @@
       <c r="F51" s="45"/>
       <c r="G51" s="45"/>
       <c r="H51" s="46" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I51" s="42"/>
       <c r="J51" s="42"/>
@@ -13682,7 +13807,7 @@
       <c r="D52" s="44"/>
       <c r="E52" s="43"/>
       <c r="F52" s="47" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G52" s="46"/>
       <c r="H52" s="42"/>
@@ -13701,7 +13826,7 @@
       <c r="E53" s="42"/>
       <c r="F53" s="45"/>
       <c r="G53" s="43" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H53" s="42"/>
       <c r="I53" s="42"/>
@@ -13719,7 +13844,7 @@
       <c r="E54" s="42"/>
       <c r="F54" s="45"/>
       <c r="G54" s="43" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H54" s="42"/>
       <c r="I54" s="42"/>
@@ -13733,7 +13858,7 @@
       <c r="F55" s="45"/>
       <c r="G55" s="42"/>
       <c r="H55" s="43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I55" s="42"/>
       <c r="J55" s="42"/>
@@ -13745,7 +13870,7 @@
       <c r="E56" s="42"/>
       <c r="F56" s="45"/>
       <c r="G56" s="43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H56" s="42"/>
       <c r="I56" s="42"/>
@@ -13759,7 +13884,7 @@
       <c r="F57" s="45"/>
       <c r="G57" s="42"/>
       <c r="H57" s="43" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I57" s="42"/>
       <c r="J57" s="42"/>
@@ -13771,7 +13896,7 @@
       <c r="E58" s="42"/>
       <c r="F58" s="45"/>
       <c r="G58" s="43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H58" s="42"/>
       <c r="I58" s="42"/>
@@ -13785,13 +13910,13 @@
       <c r="F59" s="45"/>
       <c r="G59" s="43"/>
       <c r="H59" s="43" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I59" s="42"/>
       <c r="J59" s="42"/>
       <c r="K59" s="42"/>
-      <c r="L59" s="32" t="s">
-        <v>394</v>
+      <c r="L59" s="78" t="s">
+        <v>489</v>
       </c>
       <c r="M59" s="33"/>
       <c r="N59" s="33"/>
@@ -13803,13 +13928,13 @@
       <c r="F60" s="45"/>
       <c r="G60" s="43"/>
       <c r="H60" s="46" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I60" s="42"/>
       <c r="J60" s="42"/>
       <c r="K60" s="42"/>
-      <c r="L60" s="32" t="s">
-        <v>396</v>
+      <c r="L60" s="78" t="s">
+        <v>490</v>
       </c>
       <c r="M60" s="33"/>
       <c r="N60" s="33"/>
@@ -13831,7 +13956,7 @@
       <c r="E62" s="42"/>
       <c r="F62" s="45"/>
       <c r="G62" s="43" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H62" s="42"/>
       <c r="I62" s="42"/>
@@ -13898,7 +14023,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E72" s="43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F72" s="40"/>
       <c r="G72" s="42"/>
@@ -13915,7 +14040,7 @@
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E73" s="40"/>
       <c r="F73" s="43" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G73" s="42"/>
       <c r="H73" s="42"/>
@@ -13931,7 +14056,7 @@
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E74" s="40"/>
       <c r="F74" s="46" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G74" s="42"/>
       <c r="H74" s="42"/>
@@ -13980,7 +14105,7 @@
     </row>
     <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E77" s="41" t="s">
         <v>150</v>
@@ -14002,7 +14127,7 @@
         <v>338</v>
       </c>
       <c r="E78" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F78" s="42"/>
       <c r="G78" s="42"/>
@@ -14021,7 +14146,7 @@
         <v>342</v>
       </c>
       <c r="E79" s="43" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F79" s="42"/>
       <c r="G79" s="42"/>
@@ -14040,7 +14165,7 @@
         <v>328</v>
       </c>
       <c r="E80" s="43" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F80" s="42"/>
       <c r="G80" s="42"/>
@@ -14321,7 +14446,7 @@
     <row r="98" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="22"/>
       <c r="E98" s="46" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F98" s="42"/>
       <c r="G98" s="42"/>
@@ -14464,7 +14589,7 @@
     </row>
     <row r="107" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E107" s="46" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F107" s="42"/>
       <c r="G107" s="42"/>
@@ -14675,7 +14800,7 @@
       <c r="P120" s="42"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="notContainsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -14709,33 +14834,33 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C4" s="24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D5" s="57" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15087,7 +15212,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="A1:A15 A17:A1048576">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -15118,102 +15243,102 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="54" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D4" s="55" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D5" s="55" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D6" s="55" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D7" s="55" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D8" s="18" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="54" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C11" s="54" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C12" s="54" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C13" s="54" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G13" s="56" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="54" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="54" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E17" s="54" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G13" r:id="rId1" display="http://192.168.199.122:8880/browse/MG-1496"/>
     <hyperlink ref="G11" r:id="rId2" display="http://192.168.199.122:8880/browse/MG-1497"/>
@@ -15258,41 +15383,41 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="37" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C12" s="37" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="37" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C16" s="37" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="37" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="37" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="37" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15318,178 +15443,178 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="59" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" s="59" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="59" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="59" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" s="59" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D9" s="59" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D10" s="59" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D11" s="59" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="59" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="58">
         <v>42310</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="60" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="60" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="60" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="60" t="s">
+        <v>466</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="60" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="74" t="s">
+      <c r="E20" s="60" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="60" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="74" t="s">
+      <c r="E21" s="60" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="60" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="74" t="s">
+      <c r="E22" s="60" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="60" t="s">
         <v>470</v>
       </c>
-      <c r="E19" s="74" t="s">
+      <c r="E23" s="60" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="60" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="60" t="s">
+        <v>473</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="E27" s="60" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="60" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="74" t="s">
+      <c r="E28" s="60" t="s">
         <v>471</v>
       </c>
-      <c r="E20" s="74" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="74" t="s">
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="60"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="60" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="60" t="s">
+        <v>478</v>
+      </c>
+      <c r="E31" s="60" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="60" t="s">
+        <v>479</v>
+      </c>
+      <c r="E32" s="60" t="s">
         <v>472</v>
       </c>
-      <c r="E21" s="74" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="74" t="s">
-        <v>473</v>
-      </c>
-      <c r="E22" s="74" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="74" t="s">
-        <v>474</v>
-      </c>
-      <c r="E23" s="74" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="74" t="s">
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="60" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="74" t="s">
-        <v>477</v>
-      </c>
-      <c r="E26" s="74" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="74" t="s">
-        <v>478</v>
-      </c>
-      <c r="E27" s="74" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="74" t="s">
-        <v>479</v>
-      </c>
-      <c r="E28" s="74" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E29" s="74"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="74" t="s">
+      <c r="E33" s="60" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="60" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C31" s="74" t="s">
-        <v>482</v>
-      </c>
-      <c r="E31" s="74" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="74" t="s">
-        <v>483</v>
-      </c>
-      <c r="E32" s="74" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C33" s="74" t="s">
-        <v>484</v>
-      </c>
-      <c r="E33" s="74" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="74" t="s">
-        <v>485</v>
-      </c>
-      <c r="E34" s="74" t="s">
-        <v>475</v>
+      <c r="E34" s="60" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gd/主界面/主界面逻辑设计.xlsx
+++ b/gd/主界面/主界面逻辑设计.xlsx
@@ -16,14 +16,17 @@
     <sheet name="任务拆分" sheetId="7" r:id="rId7"/>
     <sheet name="设计备忘" sheetId="8" r:id="rId8"/>
     <sheet name="功能验收" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_2015_11_2">功能验收!$A$16:$F$34</definedName>
     <definedName name="needlevel">配置结构!$C$5:$E$5</definedName>
     <definedName name="百分比精确至个位数_向上取整">UI相关逻辑!$G$75:$I$75</definedName>
     <definedName name="当玩家一次性提升多个等级时_弹出多个提示界面_如玩家从1级升到3级_则提示2个界面_第一个界面关闭后弹出第二个界面">提示类逻辑!$F$42:$Q$42</definedName>
+    <definedName name="等级提升">提示类逻辑!$F$28:$O$49</definedName>
     <definedName name="多语言ID_main_levelup_title">提示类逻辑!$F$24:$H$24</definedName>
     <definedName name="功能开启预告">提示类逻辑!$E$46:$P$52</definedName>
+    <definedName name="升级提示">提示类逻辑!$F$28:$O$49</definedName>
     <definedName name="图标点击后会做有缩放效果">UI相关逻辑!$G$230:$I$230</definedName>
     <definedName name="图标构成">UI相关逻辑!$E$202:$I$209</definedName>
     <definedName name="图标上层或者下层可以支持帧动画或者粒子特效效果">UI相关逻辑!$G$226:$K$226</definedName>
@@ -36,174 +39,174 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="506">
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>主界面逻辑设计</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>明确主界面相关规则逻辑</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>svn://10.21.2.47/gd/主界面/主界面逻辑设计.xlsx</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>主界面UI示意</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>角色信息显示区</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>货币信息显示区</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>活动信息按钮显示区</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>基础功能按钮显示区</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>聊天信息显示区</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>走马灯显示区</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>系统提示、系统公告显示区</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>角色头像</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>显示角色的头像</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -219,67 +222,67 @@
       </rPr>
       <t>6*96</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>默认的头像样式为固定的logo（给予一个于游戏风格一致的图标）（后续会随社交玩法推出头像变更功能）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>点击头像可以弹出系统设置界面</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>角色等级</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>最大可显示3位数字</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>角色名称</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>显示玩家角色名称</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>字色与字号见美术规范文档</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>角色经验条</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>初始等级为1级</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>背景</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>百分比</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>玩家当前非满级状态时，显示经验条当前百分比且当玩家在主界面获得经验后，百分比动态变化</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>玩家当前为满级状态时，显示为MAXLEVEL字样</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>当玩家为满级状态时，进度条为0且不会随之变化</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>角色疲劳值</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -295,27 +298,27 @@
       </rPr>
       <t xml:space="preserve"> 当前疲劳值/当前等级疲劳值上限</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>字色与字号见美术规范文档</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>当前等级疲劳值上限相关规则见疲劳值文档</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>当前疲劳值相关规则见疲劳值文档</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>金币显示区</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>左侧显示金币，显示格式为 金币图标：金币数值</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -331,259 +334,259 @@
       </rPr>
       <t>00像素</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>钻石显示区</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>数字靠右对齐</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>右侧显示钻石，显示格式为 钻石图标：钻石数值</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>钻石数值显示大小为200像素</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>钻石数值右侧为购买钻石按钮</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮可以打开商城购买钻石的界面</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>金币数值右侧为购买金币按钮</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮可以打开钻石购买金币的界面</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>显示在界面左侧，角色信息下方</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>目前版本包括 签到、 活动指引、 充值（商城） 三个功能图标</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>显示在界面上方，包括金币、钻石</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>签到</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>包括签到的图标以及对应名称</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开签到界面</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>活动指引</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>包括活动指引的图标以及对应名称</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开活动指引界面</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>充值（商城）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>包括充值（商城）的图标以及对应名称</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开充值（商城）界面</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>显示在界面右下角，走马灯上方</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>包括任务的图标以及对应名称</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开任务界面</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>包括宠物的图标以及对应名称</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开宠物界面</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>包括背包的图标以及对应名称</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开背包界面</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>显示基础聊天显示框</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>具体显示格式与样式见IM系统设计文档</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>当有走马灯信息时，在此处显示走马灯信息</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>当有系统提示、系统公告信息时，在此处显示系统提示、系统公告信息信息</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>包括经验条背景、横向进度条、百分比</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>横向进度条</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>经验条背景为160*20大小的条状</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>为满足主界面图标显示多样性，制定如下主界面中图标的通用规则</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>适用于主界面中各类图标</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>目前版本包括 任务、宠物、背包 三个功能图标以及缩进/展开按钮</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>缩进/展开按钮</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>默认为展开状态，展开时点击缩进按钮可以将功能图标隐藏，隐藏有动画效果（各图标依次向缩进按钮移动，移动至缩进按钮后消失）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>缩进时点击展开按钮可以将功能图标展开，展开有动画效果（各图标依次从展开按钮移动到对应位置）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>缩进图标示例</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>需求不要是单面的，后续可能扩展在缩进按钮上方增加功能图标</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>展开图标示例</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>图标构成</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>图标本体</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>图标图片的表现形式</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>图标名称</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>该图标代表的功能的正式名称</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>状态标示</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>显示在图标本体右上角</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>当该图标代表的功能有可用或者可点的操作时（具体效果各个功能标注），右上角出现该提示，提示始终存在，直至无可用或者可点操作消失</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>显示在图标本体下方</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>角色升级提示</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>新功能开启提示</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>升级提示界面</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>界面标题</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>显示为 Level up！或者其他带有升级类意义的词语，具体见美术设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>升级信息</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>玩家等级</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>当前疲劳值</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -599,11 +602,11 @@
       </rPr>
       <t xml:space="preserve"> 目标疲劳值</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>疲劳值上限</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -619,563 +622,563 @@
       </rPr>
       <t xml:space="preserve"> 目标疲劳值上限</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>升级信息中的内容，只显示有数值变化的项，不变化的不显示，已显示的项垂直居中分布</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>确定按钮</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>点击确定按钮，则关闭当前界面</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>该窗口为模态不可移动</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>窗口出现后背景有半透明遮罩效果</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>该窗口不同于一般提示性窗口，需要比较炫丽，请美术同学单独设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>新功能开启提示界面</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>显示为Congratulation！或者其他带有恭喜，祝贺类意义的词语，具体见美术设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>提示内容</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>显示为提示信息文本</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>字色与字体见美术规范文档</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>字色与字体见美术规范文档，可保证显示下5行文本即可，每行长度大概300像素</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>提示说明</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>显示解锁的系统或者功能</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>字色与字体见美术规范文档，需要与提示内容文本颜色区分开</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>该窗口不同于一般提示性窗口，需要有独特样式，请美术同学单独设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>点击界面后界面关闭，同时自动转动镜头至新开系统的图标或者处于屏幕水平中心位置</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>同时该图标或者按钮处于提示点击的样式并进入新功能引导逻辑</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>此期间内玩家无法自动旋转镜头以及进行其他功能操作</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>当玩家提升到一定等级后，会开启对应新功能，此时会弹出新功能提示界面</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>如玩家在非主界面中升级后退出游戏，则下次进入主界面后再次弹出提示</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>新功能提示只会进行一次，且由服务器端记录是否已经进行完毕（引导结束视为进行完毕）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1.角色信息区UI</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>包括</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1.头像边框、头像logo设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2.玩家等级样式设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>3.玩家名称样式设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>4.进度条样式设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>5.疲劳值样式设计、补充疲劳值按钮设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2.货币信息区UI</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>包括</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1.金币显示区样式设计、补充金币按钮设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2.钻石显示区样式设计、补充钻石按钮设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>3.活动信息区图标</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1.签到图标以及文字样式设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2.活动指引图标以及文字样式设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>3.充值（商城）图标以及活动样式设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>4.基础功能图标按钮UI</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1.任务图标以及文字样式设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2.宠物图标以及文字样式设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>3.背包图标以及文字样式设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>5.图标通用</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>3.图标状态标识样式设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1.图标提示文本样式设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>包括 hot、new字样的动态效果</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>主界面图标通用规则</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>图标效果</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>显示效果</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>点击效果</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>限时图标</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>图标支持定时显示与倒计时消失功能</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>当配置开启时间后，则在开启时间出现图标，开始时间之前不显示图标</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>当配置倒计时消失时间后，则在图标出现后开始计时，倒计时到达时图标消失</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>图标响应规则</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>点击图标后，识别抬起时手指是否还在图标响应范围内</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>如超出范围，则不响应点击</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>如未超出范围，抬起手指时响应点击效果</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>按下手指时不在图标上，则抬起时无论是否在图标上都不响应点击</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>6.角色升级UI</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1.升级界面整体样式设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2.升级界面字体样式设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>3.确定按钮样式设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>7.新功能提示UI</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>包括</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1.新功能提示整体样式设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2.新功能提示字体样式设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>3.新功能入口特效样式设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>物件显示规则</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>场景结构</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>结构组成</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>主场景为3D形式</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>内容为一个日常起居室（详细需求见【美术需求】分页）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>参考图如下样式</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>场景介绍</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>整体为一个四面墙的起居室，可见范围为左前右三面墙以及部分地板以及天花板</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>屋内有各类生活物件组成（如衣柜、床、书桌、书柜等等）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>物件均为3D形式展现</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>镜头相关</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>镜头移动</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>场景中镜头可以按照固定轨迹左右滑动</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>需求移动轨迹可以配置调整</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>镜头高度</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>镜头高度为1.4米，大概为角色坐在床上或者椅子上时眼睛高度一致</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>镜头视距</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>滑动速度以及距离根据玩家滑动的力度以及速度决定</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>镜头视距为1.5米左右，固定不变</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>镜头角度</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>镜头视角为平视（大概为水平夹角在15至-20之间）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>视角不可手动变化</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>默认镜头</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>默认镜头为开启客户端后首次进入主场景的镜头，需求可配置</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>开启其他界面后，未关闭客户端的情况下再次返回主场景，应该保留进入其他界面前的镜头位置</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>场景大小</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>由左至右拖动镜头需求可完整展现大概2.5屏幕的内容</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>左右需要各预留半屏左右大小的场景用于镜头回弹（镜头回弹详见镜头相关）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>单屏幕展现内容示意</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>镜头回弹</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>左右拖动镜头至边界时，无法继续拖动，会有一个类似下拉列表的回弹效果（可继续拉伸一段距离，松手后回弹到边界位置）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>黄色实线为镜头两个边界，黄色虚线为镜头中心线</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>绿色边框为镜头正常可见范围，红色与绿色相接位置即为可见场景的边界</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>图1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>图2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>图1为正常情况下显示的镜头边界角度</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>当滑动镜头至图1后，继续向右可以滑动至图2位置，松手后镜头回弹至图1位置</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>左侧边界同理</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>如下镜头顶视图示意</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>蓝色实线为镜头滑动轨迹</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>回弹过程持续0.5秒，镜头角度平缓变化</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>物件定义</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>场景中的家具、电器、用品等可被操作的物品成为物件</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>物件交互</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>当某个物件配置了对应的功能或者玩法入口时，且玩家开启该功能或者玩法的条件时，玩家可以与物件进行交互</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>交互形式</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>点击物件后物件可播放点击动作以及特效，然后打开对应入口界面</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>响应规则</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>如不处于响应范围内，则不响应点击效果</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>点击物件后判断抬起手指位置是否处于物件响应范围内</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>如处于响应范围内，则响应点击效果</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>交互响应开启规则</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>当玩家不满足某个物件的开启条件时，无法与物件进行交互</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>点击物件不会有点击效果反馈，同时不会打开对应入口</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>此时物件为普通物件</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>当玩家满足某个物件的开启条件时，普通物件变为可交互物件</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>效果反馈</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>普通物件</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>未点击状态的普通物件无特效反馈</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>点击普通物件无特效反馈</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>点击普通物件无动作反馈</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>可交互物件</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>未点击状态的普通物件有特效反馈</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>点击可交互物件有动作反馈（点击后播放对应点击动作动画，播放一次即可）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>点击可交互物件有特效反馈（点击后播放对应动作的特效效果）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>主界面场景功能扩展</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1. 照妖镜可以在场景中使用，并照出隐藏功能玩法</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2.可以支持场景物件扩展（玩家宠物变换为手办形式存放于场景中）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>3.窗外昼夜变换</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>点击物件会有点击效果反馈</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>若物件无动作反馈，则直接打开入口界面</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>若物件有动作反馈，则播放动作后打开入口界面</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1191,19 +1194,19 @@
       </rPr>
       <t>I需求</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>场景需求</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1.主界面场景</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>日常起居室，可以承载目前世界观风格的三面墙场景，需要包含地面与天花板</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1219,7 +1222,7 @@
       </rPr>
       <t>.场景物件</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1235,95 +1238,95 @@
       </rPr>
       <t>PC商店</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>对应功能/玩法</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>可参考物件</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>抽蛋</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>副本选择</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>大冒险</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>新玩法1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>公会</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>合成</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>分解</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>电脑屏幕</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>衣柜</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>漫画/墙上挂件</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>电话</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>垃圾桶</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>纸抽/存钱罐/魔方</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>需要满足上述玩法对应设计物件</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>某种玩具</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>动作需求</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>暂缓</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1339,7 +1342,7 @@
       </rPr>
       <t>.可交互物件未点击时的自发光特效</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1355,171 +1358,171 @@
       </rPr>
       <t>.物件点击后的特效</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> mt</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>初版文档等待mt审核</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>有些地方是大写的LVL（宠物，结算），需要空格或者点么</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>这里是否需要缩放规则</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>填充方式，逐渐增长的还是突进的，还是待设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>百分比精确位数</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>这个用的是通用控件还是单独控件？</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>多语言在这儿写还是各个功能写</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>多语言，id用已有的</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>邮箱装备宠物里面用的红点，这个是不是统一一下</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>这个不建议有，因为游戏中会频繁获得材料怪（早年说每天都能获得几只），这样只材料怪而已没必要提示</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>当new和数量同时存在的时候，容易被误解为有x个new</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>new和状态标识同时出现的时候很容易被误解</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>灰掉标上要做的版本号</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>感觉这个功能简单的提示解锁了什么就行，没必要提示这么多文字，要是想提示文字，发个邮件也可以吧</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>配置结构缺失，哪些等级开启哪些功能待定么？</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>文字自动缩放？玩家名字是不是可以规定最大字数</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>还要名称么？多语言</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>还要名称么？多语言</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>同上</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>邮箱？</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>扩展了就不能叫左右了，你不说清楚，帆爷绝逼给你做成左右的</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>名称要考虑多语言，可能图标的宽度显示不下</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>宠物进阶、装备强化都与玩家等级有关</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>时</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>只有这个界面感觉不够，最好经过一次返回主界面，点主界面或者对应入口，这样有助于玩家记忆入口位置</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>这个控件有了，不用提了</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>变化方式，是直接跳还是每次加1逐渐变化/单位时间内增长速度</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>详见签到文档吧</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>如果玩家在线过刷新点也弹出签到界面么，还是重登陆，待定</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>这句im文档写了，删掉吧</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>该图的帧动画</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>界面什么时候出现，是在任何位置升级都触发这个界面么？--都弹</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>说一下都什么时候弹</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>进行完毕后，显示下一个</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>关门放吕布</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>把大界面截过来</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1535,55 +1538,55 @@
       </rPr>
       <t>玩家当前等级</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>已改</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>当玩家非满级状态时，玩家在主界面获得经验后，进度条由左至右动态填充</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>每次变化最小值为1%，保持与进度条同时结束即可</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>通用控件，但是商店系统没写…我还是留着吧</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>各个功能自己写</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>当有已完成的任务时，任务图标右上角显示红点提示</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>各系统自己写</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>容易产生歧义，去掉此功能</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>已改图</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>删</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>图标是 做图上的</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>已去掉文本提示</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1599,210 +1602,210 @@
       </rPr>
       <t>.9版本有运营活动时添加</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>已改</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>已补充</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>升级界面弹出规则</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>邮箱、任务等界面获得经验的界面中，获得经验后直接弹出升级界面，且出现在邮箱、任务等界面上层</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>已补充</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>功能名称</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>新功能开启</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>功能提示</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>当玩家一次提升多个等级时，可能会同时开启多个新功能</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>此时需要按照新功能开启等级由低到高一项一项显示（上一项进行完毕后，再次回到主界面后，显示下一个）</t>
   </si>
   <si>
     <t>开启等级</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>已补充</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>该提示信息只在主界面时才会弹出，如当前在非主界面中升级，则在玩家下次返回主界面时进行提示</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>显示不下可以滚动查看</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>包括功能名称，简介，开启情况</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>功能名称</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>读取配置表中的功能名称</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>简介</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>读取配置表中的简介</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>开启情况</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>本级开启的显示 绿色 “已开启”</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>只提示功能性内容</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.5</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_levelup_dengji</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_levelup_pilao</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_levelup_shangxian</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_new_title</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_new_tishi</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>战斗后获得经验后，均与界面同时展现（副本结果移动到屏幕上方后），且出现在副本结算界面上层</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>功能开启预告</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>包括已开启与将要开启两部分</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>已开启</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>未开启</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>预告内容</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>非本级开启的显示 红色 “X级开启”</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>补充功能开启预告的规则</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>删除多余文字</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.6</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>显示目标等级之后将要开启的两个新功能，如同一个等级有多个新功能开启，则按照配置表的顺序依次显示</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.6</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>程序、qc、美术、木木、mt</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>取消升级后新功能提醒，改为新手引导制作</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>显示长度为200像素</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>取消名称缩放需求</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>图标点击后会做有缩放效果</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>图标按下直接缩放处理</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>删除图标提示文本需求</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1818,19 +1821,19 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>签到界面的弹出方式详见签到功能文档</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>其他相关</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>疲劳值名称待确定</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1846,79 +1849,55 @@
       </rPr>
       <t>M布局与雪姬确认</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>创建角色界面增加头像选择功能</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>同一个等级可以开启多个新功能？</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示本次等级提升所有已开启的功能</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>当玩家一次性提升多个等级时，弹出多个提示界面，如玩家从1级升到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3级，则提示2个界面，第一个界面关闭后弹出第二个界面</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>一次提升多个等级弹出多个升级提示界面</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示格式为，恭喜您提升到X级！</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>玩家等级提示方式变更</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>包含 玩家等级、当前疲劳值、疲劳值上限</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>图标上层或者下层可以支持帧动画或者粒子特效效果</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>变更图标帧动画效果为图标前后可以增加帧动画图片或者粒子特效</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.7</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>配置+验收</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1934,11 +1913,11 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>原画</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1954,7 +1933,7 @@
       </rPr>
       <t>D</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1970,7 +1949,7 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1986,7 +1965,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2002,7 +1981,7 @@
       </rPr>
       <t>0d</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2018,15 +1997,15 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2042,7 +2021,7 @@
       </rPr>
       <t xml:space="preserve">                   </t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2058,7 +2037,7 @@
       </rPr>
       <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                       </t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2074,7 +2053,7 @@
       </rPr>
       <t xml:space="preserve">     </t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2090,7 +2069,7 @@
       </rPr>
       <t xml:space="preserve">    </t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2106,7 +2085,7 @@
       </rPr>
       <t xml:space="preserve">                 </t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2122,7 +2101,7 @@
       </rPr>
       <t xml:space="preserve">                   </t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>升级信息提示封装</t>
@@ -2144,7 +2123,7 @@
       </rPr>
       <t>.5d</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2160,23 +2139,23 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1.镜头调整</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2.场景编辑，选中效果</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>3.添加到流程</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">主界面UI </t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t> MG-1496</t>
@@ -2198,7 +2177,7 @@
       </rPr>
       <t>esc</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2214,51 +2193,51 @@
       </rPr>
       <t>eedlevel</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>主界面UI验收</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1.经验条比例显示不正常，每次获得经验后经验条为满，重新登录后经验条为0，实际经验条可能为50%</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2.角色等级显示不正常，每次升级后返回主界面后角色等级显示为99级，重新登录后显示正常</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>升级提示界面验收</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1.文本内容没有读表（显示的是翻译代号）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2.新功能提示没有读表，每次都显示的是任务（客户端改表function后无法进入游戏）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>等级提升无法验证是否正确</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>活力提升无法验证是否正确</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>活力上限提升无法验证是否正确</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>增加主界面UI验收内容</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>二次验收</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2274,95 +2253,95 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>角色信息界面</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>头像</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>经验条</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>活力</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>等待活力值系统</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>按钮旋转</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>功能入口</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>图标展开/缩放</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>基础功能部分</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>升级提示界面</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>等级提升</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>活力值提升</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>活力值上限提升</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>新功能预告</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>添加UI部分二次验收结果</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>百分比精确至个位数，向上取整</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>补充经验条百分比取整方式</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.8</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2388,11 +2367,11 @@
       </rPr>
       <t>_title</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>调整升级界面title多语言ID与现在的统一</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2418,7 +2397,7 @@
       </rPr>
       <t>_kaiqi</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2444,20 +2423,118 @@
       </rPr>
       <t>_weikaiqi</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局修改问题回复</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 屏幕左侧的弱点信息是否过于繁琐</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息会根据弱点的类型直接显示对应图标，通常情况下玩家看到图标就知道如何应对了</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对特别情况，还是需要玩家去看tips来思考如何应对的</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.弱点应该和血条挨得近一些</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前考虑过放到血条下方，后来放弃主要两个原因</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.位置不足，血条下方有buff图标等内容，后续可能会有boss技能显示</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.并不是所有弱点都是关联boss血量的，所以放到血条的位置也不是特别合适</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.查看tips是否会比较麻烦，战斗中是否还有时间去看</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们战斗大部分时间都是挂机的，所以时间应该是充足的</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>从测试反馈的报告来看，参与测试的玩家还是希望能有更多的可以查看、操作的点，可能也是国外玩家与国内玩家不同之处</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.大招画阵取消的理由</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能目前的设计并没有达到之前的增加参与感的设计目的，因为参与感也是要有相应正反馈的，不然玩家是不会去参与的</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外增加了大招的使用时间，使节奏拖沓也是一个比较大的原因</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>显示格式为，玩家等级：当前等级 →</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 目标等级</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>当玩家一次性提升多个等级时，只显示最终目标等级的信息</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示本次等级提升所有已开启的功能，如从1升至5级，则提示1-5级所有已开启的功能</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级界面等级显示规则调整</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2655,7 +2732,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2689,6 +2766,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2887,150 +2970,155 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8111,7 +8199,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="8443913" y="1419225"/>
-            <a:ext cx="2028825" cy="334451"/>
+            <a:ext cx="2028825" cy="275717"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -8138,28 +8226,93 @@
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
-                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>恭喜您提升到</a:t>
+              <a:t>玩家等级：</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>X</a:t>
+              <a:t>                </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
-                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>级！</a:t>
+              <a:t>  </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>1 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>→ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -11551,10 +11704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H38"/>
+  <dimension ref="A2:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -11613,28 +11766,28 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70" t="s">
+      <c r="C12" s="70"/>
+      <c r="D12" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="72"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
@@ -11643,67 +11796,67 @@
       <c r="C14" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="73" t="s">
         <v>302</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="77"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="78"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="66"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="68"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -11793,17 +11946,17 @@
     </row>
     <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C27" s="11">
         <v>42305</v>
       </c>
-      <c r="E27" s="53"/>
+      <c r="E27" s="52"/>
       <c r="G27" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -11811,7 +11964,7 @@
       <c r="C28" s="11"/>
       <c r="G28" s="5"/>
       <c r="H28" s="34" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -11819,25 +11972,25 @@
       <c r="C29" s="11"/>
       <c r="G29" s="5"/>
       <c r="H29" s="34" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C30" s="11">
         <v>42312</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E30" s="35"/>
       <c r="G30" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -11845,66 +11998,79 @@
       <c r="C31" s="11"/>
       <c r="G31" s="5"/>
       <c r="H31" s="34" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
+      <c r="C32" s="11">
+        <v>42319</v>
+      </c>
+      <c r="E32" s="81"/>
+      <c r="G32" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C34" s="36">
         <v>42304</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E34" s="50" t="s">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E35" s="49" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E35" s="50" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E36" s="49" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E36" s="50" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E37" s="49" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E37" s="50" t="s">
-        <v>415</v>
-      </c>
-    </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E38" s="50" t="s">
-        <v>417</v>
+      <c r="E38" s="49" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E39" s="49" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -11919,20 +12085,111 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H25" location="功能开启预告" display="补充功能开启预告的规则"/>
     <hyperlink ref="H26" location="战斗后获得经验后_均与界面同时展现_副本结果移动到屏幕上方后__且出现在副本结算界面上层" display="删除多余文字"/>
-    <hyperlink ref="E34" location="显示长度为200像素" display="取消名称缩放需求"/>
-    <hyperlink ref="E35" location="图标点击后会做有缩放效果" display="图标按下直接缩放处理"/>
-    <hyperlink ref="E36" location="图标构成" display="删除图标提示文本需求"/>
-    <hyperlink ref="E37" location="当玩家一次性提升多个等级时_弹出多个提示界面_如玩家从1级升到3级_则提示2个界面_第一个界面关闭后弹出第二个界面" display="一次提升多个等级弹出多个升级提示界面"/>
-    <hyperlink ref="E38" location="玩家等级格式" display="玩家等级提示方式变更"/>
+    <hyperlink ref="E35" location="显示长度为200像素" display="取消名称缩放需求"/>
+    <hyperlink ref="E36" location="图标点击后会做有缩放效果" display="图标按下直接缩放处理"/>
+    <hyperlink ref="E37" location="图标构成" display="删除图标提示文本需求"/>
+    <hyperlink ref="E38" location="当玩家一次性提升多个等级时_弹出多个提示界面_如玩家从1级升到3级_则提示2个界面_第一个界面关闭后弹出第二个界面" display="一次提升多个等级弹出多个升级提示界面"/>
+    <hyperlink ref="E39" location="玩家等级格式" display="玩家等级提示方式变更"/>
     <hyperlink ref="H27" location="图标上层或者下层可以支持帧动画或者粒子特效效果" display="变更图标帧动画效果为图标前后可以增加帧动画图片或者粒子特效"/>
     <hyperlink ref="H29" location="_2015_11_2" display="添加UI部分二次验收结果"/>
     <hyperlink ref="H30" location="百分比精确至个位数_向上取整" display="补充经验条百分比取整方式"/>
     <hyperlink ref="H31" location="多语言ID_main_levelup_title" display="调整升级界面title多语言ID与现在的统一"/>
+    <hyperlink ref="H32" location="升级提示" display="升级界面等级显示规则调整"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="64" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="64" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="64" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="64" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="64" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="64" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="64" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="64" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="64" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="64" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="64" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="64" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="64" t="s">
+        <v>501</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12294,8 +12551,8 @@
       <c r="B108" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="J108" s="54" t="s">
-        <v>437</v>
+      <c r="J108" s="53" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
@@ -12314,16 +12571,16 @@
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="K112" s="54" t="s">
-        <v>438</v>
+      <c r="K112" s="53" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="113" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C113" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="J113" s="54" t="s">
-        <v>440</v>
+      <c r="J113" s="53" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="114" spans="3:12" x14ac:dyDescent="0.3">
@@ -12340,8 +12597,8 @@
       <c r="E116" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="K116" s="54" t="s">
-        <v>439</v>
+      <c r="K116" s="53" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="118" spans="3:12" x14ac:dyDescent="0.3">
@@ -12378,8 +12635,8 @@
       <c r="E125" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="L125" s="54" t="s">
-        <v>436</v>
+      <c r="L125" s="53" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="126" spans="3:12" x14ac:dyDescent="0.3">
@@ -12401,8 +12658,8 @@
       <c r="E129" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="N129" s="54" t="s">
-        <v>435</v>
+      <c r="N129" s="53" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="130" spans="4:20" x14ac:dyDescent="0.3">
@@ -12439,7 +12696,7 @@
       <c r="T140" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12586,7 +12843,7 @@
       <c r="O69" s="42"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="G70" s="49" t="s">
+      <c r="G70" s="48" t="s">
         <v>101</v>
       </c>
       <c r="H70" s="42"/>
@@ -12602,7 +12859,7 @@
       <c r="F71" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G71" s="49"/>
+      <c r="G71" s="48"/>
       <c r="H71" s="42"/>
       <c r="I71" s="42"/>
       <c r="J71" s="42"/>
@@ -12632,7 +12889,7 @@
       <c r="B73" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="G73" s="49" t="s">
+      <c r="G73" s="48" t="s">
         <v>56</v>
       </c>
       <c r="H73" s="42"/>
@@ -12648,7 +12905,7 @@
       <c r="F74" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G74" s="49"/>
+      <c r="G74" s="48"/>
       <c r="H74" s="42"/>
       <c r="I74" s="42"/>
       <c r="J74" s="42"/>
@@ -12660,11 +12917,11 @@
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F75" s="14"/>
-      <c r="G75" s="61" t="s">
-        <v>483</v>
-      </c>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
+      <c r="G75" s="60" t="s">
+        <v>480</v>
+      </c>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
       <c r="J75" s="42"/>
       <c r="K75" s="42"/>
       <c r="L75" s="42"/>
@@ -12709,7 +12966,7 @@
         <v>306</v>
       </c>
       <c r="F78" s="14"/>
-      <c r="G78" s="49" t="s">
+      <c r="G78" s="48" t="s">
         <v>55</v>
       </c>
       <c r="H78" s="42"/>
@@ -12726,7 +12983,7 @@
         <v>342</v>
       </c>
       <c r="F79" s="14"/>
-      <c r="G79" s="49" t="s">
+      <c r="G79" s="48" t="s">
         <v>59</v>
       </c>
       <c r="H79" s="42"/>
@@ -13351,8 +13608,8 @@
     </row>
     <row r="226" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F226" s="40"/>
-      <c r="G226" s="52" t="s">
-        <v>419</v>
+      <c r="G226" s="51" t="s">
+        <v>416</v>
       </c>
       <c r="H226" s="39"/>
       <c r="I226" s="39"/>
@@ -13364,7 +13621,7 @@
         <v>335</v>
       </c>
       <c r="F227" s="40"/>
-      <c r="G227" s="51"/>
+      <c r="G227" s="50"/>
       <c r="H227" s="42"/>
       <c r="I227" s="42"/>
       <c r="J227" s="42"/>
@@ -13491,7 +13748,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="notContainsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -13510,10 +13767,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q120"/>
+  <dimension ref="A2:P120"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="O49" sqref="F28:O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13534,30 +13791,30 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E22" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F23" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F24" s="63" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F24" s="62" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F25" s="16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>326</v>
       </c>
@@ -13569,7 +13826,7 @@
       </c>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>327</v>
       </c>
@@ -13577,90 +13834,86 @@
         <v>356</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
         <v>377</v>
       </c>
       <c r="F29" s="15"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B30" s="22"/>
       <c r="F30" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
       <c r="F31" s="32" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F32" s="15"/>
-      <c r="G32" s="38" t="s">
-        <v>416</v>
-      </c>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G32" s="79" t="s">
+        <v>502</v>
+      </c>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F34" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F35" s="32" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F36" s="15"/>
       <c r="G36" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F37" s="15"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F38" s="15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F39" s="32" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="G40" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F42" s="38" t="s">
-        <v>414</v>
-      </c>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-    </row>
-    <row r="43" spans="2:17" ht="33" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F42" s="79" t="s">
+        <v>503</v>
+      </c>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+    </row>
+    <row r="43" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B43" s="22" t="s">
         <v>336</v>
       </c>
@@ -13668,7 +13921,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" s="22" t="s">
         <v>337</v>
       </c>
@@ -13676,7 +13929,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B45" s="28" t="s">
         <v>359</v>
       </c>
@@ -13694,7 +13947,7 @@
       <c r="O45" s="42"/>
       <c r="P45" s="42"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B46" s="22"/>
       <c r="D46" s="44"/>
       <c r="E46" s="46" t="s">
@@ -13712,7 +13965,7 @@
       <c r="O46" s="42"/>
       <c r="P46" s="42"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B47" s="22"/>
       <c r="D47" s="44"/>
       <c r="E47" s="43"/>
@@ -13730,7 +13983,7 @@
       <c r="O47" s="42"/>
       <c r="P47" s="42"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" s="22"/>
       <c r="D48" s="44"/>
       <c r="E48" s="43"/>
@@ -13754,16 +14007,16 @@
       <c r="E49" s="43"/>
       <c r="F49" s="45"/>
       <c r="G49" s="45"/>
-      <c r="H49" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="42"/>
-      <c r="O49" s="42"/>
+      <c r="H49" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="80"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="80"/>
       <c r="P49" s="42"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
@@ -13915,8 +14168,8 @@
       <c r="I59" s="42"/>
       <c r="J59" s="42"/>
       <c r="K59" s="42"/>
-      <c r="L59" s="78" t="s">
-        <v>489</v>
+      <c r="L59" s="63" t="s">
+        <v>486</v>
       </c>
       <c r="M59" s="33"/>
       <c r="N59" s="33"/>
@@ -13933,8 +14186,8 @@
       <c r="I60" s="42"/>
       <c r="J60" s="42"/>
       <c r="K60" s="42"/>
-      <c r="L60" s="78" t="s">
-        <v>490</v>
+      <c r="L60" s="63" t="s">
+        <v>487</v>
       </c>
       <c r="M60" s="33"/>
       <c r="N60" s="33"/>
@@ -14800,7 +15053,7 @@
       <c r="P120" s="42"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="notContainsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -14852,15 +15105,15 @@
       <c r="C5" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="D5" s="57" t="s">
-        <v>451</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>452</v>
+      <c r="D5" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14869,8 +15122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H133"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="M133" sqref="M133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15212,7 +15465,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="A1:A15 A17:A1048576">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -15239,106 +15492,106 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C2" s="54"/>
+      <c r="C2" s="53"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="54" t="s">
-        <v>433</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>434</v>
+      <c r="B3" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="54" t="s">
+        <v>442</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D5" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D6" s="54" t="s">
+        <v>444</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D7" s="54" t="s">
         <v>445</v>
       </c>
-      <c r="E4" s="55" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D5" s="55" t="s">
-        <v>446</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D6" s="55" t="s">
-        <v>447</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D7" s="55" t="s">
-        <v>448</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>443</v>
+      <c r="E7" s="54" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D8" s="18" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="53" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="53" t="s">
+        <v>424</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>429</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="53" t="s">
+        <v>425</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="53" t="s">
+        <v>426</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>427</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="53" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="53" t="s">
+        <v>422</v>
+      </c>
+      <c r="E17" s="53" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="54" t="s">
-        <v>427</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>432</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="54" t="s">
-        <v>428</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="54" t="s">
-        <v>429</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>430</v>
-      </c>
-      <c r="G13" s="56" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="54" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="54" t="s">
-        <v>425</v>
-      </c>
-      <c r="E17" s="54" t="s">
-        <v>426</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G13" r:id="rId1" display="http://192.168.199.122:8880/browse/MG-1496"/>
     <hyperlink ref="G11" r:id="rId2" display="http://192.168.199.122:8880/browse/MG-1497"/>
@@ -15417,7 +15670,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15432,189 +15685,189 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="59"/>
+    <col min="1" max="1" width="12.5" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="58">
+      <c r="A2" s="57">
         <v>42307</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="58" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="58" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="58" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C4" s="59" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="58" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="59" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="58" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="58" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="58" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="58" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="59" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="59" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D9" s="59" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D10" s="59" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="57">
+        <v>42310</v>
+      </c>
+      <c r="B16" s="59" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D11" s="59" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="59" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="59" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="58">
-        <v>42310</v>
-      </c>
-      <c r="B16" s="60" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="59" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="59" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="60" t="s">
+      <c r="E19" s="59" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="59" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="60" t="s">
+      <c r="E20" s="59" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="59" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="60" t="s">
+      <c r="E21" s="59" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E22" s="59" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="59" t="s">
+        <v>467</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="59" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="59" t="s">
+        <v>470</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="59" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="60" t="s">
-        <v>467</v>
-      </c>
-      <c r="E20" s="60" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="60" t="s">
+      <c r="E27" s="59" t="s">
         <v>468</v>
       </c>
-      <c r="E21" s="60" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="60" t="s">
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="59" t="s">
+        <v>472</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="59"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="59" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="59" t="s">
+        <v>475</v>
+      </c>
+      <c r="E31" s="59" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="59" t="s">
+        <v>476</v>
+      </c>
+      <c r="E32" s="59" t="s">
         <v>469</v>
       </c>
-      <c r="E22" s="60" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="60" t="s">
-        <v>470</v>
-      </c>
-      <c r="E23" s="60" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="60" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="60" t="s">
-        <v>473</v>
-      </c>
-      <c r="E26" s="60" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="60" t="s">
-        <v>474</v>
-      </c>
-      <c r="E27" s="60" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="60" t="s">
-        <v>475</v>
-      </c>
-      <c r="E28" s="60" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E29" s="60"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="60" t="s">
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="59" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C31" s="60" t="s">
+      <c r="E33" s="59" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="59" t="s">
         <v>478</v>
       </c>
-      <c r="E31" s="60" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="60" t="s">
-        <v>479</v>
-      </c>
-      <c r="E32" s="60" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C33" s="60" t="s">
-        <v>480</v>
-      </c>
-      <c r="E33" s="60" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="60" t="s">
-        <v>481</v>
-      </c>
-      <c r="E34" s="60" t="s">
-        <v>471</v>
+      <c r="E34" s="59" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gd/主界面/主界面逻辑设计.xlsx
+++ b/gd/主界面/主界面逻辑设计.xlsx
@@ -21,6 +21,7 @@
   <definedNames>
     <definedName name="_2015_11_2">功能验收!$A$16:$F$34</definedName>
     <definedName name="needlevel">配置结构!$C$5:$E$5</definedName>
+    <definedName name="百分比">UI相关逻辑!$N$76:$Q$76</definedName>
     <definedName name="百分比精确至个位数_向上取整">UI相关逻辑!$G$75:$I$75</definedName>
     <definedName name="当玩家一次性提升多个等级时_弹出多个提示界面_如玩家从1级升到3级_则提示2个界面_第一个界面关闭后弹出第二个界面">提示类逻辑!$F$42:$Q$42</definedName>
     <definedName name="等级提升">提示类逻辑!$F$28:$O$49</definedName>
@@ -39,174 +40,174 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="507">
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.1</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>主界面逻辑设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>明确主界面相关规则逻辑</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>svn://10.21.2.47/gd/主界面/主界面逻辑设计.xlsx</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>主界面UI示意</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>角色信息显示区</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>货币信息显示区</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>活动信息按钮显示区</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>基础功能按钮显示区</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>聊天信息显示区</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>走马灯显示区</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>系统提示、系统公告显示区</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>角色头像</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>显示角色的头像</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -222,67 +223,63 @@
       </rPr>
       <t>6*96</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>默认的头像样式为固定的logo（给予一个于游戏风格一致的图标）（后续会随社交玩法推出头像变更功能）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>点击头像可以弹出系统设置界面</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>角色等级</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>最大可显示3位数字</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>角色名称</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>显示玩家角色名称</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>字色与字号见美术规范文档</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>角色经验条</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>初始等级为1级</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>背景</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>百分比</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家当前非满级状态时，显示经验条当前百分比且当玩家在主界面获得经验后，百分比动态变化</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>玩家当前为满级状态时，显示为MAXLEVEL字样</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>当玩家为满级状态时，进度条为0且不会随之变化</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>角色疲劳值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -298,27 +295,27 @@
       </rPr>
       <t xml:space="preserve"> 当前疲劳值/当前等级疲劳值上限</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>字色与字号见美术规范文档</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>当前等级疲劳值上限相关规则见疲劳值文档</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>当前疲劳值相关规则见疲劳值文档</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>金币显示区</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>左侧显示金币，显示格式为 金币图标：金币数值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -334,259 +331,259 @@
       </rPr>
       <t>00像素</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>钻石显示区</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>数字靠右对齐</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>右侧显示钻石，显示格式为 钻石图标：钻石数值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>钻石数值显示大小为200像素</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>钻石数值右侧为购买钻石按钮</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮可以打开商城购买钻石的界面</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>金币数值右侧为购买金币按钮</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮可以打开钻石购买金币的界面</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>显示在界面左侧，角色信息下方</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>目前版本包括 签到、 活动指引、 充值（商城） 三个功能图标</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>显示在界面上方，包括金币、钻石</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>签到</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>包括签到的图标以及对应名称</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开签到界面</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>活动指引</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>包括活动指引的图标以及对应名称</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开活动指引界面</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>充值（商城）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>包括充值（商城）的图标以及对应名称</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开充值（商城）界面</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>显示在界面右下角，走马灯上方</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>包括任务的图标以及对应名称</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开任务界面</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>包括宠物的图标以及对应名称</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开宠物界面</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>包括背包的图标以及对应名称</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开背包界面</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>显示基础聊天显示框</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>具体显示格式与样式见IM系统设计文档</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>当有走马灯信息时，在此处显示走马灯信息</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>当有系统提示、系统公告信息时，在此处显示系统提示、系统公告信息信息</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>包括经验条背景、横向进度条、百分比</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>横向进度条</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>经验条背景为160*20大小的条状</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>为满足主界面图标显示多样性，制定如下主界面中图标的通用规则</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>适用于主界面中各类图标</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>目前版本包括 任务、宠物、背包 三个功能图标以及缩进/展开按钮</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>缩进/展开按钮</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>默认为展开状态，展开时点击缩进按钮可以将功能图标隐藏，隐藏有动画效果（各图标依次向缩进按钮移动，移动至缩进按钮后消失）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>缩进时点击展开按钮可以将功能图标展开，展开有动画效果（各图标依次从展开按钮移动到对应位置）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>缩进图标示例</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>需求不要是单面的，后续可能扩展在缩进按钮上方增加功能图标</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>展开图标示例</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>图标构成</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>图标本体</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>图标图片的表现形式</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>图标名称</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>该图标代表的功能的正式名称</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>状态标示</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>显示在图标本体右上角</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>当该图标代表的功能有可用或者可点的操作时（具体效果各个功能标注），右上角出现该提示，提示始终存在，直至无可用或者可点操作消失</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>显示在图标本体下方</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>角色升级提示</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>新功能开启提示</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>升级提示界面</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>界面标题</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>显示为 Level up！或者其他带有升级类意义的词语，具体见美术设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>升级信息</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>玩家等级</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>当前疲劳值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -602,11 +599,11 @@
       </rPr>
       <t xml:space="preserve"> 目标疲劳值</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>疲劳值上限</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -622,563 +619,563 @@
       </rPr>
       <t xml:space="preserve"> 目标疲劳值上限</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>升级信息中的内容，只显示有数值变化的项，不变化的不显示，已显示的项垂直居中分布</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>确定按钮</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>点击确定按钮，则关闭当前界面</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>该窗口为模态不可移动</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>窗口出现后背景有半透明遮罩效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>该窗口不同于一般提示性窗口，需要比较炫丽，请美术同学单独设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>新功能开启提示界面</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>显示为Congratulation！或者其他带有恭喜，祝贺类意义的词语，具体见美术设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>提示内容</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>显示为提示信息文本</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>字色与字体见美术规范文档</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>字色与字体见美术规范文档，可保证显示下5行文本即可，每行长度大概300像素</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>提示说明</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>显示解锁的系统或者功能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>字色与字体见美术规范文档，需要与提示内容文本颜色区分开</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>该窗口不同于一般提示性窗口，需要有独特样式，请美术同学单独设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>点击界面后界面关闭，同时自动转动镜头至新开系统的图标或者处于屏幕水平中心位置</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>同时该图标或者按钮处于提示点击的样式并进入新功能引导逻辑</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>此期间内玩家无法自动旋转镜头以及进行其他功能操作</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>当玩家提升到一定等级后，会开启对应新功能，此时会弹出新功能提示界面</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>如玩家在非主界面中升级后退出游戏，则下次进入主界面后再次弹出提示</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>新功能提示只会进行一次，且由服务器端记录是否已经进行完毕（引导结束视为进行完毕）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1.角色信息区UI</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>包括</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1.头像边框、头像logo设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2.玩家等级样式设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>3.玩家名称样式设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>4.进度条样式设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>5.疲劳值样式设计、补充疲劳值按钮设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2.货币信息区UI</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>包括</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1.金币显示区样式设计、补充金币按钮设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2.钻石显示区样式设计、补充钻石按钮设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>3.活动信息区图标</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1.签到图标以及文字样式设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2.活动指引图标以及文字样式设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>3.充值（商城）图标以及活动样式设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>4.基础功能图标按钮UI</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1.任务图标以及文字样式设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2.宠物图标以及文字样式设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>3.背包图标以及文字样式设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>5.图标通用</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>3.图标状态标识样式设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1.图标提示文本样式设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>包括 hot、new字样的动态效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>主界面图标通用规则</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>图标效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>显示效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>点击效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>限时图标</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>图标支持定时显示与倒计时消失功能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>当配置开启时间后，则在开启时间出现图标，开始时间之前不显示图标</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>当配置倒计时消失时间后，则在图标出现后开始计时，倒计时到达时图标消失</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>图标响应规则</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>点击图标后，识别抬起时手指是否还在图标响应范围内</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>如超出范围，则不响应点击</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>如未超出范围，抬起手指时响应点击效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>按下手指时不在图标上，则抬起时无论是否在图标上都不响应点击</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>6.角色升级UI</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1.升级界面整体样式设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2.升级界面字体样式设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>3.确定按钮样式设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>7.新功能提示UI</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>包括</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1.新功能提示整体样式设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2.新功能提示字体样式设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>3.新功能入口特效样式设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>物件显示规则</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>场景结构</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>结构组成</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>主场景为3D形式</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>内容为一个日常起居室（详细需求见【美术需求】分页）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>参考图如下样式</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>场景介绍</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>整体为一个四面墙的起居室，可见范围为左前右三面墙以及部分地板以及天花板</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>屋内有各类生活物件组成（如衣柜、床、书桌、书柜等等）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>物件均为3D形式展现</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>镜头相关</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>镜头移动</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>场景中镜头可以按照固定轨迹左右滑动</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>需求移动轨迹可以配置调整</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>镜头高度</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>镜头高度为1.4米，大概为角色坐在床上或者椅子上时眼睛高度一致</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>镜头视距</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>滑动速度以及距离根据玩家滑动的力度以及速度决定</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>镜头视距为1.5米左右，固定不变</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>镜头角度</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>镜头视角为平视（大概为水平夹角在15至-20之间）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>视角不可手动变化</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>默认镜头</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>默认镜头为开启客户端后首次进入主场景的镜头，需求可配置</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>开启其他界面后，未关闭客户端的情况下再次返回主场景，应该保留进入其他界面前的镜头位置</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>场景大小</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>由左至右拖动镜头需求可完整展现大概2.5屏幕的内容</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>左右需要各预留半屏左右大小的场景用于镜头回弹（镜头回弹详见镜头相关）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>单屏幕展现内容示意</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>镜头回弹</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>左右拖动镜头至边界时，无法继续拖动，会有一个类似下拉列表的回弹效果（可继续拉伸一段距离，松手后回弹到边界位置）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>黄色实线为镜头两个边界，黄色虚线为镜头中心线</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>绿色边框为镜头正常可见范围，红色与绿色相接位置即为可见场景的边界</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>图1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>图2</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>图1为正常情况下显示的镜头边界角度</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>当滑动镜头至图1后，继续向右可以滑动至图2位置，松手后镜头回弹至图1位置</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>左侧边界同理</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>如下镜头顶视图示意</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>蓝色实线为镜头滑动轨迹</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>回弹过程持续0.5秒，镜头角度平缓变化</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>物件定义</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>场景中的家具、电器、用品等可被操作的物品成为物件</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>物件交互</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>当某个物件配置了对应的功能或者玩法入口时，且玩家开启该功能或者玩法的条件时，玩家可以与物件进行交互</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>交互形式</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>点击物件后物件可播放点击动作以及特效，然后打开对应入口界面</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>响应规则</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>如不处于响应范围内，则不响应点击效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>点击物件后判断抬起手指位置是否处于物件响应范围内</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>如处于响应范围内，则响应点击效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>交互响应开启规则</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>当玩家不满足某个物件的开启条件时，无法与物件进行交互</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>点击物件不会有点击效果反馈，同时不会打开对应入口</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>此时物件为普通物件</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>当玩家满足某个物件的开启条件时，普通物件变为可交互物件</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>效果反馈</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>普通物件</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>未点击状态的普通物件无特效反馈</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>点击普通物件无特效反馈</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>点击普通物件无动作反馈</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>可交互物件</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>未点击状态的普通物件有特效反馈</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>点击可交互物件有动作反馈（点击后播放对应点击动作动画，播放一次即可）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>点击可交互物件有特效反馈（点击后播放对应动作的特效效果）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>主界面场景功能扩展</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1. 照妖镜可以在场景中使用，并照出隐藏功能玩法</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2.可以支持场景物件扩展（玩家宠物变换为手办形式存放于场景中）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>3.窗外昼夜变换</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>点击物件会有点击效果反馈</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>若物件无动作反馈，则直接打开入口界面</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>若物件有动作反馈，则播放动作后打开入口界面</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1194,19 +1191,19 @@
       </rPr>
       <t>I需求</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>场景需求</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1.主界面场景</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>日常起居室，可以承载目前世界观风格的三面墙场景，需要包含地面与天花板</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1222,7 +1219,7 @@
       </rPr>
       <t>.场景物件</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1238,95 +1235,95 @@
       </rPr>
       <t>PC商店</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对应功能/玩法</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>可参考物件</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>抽蛋</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>副本选择</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>大冒险</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>新玩法1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>公会</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>合成</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>分解</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>电脑屏幕</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>衣柜</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>漫画/墙上挂件</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>电话</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>垃圾桶</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>纸抽/存钱罐/魔方</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>需要满足上述玩法对应设计物件</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>某种玩具</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>动作需求</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>暂缓</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1342,7 +1339,7 @@
       </rPr>
       <t>.可交互物件未点击时的自发光特效</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1358,171 +1355,171 @@
       </rPr>
       <t>.物件点击后的特效</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> mt</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>初版文档等待mt审核</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>有些地方是大写的LVL（宠物，结算），需要空格或者点么</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>这里是否需要缩放规则</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>填充方式，逐渐增长的还是突进的，还是待设计</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>百分比精确位数</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>这个用的是通用控件还是单独控件？</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>多语言在这儿写还是各个功能写</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>多语言，id用已有的</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>邮箱装备宠物里面用的红点，这个是不是统一一下</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>这个不建议有，因为游戏中会频繁获得材料怪（早年说每天都能获得几只），这样只材料怪而已没必要提示</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>当new和数量同时存在的时候，容易被误解为有x个new</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>new和状态标识同时出现的时候很容易被误解</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>灰掉标上要做的版本号</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>感觉这个功能简单的提示解锁了什么就行，没必要提示这么多文字，要是想提示文字，发个邮件也可以吧</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>配置结构缺失，哪些等级开启哪些功能待定么？</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>文字自动缩放？玩家名字是不是可以规定最大字数</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>还要名称么？多语言</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>还要名称么？多语言</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>同上</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>邮箱？</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>扩展了就不能叫左右了，你不说清楚，帆爷绝逼给你做成左右的</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>名称要考虑多语言，可能图标的宽度显示不下</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>宠物进阶、装备强化都与玩家等级有关</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>时</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>只有这个界面感觉不够，最好经过一次返回主界面，点主界面或者对应入口，这样有助于玩家记忆入口位置</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>这个控件有了，不用提了</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>变化方式，是直接跳还是每次加1逐渐变化/单位时间内增长速度</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>详见签到文档吧</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>如果玩家在线过刷新点也弹出签到界面么，还是重登陆，待定</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>这句im文档写了，删掉吧</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>该图的帧动画</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>界面什么时候出现，是在任何位置升级都触发这个界面么？--都弹</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>说一下都什么时候弹</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>进行完毕后，显示下一个</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>关门放吕布</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>把大界面截过来</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1538,55 +1535,51 @@
       </rPr>
       <t>玩家当前等级</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>已改</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>当玩家非满级状态时，玩家在主界面获得经验后，进度条由左至右动态填充</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次变化最小值为1%，保持与进度条同时结束即可</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>通用控件，但是商店系统没写…我还是留着吧</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>各个功能自己写</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>当有已完成的任务时，任务图标右上角显示红点提示</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>各系统自己写</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>容易产生歧义，去掉此功能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>已改图</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>删</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>图标是 做图上的</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>已去掉文本提示</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1602,210 +1595,210 @@
       </rPr>
       <t>.9版本有运营活动时添加</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>已改</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>已补充</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>升级界面弹出规则</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>邮箱、任务等界面获得经验的界面中，获得经验后直接弹出升级界面，且出现在邮箱、任务等界面上层</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>已补充</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>功能名称</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>新功能开启</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>功能提示</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>当玩家一次提升多个等级时，可能会同时开启多个新功能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>此时需要按照新功能开启等级由低到高一项一项显示（上一项进行完毕后，再次回到主界面后，显示下一个）</t>
   </si>
   <si>
     <t>开启等级</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>已补充</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>该提示信息只在主界面时才会弹出，如当前在非主界面中升级，则在玩家下次返回主界面时进行提示</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>显示不下可以滚动查看</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>包括功能名称，简介，开启情况</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>功能名称</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>读取配置表中的功能名称</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>简介</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>读取配置表中的简介</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>开启情况</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>本级开启的显示 绿色 “已开启”</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>只提示功能性内容</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.5</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_levelup_dengji</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_levelup_pilao</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_levelup_shangxian</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_new_title</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_new_tishi</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>战斗后获得经验后，均与界面同时展现（副本结果移动到屏幕上方后），且出现在副本结算界面上层</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>功能开启预告</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>包括已开启与将要开启两部分</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>已开启</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>未开启</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>预告内容</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>非本级开启的显示 红色 “X级开启”</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>补充功能开启预告的规则</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>删除多余文字</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.6</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>显示目标等级之后将要开启的两个新功能，如同一个等级有多个新功能开启，则按照配置表的顺序依次显示</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.6</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>程序、qc、美术、木木、mt</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>取消升级后新功能提醒，改为新手引导制作</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>显示长度为200像素</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>取消名称缩放需求</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>图标点击后会做有缩放效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>图标按下直接缩放处理</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>删除图标提示文本需求</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1821,19 +1814,19 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>签到界面的弹出方式详见签到功能文档</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>其他相关</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>疲劳值名称待确定</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1849,55 +1842,55 @@
       </rPr>
       <t>M布局与雪姬确认</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>创建角色界面增加头像选择功能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>同一个等级可以开启多个新功能？</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>一次提升多个等级弹出多个升级提示界面</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>玩家等级提示方式变更</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>包含 玩家等级、当前疲劳值、疲劳值上限</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>图标上层或者下层可以支持帧动画或者粒子特效效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>变更图标帧动画效果为图标前后可以增加帧动画图片或者粒子特效</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.7</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>配置+验收</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1913,11 +1906,11 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>原画</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1933,7 +1926,7 @@
       </rPr>
       <t>D</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1949,7 +1942,7 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1965,7 +1958,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1981,7 +1974,7 @@
       </rPr>
       <t>0d</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1997,15 +1990,15 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2021,7 +2014,7 @@
       </rPr>
       <t xml:space="preserve">                   </t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2037,7 +2030,7 @@
       </rPr>
       <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                       </t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2053,7 +2046,7 @@
       </rPr>
       <t xml:space="preserve">     </t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2069,7 +2062,7 @@
       </rPr>
       <t xml:space="preserve">    </t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2085,7 +2078,7 @@
       </rPr>
       <t xml:space="preserve">                 </t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2101,7 +2094,7 @@
       </rPr>
       <t xml:space="preserve">                   </t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>升级信息提示封装</t>
@@ -2123,7 +2116,7 @@
       </rPr>
       <t>.5d</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2139,23 +2132,23 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1.镜头调整</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2.场景编辑，选中效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>3.添加到流程</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">主界面UI </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t> MG-1496</t>
@@ -2177,7 +2170,7 @@
       </rPr>
       <t>esc</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2193,51 +2186,51 @@
       </rPr>
       <t>eedlevel</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>主界面UI验收</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1.经验条比例显示不正常，每次获得经验后经验条为满，重新登录后经验条为0，实际经验条可能为50%</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2.角色等级显示不正常，每次升级后返回主界面后角色等级显示为99级，重新登录后显示正常</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>升级提示界面验收</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1.文本内容没有读表（显示的是翻译代号）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2.新功能提示没有读表，每次都显示的是任务（客户端改表function后无法进入游戏）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>等级提升无法验证是否正确</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>活力提升无法验证是否正确</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>活力上限提升无法验证是否正确</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>增加主界面UI验收内容</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>二次验收</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2253,95 +2246,95 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>角色信息界面</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>头像</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>经验条</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>活力</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>等待活力值系统</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>按钮旋转</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>功能入口</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>图标展开/缩放</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>基础功能部分</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>升级提示界面</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>等级提升</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>活力值提升</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>活力值上限提升</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>新功能预告</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>添加UI部分二次验收结果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>百分比精确至个位数，向上取整</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>补充经验条百分比取整方式</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.8</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2367,11 +2360,11 @@
       </rPr>
       <t>_title</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>调整升级界面title多语言ID与现在的统一</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2397,7 +2390,7 @@
       </rPr>
       <t>_kaiqi</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2423,63 +2416,63 @@
       </rPr>
       <t>_weikaiqi</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局修改问题回复</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1. 屏幕左侧的弱点信息是否过于繁琐</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>信息会根据弱点的类型直接显示对应图标，通常情况下玩家看到图标就知道如何应对了</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>针对特别情况，还是需要玩家去看tips来思考如何应对的</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2.弱点应该和血条挨得近一些</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>之前考虑过放到血条下方，后来放弃主要两个原因</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1.位置不足，血条下方有buff图标等内容，后续可能会有boss技能显示</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2.并不是所有弱点都是关联boss血量的，所以放到血条的位置也不是特别合适</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>3.查看tips是否会比较麻烦，战斗中是否还有时间去看</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>我们战斗大部分时间都是挂机的，所以时间应该是充足的</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>从测试反馈的报告来看，参与测试的玩家还是希望能有更多的可以查看、操作的点，可能也是国外玩家与国内玩家不同之处</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>4.大招画阵取消的理由</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>可能目前的设计并没有达到之前的增加参与感的设计目的，因为参与感也是要有相应正反馈的，不然玩家是不会去参与的</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>另外增加了大招的使用时间，使节奏拖沓也是一个比较大的原因</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2495,32 +2488,51 @@
       </rPr>
       <t xml:space="preserve"> 目标等级</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>当玩家一次性提升多个等级时，只显示最终目标等级的信息</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>显示本次等级提升所有已开启的功能，如从1升至5级，则提示1-5级所有已开启的功能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>升级界面等级显示规则调整</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家当前非满级状态时，显示经验条当前百分比且当玩家在主界面获得经验后，百分比直接变更至目标值，无需动态变化</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次变化最小值为1%</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验条百分比变化规则变更</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2970,155 +2982,156 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11704,10 +11717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H39"/>
+  <dimension ref="A2:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="E33" sqref="E33:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -11766,97 +11779,97 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71" t="s">
+      <c r="C12" s="73"/>
+      <c r="D12" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="72"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="75"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="D14" s="73" t="s">
-        <v>302</v>
-      </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="75"/>
+        <v>299</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>301</v>
+      </c>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="78"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="66"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="69"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="71"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -11894,7 +11907,7 @@
         <v>42299</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -11905,35 +11918,35 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C24" s="11">
         <v>42303</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E24" s="31"/>
       <c r="G24" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C25" s="11">
         <v>42303</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E25" s="35"/>
       <c r="G25" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -11941,22 +11954,22 @@
       <c r="C26" s="11"/>
       <c r="G26" s="5"/>
       <c r="H26" s="34" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C27" s="11">
         <v>42305</v>
       </c>
       <c r="E27" s="52"/>
       <c r="G27" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -11964,7 +11977,7 @@
       <c r="C28" s="11"/>
       <c r="G28" s="5"/>
       <c r="H28" s="34" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -11972,25 +11985,25 @@
       <c r="C29" s="11"/>
       <c r="G29" s="5"/>
       <c r="H29" s="34" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C30" s="11">
         <v>42312</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E30" s="35"/>
       <c r="G30" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -11998,7 +12011,7 @@
       <c r="C31" s="11"/>
       <c r="G31" s="5"/>
       <c r="H31" s="34" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -12006,71 +12019,109 @@
       <c r="C32" s="11">
         <v>42319</v>
       </c>
-      <c r="E32" s="81"/>
+      <c r="E32" s="67"/>
       <c r="G32" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+      <c r="C33" s="11">
+        <v>42320</v>
+      </c>
+      <c r="E33" s="67"/>
+      <c r="G33" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+      <c r="C34" s="11"/>
+      <c r="H34" s="34"/>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B35" s="2"/>
+      <c r="C35" s="11"/>
+      <c r="H35" s="34"/>
+    </row>
+    <row r="36" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B36" s="2"/>
+      <c r="C36" s="11"/>
+      <c r="H36" s="34"/>
+    </row>
+    <row r="37" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B37" s="2"/>
+      <c r="C37" s="11"/>
+      <c r="H37" s="34"/>
+    </row>
+    <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B38" s="2"/>
+      <c r="C38" s="11"/>
+      <c r="H38" s="34"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C40" s="36">
+        <v>42304</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C34" s="36">
-        <v>42304</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E41" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E35" s="49" t="s">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E42" s="49" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E36" s="49" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E37" s="49" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E38" s="49" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E39" s="49" t="s">
-        <v>414</v>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E43" s="49" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E44" s="49" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E45" s="49" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -12085,20 +12136,21 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H25" location="功能开启预告" display="补充功能开启预告的规则"/>
     <hyperlink ref="H26" location="战斗后获得经验后_均与界面同时展现_副本结果移动到屏幕上方后__且出现在副本结算界面上层" display="删除多余文字"/>
-    <hyperlink ref="E35" location="显示长度为200像素" display="取消名称缩放需求"/>
-    <hyperlink ref="E36" location="图标点击后会做有缩放效果" display="图标按下直接缩放处理"/>
-    <hyperlink ref="E37" location="图标构成" display="删除图标提示文本需求"/>
-    <hyperlink ref="E38" location="当玩家一次性提升多个等级时_弹出多个提示界面_如玩家从1级升到3级_则提示2个界面_第一个界面关闭后弹出第二个界面" display="一次提升多个等级弹出多个升级提示界面"/>
-    <hyperlink ref="E39" location="玩家等级格式" display="玩家等级提示方式变更"/>
+    <hyperlink ref="E41" location="显示长度为200像素" display="取消名称缩放需求"/>
+    <hyperlink ref="E42" location="图标点击后会做有缩放效果" display="图标按下直接缩放处理"/>
+    <hyperlink ref="E43" location="图标构成" display="删除图标提示文本需求"/>
+    <hyperlink ref="E44" location="当玩家一次性提升多个等级时_弹出多个提示界面_如玩家从1级升到3级_则提示2个界面_第一个界面关闭后弹出第二个界面" display="一次提升多个等级弹出多个升级提示界面"/>
+    <hyperlink ref="E45" location="玩家等级格式" display="玩家等级提示方式变更"/>
     <hyperlink ref="H27" location="图标上层或者下层可以支持帧动画或者粒子特效效果" display="变更图标帧动画效果为图标前后可以增加帧动画图片或者粒子特效"/>
     <hyperlink ref="H29" location="_2015_11_2" display="添加UI部分二次验收结果"/>
     <hyperlink ref="H30" location="百分比精确至个位数_向上取整" display="补充经验条百分比取整方式"/>
     <hyperlink ref="H31" location="多语言ID_main_levelup_title" display="调整升级界面title多语言ID与现在的统一"/>
     <hyperlink ref="H32" location="升级提示" display="升级界面等级显示规则调整"/>
+    <hyperlink ref="H33" location="百分比" display="经验条百分比变化规则变更"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12120,76 +12172,76 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="64" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="64" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="64" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="64" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="64" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" s="64" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" s="64" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="64" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="64" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="64" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="64" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="64" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="64" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12211,90 +12263,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C25" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C26" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C27" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C31" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C32" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C34" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
       <c r="B48" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="C49" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
       <c r="C50" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -12333,7 +12385,7 @@
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
       <c r="C62" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -12342,13 +12394,13 @@
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="C65" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -12357,13 +12409,13 @@
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="C68" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -12372,19 +12424,19 @@
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="20"/>
       <c r="B70" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="20"/>
       <c r="C71" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="20"/>
       <c r="C72" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -12393,19 +12445,19 @@
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="20"/>
       <c r="B74" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="20"/>
       <c r="C75" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="20"/>
       <c r="C76" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -12414,37 +12466,37 @@
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="20"/>
       <c r="B78" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="20"/>
       <c r="C79" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
       <c r="C80" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="20"/>
       <c r="D81" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="20"/>
       <c r="D82" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="20"/>
       <c r="D83" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -12493,38 +12545,38 @@
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="20"/>
       <c r="F98" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="O98" s="18" t="s">
         <v>231</v>
-      </c>
-      <c r="O98" s="18" t="s">
-        <v>232</v>
       </c>
       <c r="T98" s="19"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="20"/>
       <c r="D99" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="T99" s="19"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="20"/>
       <c r="D100" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T100" s="19"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="20"/>
       <c r="D101" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T101" s="19"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="20"/>
       <c r="D102" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T102" s="19"/>
     </row>
@@ -12533,170 +12585,170 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T104" s="19"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B105" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C106" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B108" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J108" s="53" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C109" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C110" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D111" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K112" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="113" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C113" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J113" s="53" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="114" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D114" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E115" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="116" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E116" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K116" s="53" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="118" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C118" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D119" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D120" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="121" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D121" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="123" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D123" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D124" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="125" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E125" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L125" s="53" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="126" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E126" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="127" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C127" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="128" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D128" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="129" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E129" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N129" s="53" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="130" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E130" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E131" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D133" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="134" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E134" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E135" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E136" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="140" spans="4:20" x14ac:dyDescent="0.3">
       <c r="T140" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12706,8 +12758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R244"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75:I75"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="N76" sqref="N76:Q76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12760,10 +12812,10 @@
     </row>
     <row r="57" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B57" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F57" s="43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G57" s="42"/>
       <c r="H57" s="42"/>
@@ -12771,7 +12823,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B58" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>51</v>
@@ -12799,36 +12851,36 @@
     </row>
     <row r="64" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F64" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G64" s="39"/>
       <c r="H64" s="39"/>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B65" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F65" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
       <c r="E67" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F68" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F69" s="14" t="s">
         <v>52</v>
       </c>
@@ -12842,9 +12894,9 @@
       <c r="N69" s="42"/>
       <c r="O69" s="42"/>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
       <c r="G70" s="48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H70" s="42"/>
       <c r="I70" s="42"/>
@@ -12855,9 +12907,9 @@
       <c r="N70" s="42"/>
       <c r="O70" s="42"/>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F71" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G71" s="48"/>
       <c r="H71" s="42"/>
@@ -12869,12 +12921,12 @@
       <c r="N71" s="42"/>
       <c r="O71" s="42"/>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B72" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G72" s="43" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H72" s="42"/>
       <c r="I72" s="42"/>
@@ -12885,12 +12937,12 @@
       <c r="N72" s="42"/>
       <c r="O72" s="42"/>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B73" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G73" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H73" s="42"/>
       <c r="I73" s="42"/>
@@ -12901,7 +12953,7 @@
       <c r="N73" s="42"/>
       <c r="O73" s="42"/>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F74" s="14" t="s">
         <v>53</v>
       </c>
@@ -12915,10 +12967,10 @@
       <c r="N74" s="42"/>
       <c r="O74" s="42"/>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F75" s="14"/>
       <c r="G75" s="60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H75" s="61"/>
       <c r="I75" s="61"/>
@@ -12929,12 +12981,12 @@
       <c r="N75" s="42"/>
       <c r="O75" s="42"/>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B76" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="G76" s="43" t="s">
-        <v>54</v>
+        <v>330</v>
+      </c>
+      <c r="G76" s="82" t="s">
+        <v>504</v>
       </c>
       <c r="H76" s="42"/>
       <c r="I76" s="42"/>
@@ -12942,15 +12994,17 @@
       <c r="K76" s="42"/>
       <c r="L76" s="42"/>
       <c r="M76" s="42"/>
-      <c r="N76" s="42"/>
-      <c r="O76" s="42"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N76" s="66"/>
+      <c r="O76" s="66"/>
+      <c r="P76" s="66"/>
+      <c r="Q76" s="66"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B77" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="G77" s="43" t="s">
-        <v>344</v>
+        <v>341</v>
+      </c>
+      <c r="G77" s="82" t="s">
+        <v>505</v>
       </c>
       <c r="H77" s="42"/>
       <c r="I77" s="42"/>
@@ -12961,13 +13015,13 @@
       <c r="N77" s="42"/>
       <c r="O77" s="42"/>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B78" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F78" s="14"/>
       <c r="G78" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H78" s="42"/>
       <c r="I78" s="42"/>
@@ -12978,13 +13032,13 @@
       <c r="N78" s="42"/>
       <c r="O78" s="42"/>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B79" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F79" s="14"/>
       <c r="G79" s="48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H79" s="42"/>
       <c r="I79" s="42"/>
@@ -12995,34 +13049,34 @@
       <c r="N79" s="42"/>
       <c r="O79" s="42"/>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E81" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F81" s="14"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F82" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F83" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F84" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F85" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
@@ -13032,87 +13086,87 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F89" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="27" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E95" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F96" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F97" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F98" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F99" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F100" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F101" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E103" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F104" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F105" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F106" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F107" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F108" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F109" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.3">
@@ -13120,7 +13174,7 @@
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B112" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D112" s="13" t="s">
         <v>35</v>
@@ -13128,97 +13182,97 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B113" s="27" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F125" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E127" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F129" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F130" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B131" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B132" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B133" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E133" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F135" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F136" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E138" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F140" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F141" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -13234,7 +13288,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F145" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
@@ -13242,57 +13296,57 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B151" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B152" s="27" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B153" s="23"/>
       <c r="E153" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B154" s="23"/>
       <c r="F154" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B155" s="23"/>
       <c r="F155" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B156" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B157" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F157" s="43" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G157" s="42"/>
       <c r="H157" s="42"/>
@@ -13301,51 +13355,51 @@
     </row>
     <row r="158" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B158" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F158" s="14"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B159" s="28" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B160" s="23"/>
       <c r="E160" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B161" s="23"/>
       <c r="F161" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B162" s="23"/>
       <c r="F162" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B163" s="23"/>
       <c r="F163" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B164" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F164" s="14"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B165" s="28" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -13354,28 +13408,28 @@
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B167" s="23"/>
       <c r="E167" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B168" s="23"/>
       <c r="F168" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B169" s="23"/>
       <c r="F169" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B170" s="23"/>
       <c r="F170" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -13386,26 +13440,26 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E173" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F173" s="14"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F174" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F175" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F176" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I176" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -13419,16 +13473,16 @@
     </row>
     <row r="180" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A180" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F180" s="14"/>
       <c r="G180" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="28" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F181" s="14"/>
     </row>
@@ -13442,23 +13496,23 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F184" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F185" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B186" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F186" s="14"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B187" s="27" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -13468,12 +13522,12 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F190" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F191" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -13486,53 +13540,53 @@
     </row>
     <row r="195" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F195" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="196" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F196" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="199" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C199" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="200" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D200" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="201" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D201" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="202" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E202" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A209" s="22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F211" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F212" s="15"/>
       <c r="G212" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -13540,19 +13594,19 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F214" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F215" s="15"/>
       <c r="G215" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F216" s="15"/>
       <c r="G216" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -13560,27 +13614,27 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F218" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F219" s="15"/>
       <c r="G219" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B220" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F220" s="15"/>
       <c r="G220" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B221" s="27" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F221" s="15"/>
       <c r="G221" s="15"/>
@@ -13595,21 +13649,21 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E224" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F224" s="15"/>
       <c r="G224" s="15"/>
     </row>
     <row r="225" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F225" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G225" s="15"/>
     </row>
     <row r="226" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F226" s="40"/>
       <c r="G226" s="51" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H226" s="39"/>
       <c r="I226" s="39"/>
@@ -13618,7 +13672,7 @@
     </row>
     <row r="227" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B227" s="21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F227" s="40"/>
       <c r="G227" s="50"/>
@@ -13628,31 +13682,31 @@
     </row>
     <row r="228" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B228" s="27" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F228" s="15"/>
       <c r="G228" s="17"/>
     </row>
     <row r="229" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F229" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G229" s="15"/>
     </row>
     <row r="230" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F230" s="15"/>
       <c r="G230" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H230" s="39"/>
       <c r="I230" s="39"/>
     </row>
     <row r="232" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B232" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F232" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G232" s="30"/>
       <c r="H232" s="30"/>
@@ -13665,11 +13719,11 @@
     </row>
     <row r="233" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B233" s="27" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F233" s="30"/>
       <c r="G233" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H233" s="30"/>
       <c r="I233" s="30"/>
@@ -13682,7 +13736,7 @@
     <row r="234" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F234" s="30"/>
       <c r="G234" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H234" s="30"/>
       <c r="I234" s="30"/>
@@ -13695,7 +13749,7 @@
     <row r="235" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F235" s="30"/>
       <c r="G235" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H235" s="30"/>
       <c r="I235" s="30"/>
@@ -13716,7 +13770,7 @@
       <c r="M236" s="30"/>
       <c r="N236" s="30"/>
       <c r="O236" s="25" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P236" s="26"/>
       <c r="Q236" s="26"/>
@@ -13724,31 +13778,31 @@
     </row>
     <row r="239" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E239" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="240" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F240" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="241" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G241" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="242" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G242" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="244" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F244" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="notContainsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -13783,32 +13837,32 @@
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C2" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D3" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E22" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F23" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F24" s="62" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F25" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -13816,54 +13870,54 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B30" s="22"/>
       <c r="F30" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
       <c r="F31" s="32" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F32" s="15"/>
-      <c r="G32" s="79" t="s">
-        <v>502</v>
-      </c>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
+      <c r="G32" s="65" t="s">
+        <v>500</v>
+      </c>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F33" s="15"/>
@@ -13871,18 +13925,18 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F34" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F35" s="32" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F36" s="15"/>
       <c r="G36" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
@@ -13890,48 +13944,48 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F38" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F39" s="32" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="G40" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F42" s="79" t="s">
-        <v>503</v>
-      </c>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
+      <c r="F42" s="65" t="s">
+        <v>501</v>
+      </c>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
     </row>
     <row r="43" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B43" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B45" s="28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D45" s="44"/>
       <c r="E45" s="42"/>
@@ -13951,7 +14005,7 @@
       <c r="B46" s="22"/>
       <c r="D46" s="44"/>
       <c r="E46" s="46" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F46" s="45"/>
       <c r="G46" s="42"/>
@@ -13970,7 +14024,7 @@
       <c r="D47" s="44"/>
       <c r="E47" s="43"/>
       <c r="F47" s="47" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G47" s="42"/>
       <c r="H47" s="42"/>
@@ -13989,7 +14043,7 @@
       <c r="E48" s="43"/>
       <c r="F48" s="45"/>
       <c r="G48" s="47" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H48" s="42"/>
       <c r="I48" s="42"/>
@@ -14007,16 +14061,16 @@
       <c r="E49" s="43"/>
       <c r="F49" s="45"/>
       <c r="G49" s="45"/>
-      <c r="H49" s="79" t="s">
-        <v>504</v>
-      </c>
-      <c r="I49" s="80"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="80"/>
-      <c r="N49" s="80"/>
-      <c r="O49" s="80"/>
+      <c r="H49" s="65" t="s">
+        <v>502</v>
+      </c>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="66"/>
+      <c r="N49" s="66"/>
+      <c r="O49" s="66"/>
       <c r="P49" s="42"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
@@ -14025,7 +14079,7 @@
       <c r="E50" s="43"/>
       <c r="F50" s="45"/>
       <c r="G50" s="47" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H50" s="46"/>
       <c r="I50" s="42"/>
@@ -14044,7 +14098,7 @@
       <c r="F51" s="45"/>
       <c r="G51" s="45"/>
       <c r="H51" s="46" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I51" s="42"/>
       <c r="J51" s="42"/>
@@ -14060,7 +14114,7 @@
       <c r="D52" s="44"/>
       <c r="E52" s="43"/>
       <c r="F52" s="47" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G52" s="46"/>
       <c r="H52" s="42"/>
@@ -14079,7 +14133,7 @@
       <c r="E53" s="42"/>
       <c r="F53" s="45"/>
       <c r="G53" s="43" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H53" s="42"/>
       <c r="I53" s="42"/>
@@ -14097,7 +14151,7 @@
       <c r="E54" s="42"/>
       <c r="F54" s="45"/>
       <c r="G54" s="43" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H54" s="42"/>
       <c r="I54" s="42"/>
@@ -14111,7 +14165,7 @@
       <c r="F55" s="45"/>
       <c r="G55" s="42"/>
       <c r="H55" s="43" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I55" s="42"/>
       <c r="J55" s="42"/>
@@ -14123,7 +14177,7 @@
       <c r="E56" s="42"/>
       <c r="F56" s="45"/>
       <c r="G56" s="43" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H56" s="42"/>
       <c r="I56" s="42"/>
@@ -14137,7 +14191,7 @@
       <c r="F57" s="45"/>
       <c r="G57" s="42"/>
       <c r="H57" s="43" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I57" s="42"/>
       <c r="J57" s="42"/>
@@ -14149,7 +14203,7 @@
       <c r="E58" s="42"/>
       <c r="F58" s="45"/>
       <c r="G58" s="43" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H58" s="42"/>
       <c r="I58" s="42"/>
@@ -14163,13 +14217,13 @@
       <c r="F59" s="45"/>
       <c r="G59" s="43"/>
       <c r="H59" s="43" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I59" s="42"/>
       <c r="J59" s="42"/>
       <c r="K59" s="42"/>
       <c r="L59" s="63" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M59" s="33"/>
       <c r="N59" s="33"/>
@@ -14181,13 +14235,13 @@
       <c r="F60" s="45"/>
       <c r="G60" s="43"/>
       <c r="H60" s="46" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I60" s="42"/>
       <c r="J60" s="42"/>
       <c r="K60" s="42"/>
       <c r="L60" s="63" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M60" s="33"/>
       <c r="N60" s="33"/>
@@ -14209,7 +14263,7 @@
       <c r="E62" s="42"/>
       <c r="F62" s="45"/>
       <c r="G62" s="43" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H62" s="42"/>
       <c r="I62" s="42"/>
@@ -14230,7 +14284,7 @@
     <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D64" s="44"/>
       <c r="E64" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F64" s="40"/>
       <c r="G64" s="42"/>
@@ -14241,12 +14295,12 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F65" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F66" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -14254,19 +14308,19 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E68" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F68" s="15"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E69" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F69" s="15"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E70" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F70" s="15"/>
     </row>
@@ -14276,7 +14330,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E72" s="43" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F72" s="40"/>
       <c r="G72" s="42"/>
@@ -14293,7 +14347,7 @@
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E73" s="40"/>
       <c r="F73" s="43" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G73" s="42"/>
       <c r="H73" s="42"/>
@@ -14309,7 +14363,7 @@
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E74" s="40"/>
       <c r="F74" s="46" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G74" s="42"/>
       <c r="H74" s="42"/>
@@ -14338,10 +14392,10 @@
     </row>
     <row r="76" spans="1:16" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E76" s="42"/>
       <c r="F76" s="42"/>
@@ -14358,10 +14412,10 @@
     </row>
     <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" s="28" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E77" s="41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F77" s="42"/>
       <c r="G77" s="42"/>
@@ -14377,10 +14431,10 @@
     </row>
     <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" s="22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E78" s="43" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F78" s="42"/>
       <c r="G78" s="42"/>
@@ -14396,10 +14450,10 @@
     </row>
     <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E79" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F79" s="42"/>
       <c r="G79" s="42"/>
@@ -14415,10 +14469,10 @@
     </row>
     <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E80" s="43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F80" s="42"/>
       <c r="G80" s="42"/>
@@ -14434,11 +14488,11 @@
     </row>
     <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B81" s="22"/>
       <c r="E81" s="41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F81" s="42"/>
       <c r="G81" s="42"/>
@@ -14455,7 +14509,7 @@
     <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" s="22"/>
       <c r="E82" s="41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F82" s="42"/>
       <c r="G82" s="42"/>
@@ -14485,7 +14539,7 @@
     </row>
     <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="D84" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E84" s="42"/>
       <c r="F84" s="42"/>
@@ -14530,7 +14584,7 @@
     </row>
     <row r="87" spans="1:16" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E87" s="42"/>
       <c r="F87" s="42"/>
@@ -14547,7 +14601,7 @@
     </row>
     <row r="88" spans="1:16" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E88" s="42"/>
       <c r="F88" s="42"/>
@@ -14592,7 +14646,7 @@
     </row>
     <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E91" s="42"/>
       <c r="F91" s="42"/>
@@ -14679,10 +14733,10 @@
     </row>
     <row r="97" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E97" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F97" s="42"/>
       <c r="G97" s="42"/>
@@ -14699,7 +14753,7 @@
     <row r="98" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="22"/>
       <c r="E98" s="46" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F98" s="42"/>
       <c r="G98" s="42"/>
@@ -14716,7 +14770,7 @@
     <row r="99" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E99" s="42"/>
       <c r="F99" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G99" s="42"/>
       <c r="H99" s="42"/>
@@ -14732,7 +14786,7 @@
     <row r="100" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E100" s="42"/>
       <c r="F100" s="45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G100" s="42"/>
       <c r="H100" s="42"/>
@@ -14761,7 +14815,7 @@
     </row>
     <row r="102" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E102" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F102" s="42"/>
       <c r="G102" s="42"/>
@@ -14777,11 +14831,11 @@
     </row>
     <row r="103" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E103" s="42"/>
       <c r="F103" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G103" s="42"/>
       <c r="H103" s="42"/>
@@ -14797,7 +14851,7 @@
     <row r="104" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E104" s="42"/>
       <c r="F104" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G104" s="42"/>
       <c r="H104" s="42"/>
@@ -14826,7 +14880,7 @@
     </row>
     <row r="106" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E106" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F106" s="42"/>
       <c r="G106" s="42"/>
@@ -14842,7 +14896,7 @@
     </row>
     <row r="107" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E107" s="46" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F107" s="42"/>
       <c r="G107" s="42"/>
@@ -14859,7 +14913,7 @@
     <row r="108" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E108" s="42"/>
       <c r="F108" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G108" s="42"/>
       <c r="H108" s="42"/>
@@ -14875,7 +14929,7 @@
     <row r="109" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E109" s="42"/>
       <c r="F109" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G109" s="42"/>
       <c r="H109" s="42"/>
@@ -14918,7 +14972,7 @@
     </row>
     <row r="112" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E112" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F112" s="42"/>
       <c r="G112" s="42"/>
@@ -14934,7 +14988,7 @@
     </row>
     <row r="113" spans="5:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E113" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F113" s="42"/>
       <c r="G113" s="42"/>
@@ -14964,7 +15018,7 @@
     </row>
     <row r="115" spans="5:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E115" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F115" s="42"/>
       <c r="G115" s="42"/>
@@ -14980,7 +15034,7 @@
     </row>
     <row r="116" spans="5:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E116" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F116" s="42"/>
       <c r="G116" s="42"/>
@@ -14996,7 +15050,7 @@
     </row>
     <row r="117" spans="5:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E117" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F117" s="42"/>
       <c r="G117" s="42"/>
@@ -15053,7 +15107,7 @@
       <c r="P120" s="42"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="notContainsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -15087,33 +15141,33 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C4" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>362</v>
-      </c>
       <c r="E4" s="24" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" s="24" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15134,170 +15188,170 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C3" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E11" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F12" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F13" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F14" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F15" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F16" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C18" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E23" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F25" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C28" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G30" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H31" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H32" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.3">
       <c r="H33" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C42" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E48" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F49" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F50" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F51" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C55" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D56" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E57" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D58" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C61" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E81" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E82" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E83" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="3:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="C86" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" spans="3:5" hidden="1" x14ac:dyDescent="0.3"/>
@@ -15317,155 +15371,155 @@
     <row r="101" spans="2:5" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="102" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="D102" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="E103" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="E104" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="105" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="E105" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B108" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C109" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D110" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C112" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E113" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="G113" s="27" t="s">
         <v>276</v>
-      </c>
-      <c r="G113" s="27" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E114" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G114" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E115" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G115" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E116" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G116" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E117" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E118" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E119" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E120" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E121" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E122" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G122" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E123" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G123" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D125" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C128" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B130" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C131" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C133" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="A1:A15 A17:A1048576">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -15496,102 +15550,102 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="53" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D4" s="54" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D5" s="54" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D6" s="54" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D7" s="54" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D8" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="53" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C11" s="53" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C12" s="53" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C13" s="53" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="53" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G13" r:id="rId1" display="http://192.168.199.122:8880/browse/MG-1496"/>
     <hyperlink ref="G11" r:id="rId2" display="http://192.168.199.122:8880/browse/MG-1497"/>
@@ -15616,61 +15670,61 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C3" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C5" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C7" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="37" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C12" s="37" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="37" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C16" s="37" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="37" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="37" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15696,47 +15750,47 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="58" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" s="58" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="58" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="58" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" s="58" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D9" s="58" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D10" s="58" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D11" s="58" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="58" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -15744,86 +15798,86 @@
         <v>42310</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="59" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C18" s="59" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C19" s="59" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C20" s="59" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C21" s="59" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E21" s="59" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C22" s="59" t="s">
+        <v>464</v>
+      </c>
+      <c r="E22" s="59" t="s">
         <v>466</v>
-      </c>
-      <c r="E22" s="59" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C23" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="E23" s="59" t="s">
         <v>467</v>
-      </c>
-      <c r="E23" s="59" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C25" s="59" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C26" s="59" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E26" s="59" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C27" s="59" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C28" s="59" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
@@ -15831,43 +15885,43 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="59" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C31" s="59" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C32" s="59" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" s="59" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E33" s="59" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C34" s="59" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E34" s="59" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gd/主界面/主界面逻辑设计.xlsx
+++ b/gd/主界面/主界面逻辑设计.xlsx
@@ -27,6 +27,7 @@
     <definedName name="等级提升">提示类逻辑!$F$28:$O$49</definedName>
     <definedName name="多语言ID_main_levelup_title">提示类逻辑!$F$24:$H$24</definedName>
     <definedName name="功能开启预告">提示类逻辑!$E$46:$P$52</definedName>
+    <definedName name="进度条">UI相关逻辑!$K$72:$N$72</definedName>
     <definedName name="升级提示">提示类逻辑!$F$28:$O$49</definedName>
     <definedName name="图标点击后会做有缩放效果">UI相关逻辑!$G$230:$I$230</definedName>
     <definedName name="图标构成">UI相关逻辑!$E$202:$I$209</definedName>
@@ -40,174 +41,174 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="508">
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>主界面逻辑设计</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>明确主界面相关规则逻辑</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>svn://10.21.2.47/gd/主界面/主界面逻辑设计.xlsx</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>主界面UI示意</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>角色信息显示区</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>货币信息显示区</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>活动信息按钮显示区</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>基础功能按钮显示区</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>聊天信息显示区</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>走马灯显示区</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>系统提示、系统公告显示区</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>角色头像</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>显示角色的头像</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -223,63 +224,63 @@
       </rPr>
       <t>6*96</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>默认的头像样式为固定的logo（给予一个于游戏风格一致的图标）（后续会随社交玩法推出头像变更功能）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>点击头像可以弹出系统设置界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>角色等级</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>最大可显示3位数字</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>角色名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>显示玩家角色名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>字色与字号见美术规范文档</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>角色经验条</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>初始等级为1级</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>背景</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>百分比</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>玩家当前为满级状态时，显示为MAXLEVEL字样</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>当玩家为满级状态时，进度条为0且不会随之变化</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>角色疲劳值</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -295,27 +296,27 @@
       </rPr>
       <t xml:space="preserve"> 当前疲劳值/当前等级疲劳值上限</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>字色与字号见美术规范文档</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>当前等级疲劳值上限相关规则见疲劳值文档</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>当前疲劳值相关规则见疲劳值文档</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>金币显示区</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>左侧显示金币，显示格式为 金币图标：金币数值</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -331,259 +332,259 @@
       </rPr>
       <t>00像素</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>钻石显示区</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>数字靠右对齐</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>右侧显示钻石，显示格式为 钻石图标：钻石数值</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>钻石数值显示大小为200像素</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>钻石数值右侧为购买钻石按钮</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮可以打开商城购买钻石的界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>金币数值右侧为购买金币按钮</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮可以打开钻石购买金币的界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>显示在界面左侧，角色信息下方</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>目前版本包括 签到、 活动指引、 充值（商城） 三个功能图标</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>显示在界面上方，包括金币、钻石</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>签到</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>包括签到的图标以及对应名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开签到界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>活动指引</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>包括活动指引的图标以及对应名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开活动指引界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>充值（商城）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>包括充值（商城）的图标以及对应名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开充值（商城）界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>显示在界面右下角，走马灯上方</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>包括任务的图标以及对应名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开任务界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>包括宠物的图标以及对应名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开宠物界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>包括背包的图标以及对应名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开背包界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>显示基础聊天显示框</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>具体显示格式与样式见IM系统设计文档</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>当有走马灯信息时，在此处显示走马灯信息</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>当有系统提示、系统公告信息时，在此处显示系统提示、系统公告信息信息</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>包括经验条背景、横向进度条、百分比</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>横向进度条</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>经验条背景为160*20大小的条状</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>为满足主界面图标显示多样性，制定如下主界面中图标的通用规则</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>适用于主界面中各类图标</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>目前版本包括 任务、宠物、背包 三个功能图标以及缩进/展开按钮</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>缩进/展开按钮</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>默认为展开状态，展开时点击缩进按钮可以将功能图标隐藏，隐藏有动画效果（各图标依次向缩进按钮移动，移动至缩进按钮后消失）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>缩进时点击展开按钮可以将功能图标展开，展开有动画效果（各图标依次从展开按钮移动到对应位置）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>缩进图标示例</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>需求不要是单面的，后续可能扩展在缩进按钮上方增加功能图标</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>展开图标示例</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>图标构成</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>图标本体</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>图标图片的表现形式</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>图标名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>该图标代表的功能的正式名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>状态标示</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>显示在图标本体右上角</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>当该图标代表的功能有可用或者可点的操作时（具体效果各个功能标注），右上角出现该提示，提示始终存在，直至无可用或者可点操作消失</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>显示在图标本体下方</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>角色升级提示</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>新功能开启提示</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>升级提示界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>界面标题</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>显示为 Level up！或者其他带有升级类意义的词语，具体见美术设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>升级信息</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>玩家等级</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>当前疲劳值</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -599,11 +600,11 @@
       </rPr>
       <t xml:space="preserve"> 目标疲劳值</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>疲劳值上限</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -619,563 +620,563 @@
       </rPr>
       <t xml:space="preserve"> 目标疲劳值上限</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>升级信息中的内容，只显示有数值变化的项，不变化的不显示，已显示的项垂直居中分布</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>确定按钮</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>点击确定按钮，则关闭当前界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>该窗口为模态不可移动</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>窗口出现后背景有半透明遮罩效果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>该窗口不同于一般提示性窗口，需要比较炫丽，请美术同学单独设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>新功能开启提示界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>显示为Congratulation！或者其他带有恭喜，祝贺类意义的词语，具体见美术设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>提示内容</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>显示为提示信息文本</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>字色与字体见美术规范文档</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>字色与字体见美术规范文档，可保证显示下5行文本即可，每行长度大概300像素</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>提示说明</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>显示解锁的系统或者功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>字色与字体见美术规范文档，需要与提示内容文本颜色区分开</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>该窗口不同于一般提示性窗口，需要有独特样式，请美术同学单独设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>点击界面后界面关闭，同时自动转动镜头至新开系统的图标或者处于屏幕水平中心位置</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>同时该图标或者按钮处于提示点击的样式并进入新功能引导逻辑</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>此期间内玩家无法自动旋转镜头以及进行其他功能操作</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>当玩家提升到一定等级后，会开启对应新功能，此时会弹出新功能提示界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>如玩家在非主界面中升级后退出游戏，则下次进入主界面后再次弹出提示</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>新功能提示只会进行一次，且由服务器端记录是否已经进行完毕（引导结束视为进行完毕）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1.角色信息区UI</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>包括</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1.头像边框、头像logo设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>2.玩家等级样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>3.玩家名称样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>4.进度条样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>5.疲劳值样式设计、补充疲劳值按钮设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>2.货币信息区UI</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>包括</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1.金币显示区样式设计、补充金币按钮设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>2.钻石显示区样式设计、补充钻石按钮设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>3.活动信息区图标</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1.签到图标以及文字样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>2.活动指引图标以及文字样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>3.充值（商城）图标以及活动样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>4.基础功能图标按钮UI</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1.任务图标以及文字样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>2.宠物图标以及文字样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>3.背包图标以及文字样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>5.图标通用</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>3.图标状态标识样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1.图标提示文本样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>包括 hot、new字样的动态效果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>主界面图标通用规则</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>图标效果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>显示效果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>点击效果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>限时图标</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>图标支持定时显示与倒计时消失功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>当配置开启时间后，则在开启时间出现图标，开始时间之前不显示图标</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>当配置倒计时消失时间后，则在图标出现后开始计时，倒计时到达时图标消失</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>图标响应规则</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>点击图标后，识别抬起时手指是否还在图标响应范围内</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>如超出范围，则不响应点击</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>如未超出范围，抬起手指时响应点击效果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>按下手指时不在图标上，则抬起时无论是否在图标上都不响应点击</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>6.角色升级UI</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1.升级界面整体样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>2.升级界面字体样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>3.确定按钮样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>7.新功能提示UI</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>包括</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1.新功能提示整体样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>2.新功能提示字体样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>3.新功能入口特效样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>物件显示规则</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>场景结构</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>结构组成</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>主场景为3D形式</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>内容为一个日常起居室（详细需求见【美术需求】分页）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>参考图如下样式</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>场景介绍</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>整体为一个四面墙的起居室，可见范围为左前右三面墙以及部分地板以及天花板</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>屋内有各类生活物件组成（如衣柜、床、书桌、书柜等等）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>物件均为3D形式展现</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>镜头相关</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>镜头移动</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>场景中镜头可以按照固定轨迹左右滑动</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>需求移动轨迹可以配置调整</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>镜头高度</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>镜头高度为1.4米，大概为角色坐在床上或者椅子上时眼睛高度一致</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>镜头视距</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>滑动速度以及距离根据玩家滑动的力度以及速度决定</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>镜头视距为1.5米左右，固定不变</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>镜头角度</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>镜头视角为平视（大概为水平夹角在15至-20之间）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>视角不可手动变化</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>默认镜头</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>默认镜头为开启客户端后首次进入主场景的镜头，需求可配置</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>开启其他界面后，未关闭客户端的情况下再次返回主场景，应该保留进入其他界面前的镜头位置</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>场景大小</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>由左至右拖动镜头需求可完整展现大概2.5屏幕的内容</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>左右需要各预留半屏左右大小的场景用于镜头回弹（镜头回弹详见镜头相关）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>单屏幕展现内容示意</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>镜头回弹</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>左右拖动镜头至边界时，无法继续拖动，会有一个类似下拉列表的回弹效果（可继续拉伸一段距离，松手后回弹到边界位置）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>黄色实线为镜头两个边界，黄色虚线为镜头中心线</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>绿色边框为镜头正常可见范围，红色与绿色相接位置即为可见场景的边界</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>图1</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>图2</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>图1为正常情况下显示的镜头边界角度</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>当滑动镜头至图1后，继续向右可以滑动至图2位置，松手后镜头回弹至图1位置</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>左侧边界同理</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>如下镜头顶视图示意</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>蓝色实线为镜头滑动轨迹</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>回弹过程持续0.5秒，镜头角度平缓变化</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>物件定义</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>场景中的家具、电器、用品等可被操作的物品成为物件</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>物件交互</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>当某个物件配置了对应的功能或者玩法入口时，且玩家开启该功能或者玩法的条件时，玩家可以与物件进行交互</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>交互形式</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>点击物件后物件可播放点击动作以及特效，然后打开对应入口界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>响应规则</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>如不处于响应范围内，则不响应点击效果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>点击物件后判断抬起手指位置是否处于物件响应范围内</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>如处于响应范围内，则响应点击效果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>交互响应开启规则</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>当玩家不满足某个物件的开启条件时，无法与物件进行交互</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>点击物件不会有点击效果反馈，同时不会打开对应入口</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>此时物件为普通物件</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>当玩家满足某个物件的开启条件时，普通物件变为可交互物件</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>效果反馈</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>普通物件</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>未点击状态的普通物件无特效反馈</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>点击普通物件无特效反馈</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>点击普通物件无动作反馈</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>可交互物件</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>未点击状态的普通物件有特效反馈</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>点击可交互物件有动作反馈（点击后播放对应点击动作动画，播放一次即可）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>点击可交互物件有特效反馈（点击后播放对应动作的特效效果）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>主界面场景功能扩展</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1. 照妖镜可以在场景中使用，并照出隐藏功能玩法</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>2.可以支持场景物件扩展（玩家宠物变换为手办形式存放于场景中）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>3.窗外昼夜变换</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>点击物件会有点击效果反馈</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>若物件无动作反馈，则直接打开入口界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>若物件有动作反馈，则播放动作后打开入口界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1191,19 +1192,19 @@
       </rPr>
       <t>I需求</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>场景需求</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1.主界面场景</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>日常起居室，可以承载目前世界观风格的三面墙场景，需要包含地面与天花板</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1219,7 +1220,7 @@
       </rPr>
       <t>.场景物件</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1235,95 +1236,95 @@
       </rPr>
       <t>PC商店</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>对应功能/玩法</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>可参考物件</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>抽蛋</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>副本选择</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>大冒险</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>新玩法1</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>公会</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>合成</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>分解</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>电脑屏幕</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>衣柜</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>漫画/墙上挂件</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>电话</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>垃圾桶</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>纸抽/存钱罐/魔方</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>需要满足上述玩法对应设计物件</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>某种玩具</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>动作需求</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>暂缓</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1339,7 +1340,7 @@
       </rPr>
       <t>.可交互物件未点击时的自发光特效</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1355,171 +1356,171 @@
       </rPr>
       <t>.物件点击后的特效</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> mt</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>初版文档等待mt审核</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>有些地方是大写的LVL（宠物，结算），需要空格或者点么</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>这里是否需要缩放规则</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>填充方式，逐渐增长的还是突进的，还是待设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>百分比精确位数</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>这个用的是通用控件还是单独控件？</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>多语言在这儿写还是各个功能写</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>多语言，id用已有的</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>邮箱装备宠物里面用的红点，这个是不是统一一下</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>这个不建议有，因为游戏中会频繁获得材料怪（早年说每天都能获得几只），这样只材料怪而已没必要提示</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>当new和数量同时存在的时候，容易被误解为有x个new</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>new和状态标识同时出现的时候很容易被误解</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>灰掉标上要做的版本号</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>感觉这个功能简单的提示解锁了什么就行，没必要提示这么多文字，要是想提示文字，发个邮件也可以吧</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>配置结构缺失，哪些等级开启哪些功能待定么？</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>文字自动缩放？玩家名字是不是可以规定最大字数</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>还要名称么？多语言</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>还要名称么？多语言</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>同上</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>邮箱？</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>扩展了就不能叫左右了，你不说清楚，帆爷绝逼给你做成左右的</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>名称要考虑多语言，可能图标的宽度显示不下</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>宠物进阶、装备强化都与玩家等级有关</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>时</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>只有这个界面感觉不够，最好经过一次返回主界面，点主界面或者对应入口，这样有助于玩家记忆入口位置</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>这个控件有了，不用提了</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>变化方式，是直接跳还是每次加1逐渐变化/单位时间内增长速度</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>详见签到文档吧</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>如果玩家在线过刷新点也弹出签到界面么，还是重登陆，待定</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>这句im文档写了，删掉吧</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>该图的帧动画</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>界面什么时候出现，是在任何位置升级都触发这个界面么？--都弹</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>说一下都什么时候弹</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>进行完毕后，显示下一个</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>关门放吕布</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>把大界面截过来</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1535,51 +1536,47 @@
       </rPr>
       <t>玩家当前等级</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>已改</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>当玩家非满级状态时，玩家在主界面获得经验后，进度条由左至右动态填充</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>通用控件，但是商店系统没写…我还是留着吧</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>各个功能自己写</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>当有已完成的任务时，任务图标右上角显示红点提示</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>各系统自己写</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>容易产生歧义，去掉此功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>已改图</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>删</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>图标是 做图上的</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>已去掉文本提示</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1595,210 +1592,210 @@
       </rPr>
       <t>.9版本有运营活动时添加</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>已改</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>已补充</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>升级界面弹出规则</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>邮箱、任务等界面获得经验的界面中，获得经验后直接弹出升级界面，且出现在邮箱、任务等界面上层</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>已补充</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>功能名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>新功能开启</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>功能提示</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>当玩家一次提升多个等级时，可能会同时开启多个新功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>此时需要按照新功能开启等级由低到高一项一项显示（上一项进行完毕后，再次回到主界面后，显示下一个）</t>
   </si>
   <si>
     <t>开启等级</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>已补充</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>该提示信息只在主界面时才会弹出，如当前在非主界面中升级，则在玩家下次返回主界面时进行提示</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>显示不下可以滚动查看</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>包括功能名称，简介，开启情况</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>功能名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>读取配置表中的功能名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>简介</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>读取配置表中的简介</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>开启情况</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>本级开启的显示 绿色 “已开启”</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>只提示功能性内容</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.5</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_levelup_dengji</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_levelup_pilao</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_levelup_shangxian</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_new_title</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_new_tishi</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>战斗后获得经验后，均与界面同时展现（副本结果移动到屏幕上方后），且出现在副本结算界面上层</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>功能开启预告</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>包括已开启与将要开启两部分</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>已开启</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>未开启</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>预告内容</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>非本级开启的显示 红色 “X级开启”</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>补充功能开启预告的规则</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>删除多余文字</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.6</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>显示目标等级之后将要开启的两个新功能，如同一个等级有多个新功能开启，则按照配置表的顺序依次显示</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.6</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>程序、qc、美术、木木、mt</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>取消升级后新功能提醒，改为新手引导制作</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>显示长度为200像素</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>取消名称缩放需求</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>图标点击后会做有缩放效果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>图标按下直接缩放处理</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>删除图标提示文本需求</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1814,19 +1811,19 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>签到界面的弹出方式详见签到功能文档</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>其他相关</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>疲劳值名称待确定</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1842,55 +1839,55 @@
       </rPr>
       <t>M布局与雪姬确认</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>创建角色界面增加头像选择功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>同一个等级可以开启多个新功能？</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>一次提升多个等级弹出多个升级提示界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>玩家等级提示方式变更</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>包含 玩家等级、当前疲劳值、疲劳值上限</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>图标上层或者下层可以支持帧动画或者粒子特效效果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>变更图标帧动画效果为图标前后可以增加帧动画图片或者粒子特效</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.7</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>配置+验收</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1906,11 +1903,11 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>原画</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1926,7 +1923,7 @@
       </rPr>
       <t>D</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1942,7 +1939,7 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1958,7 +1955,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1974,7 +1971,7 @@
       </rPr>
       <t>0d</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1990,15 +1987,15 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2014,7 +2011,7 @@
       </rPr>
       <t xml:space="preserve">                   </t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2030,7 +2027,7 @@
       </rPr>
       <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                       </t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2046,7 +2043,7 @@
       </rPr>
       <t xml:space="preserve">     </t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2062,7 +2059,7 @@
       </rPr>
       <t xml:space="preserve">    </t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2078,7 +2075,7 @@
       </rPr>
       <t xml:space="preserve">                 </t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2094,7 +2091,7 @@
       </rPr>
       <t xml:space="preserve">                   </t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>升级信息提示封装</t>
@@ -2116,7 +2113,7 @@
       </rPr>
       <t>.5d</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2132,23 +2129,23 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1.镜头调整</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>2.场景编辑，选中效果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>3.添加到流程</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">主界面UI </t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t> MG-1496</t>
@@ -2170,7 +2167,7 @@
       </rPr>
       <t>esc</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2186,51 +2183,51 @@
       </rPr>
       <t>eedlevel</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>主界面UI验收</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1.经验条比例显示不正常，每次获得经验后经验条为满，重新登录后经验条为0，实际经验条可能为50%</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>2.角色等级显示不正常，每次升级后返回主界面后角色等级显示为99级，重新登录后显示正常</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>升级提示界面验收</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1.文本内容没有读表（显示的是翻译代号）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>2.新功能提示没有读表，每次都显示的是任务（客户端改表function后无法进入游戏）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>等级提升无法验证是否正确</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>活力提升无法验证是否正确</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>活力上限提升无法验证是否正确</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>增加主界面UI验收内容</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>二次验收</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2246,95 +2243,95 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>角色信息界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>头像</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>经验条</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>活力</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>等待活力值系统</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>按钮旋转</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>功能入口</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>图标展开/缩放</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>基础功能部分</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>升级提示界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>等级提升</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>活力值提升</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>活力值上限提升</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>新功能预告</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>添加UI部分二次验收结果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>百分比精确至个位数，向上取整</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>补充经验条百分比取整方式</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.8</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2360,11 +2357,11 @@
       </rPr>
       <t>_title</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>调整升级界面title多语言ID与现在的统一</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2390,7 +2387,7 @@
       </rPr>
       <t>_kaiqi</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2416,63 +2413,63 @@
       </rPr>
       <t>_weikaiqi</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>对局修改问题回复</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1. 屏幕左侧的弱点信息是否过于繁琐</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>信息会根据弱点的类型直接显示对应图标，通常情况下玩家看到图标就知道如何应对了</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>针对特别情况，还是需要玩家去看tips来思考如何应对的</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>2.弱点应该和血条挨得近一些</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>之前考虑过放到血条下方，后来放弃主要两个原因</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1.位置不足，血条下方有buff图标等内容，后续可能会有boss技能显示</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>2.并不是所有弱点都是关联boss血量的，所以放到血条的位置也不是特别合适</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>3.查看tips是否会比较麻烦，战斗中是否还有时间去看</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>我们战斗大部分时间都是挂机的，所以时间应该是充足的</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>从测试反馈的报告来看，参与测试的玩家还是希望能有更多的可以查看、操作的点，可能也是国外玩家与国内玩家不同之处</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>4.大招画阵取消的理由</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>可能目前的设计并没有达到之前的增加参与感的设计目的，因为参与感也是要有相应正反馈的，不然玩家是不会去参与的</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>另外增加了大招的使用时间，使节奏拖沓也是一个比较大的原因</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2488,44 +2485,59 @@
       </rPr>
       <t xml:space="preserve"> 目标等级</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>当玩家一次性提升多个等级时，只显示最终目标等级的信息</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>显示本次等级提升所有已开启的功能，如从1升至5级，则提示1-5级所有已开启的功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>升级界面等级显示规则调整</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>玩家当前非满级状态时，显示经验条当前百分比且当玩家在主界面获得经验后，百分比直接变更至目标值，无需动态变化</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>每次变化最小值为1%</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>经验条百分比变化规则变更</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>当玩家非满级状态时，玩家在主界面获得经验后，进度条由目前值直接变更为目标值</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消经验进度条动画效果</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2982,153 +2994,154 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -11720,7 +11733,7 @@
   <dimension ref="A2:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:G33"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -11779,28 +11792,28 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74" t="s">
+      <c r="C12" s="74"/>
+      <c r="D12" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="76"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
@@ -11809,67 +11822,67 @@
       <c r="C14" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="77" t="s">
         <v>301</v>
       </c>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="79"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="81"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="82"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="70"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="70"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="70"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="72"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -11918,35 +11931,35 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C24" s="11">
         <v>42303</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E24" s="31"/>
       <c r="G24" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C25" s="11">
         <v>42303</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E25" s="35"/>
       <c r="G25" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="H25" s="34" t="s">
         <v>391</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -11954,22 +11967,22 @@
       <c r="C26" s="11"/>
       <c r="G26" s="5"/>
       <c r="H26" s="34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C27" s="11">
         <v>42305</v>
       </c>
       <c r="E27" s="52"/>
       <c r="G27" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -11977,7 +11990,7 @@
       <c r="C28" s="11"/>
       <c r="G28" s="5"/>
       <c r="H28" s="34" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -11985,25 +11998,25 @@
       <c r="C29" s="11"/>
       <c r="G29" s="5"/>
       <c r="H29" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C30" s="11">
         <v>42312</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E30" s="35"/>
       <c r="G30" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -12011,7 +12024,7 @@
       <c r="C31" s="11"/>
       <c r="G31" s="5"/>
       <c r="H31" s="34" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -12021,10 +12034,10 @@
       </c>
       <c r="E32" s="67"/>
       <c r="G32" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -12034,16 +12047,24 @@
       </c>
       <c r="E33" s="67"/>
       <c r="G33" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
-      <c r="C34" s="11"/>
-      <c r="H34" s="34"/>
+      <c r="C34" s="11">
+        <v>42322</v>
+      </c>
+      <c r="E34" s="67"/>
+      <c r="G34" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B35" s="2"/>
@@ -12086,42 +12107,42 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C40" s="36">
         <v>42304</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E41" s="49" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E42" s="49" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E43" s="49" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E44" s="49" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E45" s="49" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -12136,7 +12157,7 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H25" location="功能开启预告" display="补充功能开启预告的规则"/>
     <hyperlink ref="H26" location="战斗后获得经验后_均与界面同时展现_副本结果移动到屏幕上方后__且出现在副本结算界面上层" display="删除多余文字"/>
@@ -12151,6 +12172,7 @@
     <hyperlink ref="H31" location="多语言ID_main_levelup_title" display="调整升级界面title多语言ID与现在的统一"/>
     <hyperlink ref="H32" location="升级提示" display="升级界面等级显示规则调整"/>
     <hyperlink ref="H33" location="百分比" display="经验条百分比变化规则变更"/>
+    <hyperlink ref="H34" location="进度条" display="取消经验进度条动画效果"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12172,76 +12194,76 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="64" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="64" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="64" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="64" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" s="64" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" s="64" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="64" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="64" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="64" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="64" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="64" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="64" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12604,7 +12626,7 @@
         <v>240</v>
       </c>
       <c r="J108" s="53" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
@@ -12624,7 +12646,7 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K112" s="53" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="113" spans="3:12" x14ac:dyDescent="0.3">
@@ -12632,7 +12654,7 @@
         <v>244</v>
       </c>
       <c r="J113" s="53" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="114" spans="3:12" x14ac:dyDescent="0.3">
@@ -12650,7 +12672,7 @@
         <v>245</v>
       </c>
       <c r="K116" s="53" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="118" spans="3:12" x14ac:dyDescent="0.3">
@@ -12688,7 +12710,7 @@
         <v>268</v>
       </c>
       <c r="L125" s="53" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="126" spans="3:12" x14ac:dyDescent="0.3">
@@ -12711,7 +12733,7 @@
         <v>255</v>
       </c>
       <c r="N129" s="53" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="130" spans="4:20" x14ac:dyDescent="0.3">
@@ -12748,7 +12770,7 @@
       <c r="T140" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12759,7 +12781,7 @@
   <dimension ref="A2:R244"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="N76" sqref="N76:Q76"/>
+      <selection activeCell="K72" sqref="K72:N72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12857,7 +12879,7 @@
         <v>303</v>
       </c>
       <c r="F64" s="38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G64" s="39"/>
       <c r="H64" s="39"/>
@@ -12925,16 +12947,16 @@
       <c r="B72" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="G72" s="43" t="s">
-        <v>342</v>
+      <c r="G72" s="83" t="s">
+        <v>506</v>
       </c>
       <c r="H72" s="42"/>
       <c r="I72" s="42"/>
       <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="42"/>
-      <c r="M72" s="42"/>
-      <c r="N72" s="42"/>
+      <c r="K72" s="66"/>
+      <c r="L72" s="66"/>
+      <c r="M72" s="66"/>
+      <c r="N72" s="66"/>
       <c r="O72" s="42"/>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.3">
@@ -12970,7 +12992,7 @@
     <row r="75" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F75" s="14"/>
       <c r="G75" s="60" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H75" s="61"/>
       <c r="I75" s="61"/>
@@ -12985,8 +13007,8 @@
       <c r="B76" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="G76" s="82" t="s">
-        <v>504</v>
+      <c r="G76" s="68" t="s">
+        <v>503</v>
       </c>
       <c r="H76" s="42"/>
       <c r="I76" s="42"/>
@@ -13003,8 +13025,8 @@
       <c r="B77" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="G77" s="82" t="s">
-        <v>505</v>
+      <c r="G77" s="68" t="s">
+        <v>504</v>
       </c>
       <c r="H77" s="42"/>
       <c r="I77" s="42"/>
@@ -13096,7 +13118,7 @@
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
@@ -13182,7 +13204,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B113" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F113" s="14" t="s">
         <v>72</v>
@@ -13309,7 +13331,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B152" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -13346,7 +13368,7 @@
         <v>309</v>
       </c>
       <c r="F157" s="43" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G157" s="42"/>
       <c r="H157" s="42"/>
@@ -13361,7 +13383,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B159" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -13399,7 +13421,7 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B165" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -13482,7 +13504,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F181" s="14"/>
     </row>
@@ -13512,7 +13534,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B187" s="27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -13575,7 +13597,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -13634,7 +13656,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B221" s="27" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F221" s="15"/>
       <c r="G221" s="15"/>
@@ -13663,7 +13685,7 @@
     <row r="226" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F226" s="40"/>
       <c r="G226" s="51" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H226" s="39"/>
       <c r="I226" s="39"/>
@@ -13682,7 +13704,7 @@
     </row>
     <row r="228" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B228" s="27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F228" s="15"/>
       <c r="G228" s="17"/>
@@ -13696,7 +13718,7 @@
     <row r="230" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F230" s="15"/>
       <c r="G230" s="38" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H230" s="39"/>
       <c r="I230" s="39"/>
@@ -13719,7 +13741,7 @@
     </row>
     <row r="233" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B233" s="27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F233" s="30"/>
       <c r="G233" s="29" t="s">
@@ -13770,7 +13792,7 @@
       <c r="M236" s="30"/>
       <c r="N236" s="30"/>
       <c r="O236" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P236" s="26"/>
       <c r="Q236" s="26"/>
@@ -13802,7 +13824,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="notContainsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -13857,7 +13879,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F24" s="62" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -13885,15 +13907,15 @@
         <v>326</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F29" s="15"/>
     </row>
@@ -13906,13 +13928,13 @@
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
       <c r="F31" s="32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F32" s="15"/>
       <c r="G32" s="65" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H32" s="66"/>
       <c r="I32" s="66"/>
@@ -13930,7 +13952,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F35" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
@@ -13949,7 +13971,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F39" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
@@ -13959,7 +13981,7 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F42" s="65" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G42" s="66"/>
       <c r="H42" s="66"/>
@@ -13985,7 +14007,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B45" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D45" s="44"/>
       <c r="E45" s="42"/>
@@ -14005,7 +14027,7 @@
       <c r="B46" s="22"/>
       <c r="D46" s="44"/>
       <c r="E46" s="46" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F46" s="45"/>
       <c r="G46" s="42"/>
@@ -14024,7 +14046,7 @@
       <c r="D47" s="44"/>
       <c r="E47" s="43"/>
       <c r="F47" s="47" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G47" s="42"/>
       <c r="H47" s="42"/>
@@ -14043,7 +14065,7 @@
       <c r="E48" s="43"/>
       <c r="F48" s="45"/>
       <c r="G48" s="47" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H48" s="42"/>
       <c r="I48" s="42"/>
@@ -14062,7 +14084,7 @@
       <c r="F49" s="45"/>
       <c r="G49" s="45"/>
       <c r="H49" s="65" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I49" s="66"/>
       <c r="J49" s="66"/>
@@ -14079,7 +14101,7 @@
       <c r="E50" s="43"/>
       <c r="F50" s="45"/>
       <c r="G50" s="47" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H50" s="46"/>
       <c r="I50" s="42"/>
@@ -14098,7 +14120,7 @@
       <c r="F51" s="45"/>
       <c r="G51" s="45"/>
       <c r="H51" s="46" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I51" s="42"/>
       <c r="J51" s="42"/>
@@ -14114,7 +14136,7 @@
       <c r="D52" s="44"/>
       <c r="E52" s="43"/>
       <c r="F52" s="47" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G52" s="46"/>
       <c r="H52" s="42"/>
@@ -14133,7 +14155,7 @@
       <c r="E53" s="42"/>
       <c r="F53" s="45"/>
       <c r="G53" s="43" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H53" s="42"/>
       <c r="I53" s="42"/>
@@ -14151,7 +14173,7 @@
       <c r="E54" s="42"/>
       <c r="F54" s="45"/>
       <c r="G54" s="43" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H54" s="42"/>
       <c r="I54" s="42"/>
@@ -14165,7 +14187,7 @@
       <c r="F55" s="45"/>
       <c r="G55" s="42"/>
       <c r="H55" s="43" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I55" s="42"/>
       <c r="J55" s="42"/>
@@ -14177,7 +14199,7 @@
       <c r="E56" s="42"/>
       <c r="F56" s="45"/>
       <c r="G56" s="43" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H56" s="42"/>
       <c r="I56" s="42"/>
@@ -14191,7 +14213,7 @@
       <c r="F57" s="45"/>
       <c r="G57" s="42"/>
       <c r="H57" s="43" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I57" s="42"/>
       <c r="J57" s="42"/>
@@ -14203,7 +14225,7 @@
       <c r="E58" s="42"/>
       <c r="F58" s="45"/>
       <c r="G58" s="43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H58" s="42"/>
       <c r="I58" s="42"/>
@@ -14217,13 +14239,13 @@
       <c r="F59" s="45"/>
       <c r="G59" s="43"/>
       <c r="H59" s="43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I59" s="42"/>
       <c r="J59" s="42"/>
       <c r="K59" s="42"/>
       <c r="L59" s="63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M59" s="33"/>
       <c r="N59" s="33"/>
@@ -14235,13 +14257,13 @@
       <c r="F60" s="45"/>
       <c r="G60" s="43"/>
       <c r="H60" s="46" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I60" s="42"/>
       <c r="J60" s="42"/>
       <c r="K60" s="42"/>
       <c r="L60" s="63" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M60" s="33"/>
       <c r="N60" s="33"/>
@@ -14263,7 +14285,7 @@
       <c r="E62" s="42"/>
       <c r="F62" s="45"/>
       <c r="G62" s="43" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H62" s="42"/>
       <c r="I62" s="42"/>
@@ -14330,7 +14352,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E72" s="43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F72" s="40"/>
       <c r="G72" s="42"/>
@@ -14347,7 +14369,7 @@
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E73" s="40"/>
       <c r="F73" s="43" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G73" s="42"/>
       <c r="H73" s="42"/>
@@ -14363,7 +14385,7 @@
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E74" s="40"/>
       <c r="F74" s="46" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G74" s="42"/>
       <c r="H74" s="42"/>
@@ -14412,7 +14434,7 @@
     </row>
     <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E77" s="41" t="s">
         <v>149</v>
@@ -14434,7 +14456,7 @@
         <v>337</v>
       </c>
       <c r="E78" s="43" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F78" s="42"/>
       <c r="G78" s="42"/>
@@ -14453,7 +14475,7 @@
         <v>341</v>
       </c>
       <c r="E79" s="43" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F79" s="42"/>
       <c r="G79" s="42"/>
@@ -14472,7 +14494,7 @@
         <v>327</v>
       </c>
       <c r="E80" s="43" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F80" s="42"/>
       <c r="G80" s="42"/>
@@ -14753,7 +14775,7 @@
     <row r="98" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="22"/>
       <c r="E98" s="46" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F98" s="42"/>
       <c r="G98" s="42"/>
@@ -14896,7 +14918,7 @@
     </row>
     <row r="107" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="E107" s="46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F107" s="42"/>
       <c r="G107" s="42"/>
@@ -15107,7 +15129,7 @@
       <c r="P120" s="42"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="notContainsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -15141,33 +15163,33 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C4" s="24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" s="24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D5" s="56" t="s">
+        <v>445</v>
+      </c>
+      <c r="E5" s="56" t="s">
         <v>446</v>
       </c>
-      <c r="E5" s="56" t="s">
-        <v>447</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15519,7 +15541,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="A1:A15 A17:A1048576">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -15550,102 +15572,102 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="53" t="s">
+        <v>427</v>
+      </c>
+      <c r="C3" s="53" t="s">
         <v>428</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D4" s="54" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D5" s="54" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D6" s="54" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D7" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D8" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>436</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="53" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C11" s="53" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C12" s="53" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C13" s="53" t="s">
+        <v>423</v>
+      </c>
+      <c r="E13" s="53" t="s">
         <v>424</v>
       </c>
-      <c r="E13" s="53" t="s">
-        <v>425</v>
-      </c>
       <c r="G13" s="55" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="53" t="s">
+        <v>419</v>
+      </c>
+      <c r="E17" s="53" t="s">
         <v>420</v>
       </c>
-      <c r="E17" s="53" t="s">
-        <v>421</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G13" r:id="rId1" display="http://192.168.199.122:8880/browse/MG-1496"/>
     <hyperlink ref="G11" r:id="rId2" display="http://192.168.199.122:8880/browse/MG-1497"/>
@@ -15690,41 +15712,41 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="37" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C12" s="37" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="37" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C16" s="37" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="37" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15750,47 +15772,47 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" s="58" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="58" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="58" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" s="58" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D9" s="58" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D10" s="58" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D11" s="58" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="58" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -15798,86 +15820,86 @@
         <v>42310</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="59" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C18" s="59" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C19" s="59" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C20" s="59" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C21" s="59" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E21" s="59" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C22" s="59" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C23" s="59" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E23" s="59" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C25" s="59" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C26" s="59" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E26" s="59" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C27" s="59" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C28" s="59" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
@@ -15885,43 +15907,43 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="59" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C31" s="59" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C32" s="59" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" s="59" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E33" s="59" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C34" s="59" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E34" s="59" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gd/主界面/主界面逻辑设计.xlsx
+++ b/gd/主界面/主界面逻辑设计.xlsx
@@ -36,179 +36,179 @@
     <definedName name="显示长度为200像素">UI相关逻辑!$F$64:$H$64</definedName>
     <definedName name="战斗后获得经验后_均与界面同时展现_副本结果移动到屏幕上方后__且出现在副本结算界面上层">提示类逻辑!$F$117:$I$117</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="504">
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>主界面逻辑设计</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>明确主界面相关规则逻辑</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>svn://10.21.2.47/gd/主界面/主界面逻辑设计.xlsx</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>主界面UI示意</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>角色信息显示区</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>货币信息显示区</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>活动信息按钮显示区</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>基础功能按钮显示区</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>聊天信息显示区</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>走马灯显示区</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>系统提示、系统公告显示区</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>角色头像</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>显示角色的头像</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -224,63 +224,63 @@
       </rPr>
       <t>6*96</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>默认的头像样式为固定的logo（给予一个于游戏风格一致的图标）（后续会随社交玩法推出头像变更功能）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>点击头像可以弹出系统设置界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>角色等级</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>最大可显示3位数字</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>角色名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>显示玩家角色名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>字色与字号见美术规范文档</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>角色经验条</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>初始等级为1级</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>背景</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>百分比</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>玩家当前为满级状态时，显示为MAXLEVEL字样</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>当玩家为满级状态时，进度条为0且不会随之变化</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>角色疲劳值</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -296,27 +296,27 @@
       </rPr>
       <t xml:space="preserve"> 当前疲劳值/当前等级疲劳值上限</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>字色与字号见美术规范文档</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>当前等级疲劳值上限相关规则见疲劳值文档</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>当前疲劳值相关规则见疲劳值文档</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>金币显示区</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>左侧显示金币，显示格式为 金币图标：金币数值</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -332,803 +332,803 @@
       </rPr>
       <t>00像素</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>钻石显示区</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>数字靠右对齐</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>右侧显示钻石，显示格式为 钻石图标：钻石数值</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>钻石数值显示大小为200像素</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>钻石数值右侧为购买钻石按钮</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮可以打开商城购买钻石的界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>金币数值右侧为购买金币按钮</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮可以打开钻石购买金币的界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>显示在界面左侧，角色信息下方</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>目前版本包括 签到、 活动指引、 充值（商城） 三个功能图标</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>显示在界面上方，包括金币、钻石</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>签到</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>包括签到的图标以及对应名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开签到界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>活动指引</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>包括活动指引的图标以及对应名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开活动指引界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>充值（商城）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>包括充值（商城）的图标以及对应名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开充值（商城）界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>显示在界面右下角，走马灯上方</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>包括任务的图标以及对应名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开任务界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>包括宠物的图标以及对应名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开宠物界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>包括背包的图标以及对应名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>点击可以打开背包界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>显示基础聊天显示框</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>具体显示格式与样式见IM系统设计文档</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>当有走马灯信息时，在此处显示走马灯信息</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>当有系统提示、系统公告信息时，在此处显示系统提示、系统公告信息信息</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>包括经验条背景、横向进度条、百分比</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>横向进度条</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>经验条背景为160*20大小的条状</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>为满足主界面图标显示多样性，制定如下主界面中图标的通用规则</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>适用于主界面中各类图标</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>目前版本包括 任务、宠物、背包 三个功能图标以及缩进/展开按钮</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>缩进/展开按钮</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>默认为展开状态，展开时点击缩进按钮可以将功能图标隐藏，隐藏有动画效果（各图标依次向缩进按钮移动，移动至缩进按钮后消失）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>缩进时点击展开按钮可以将功能图标展开，展开有动画效果（各图标依次从展开按钮移动到对应位置）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>缩进图标示例</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>需求不要是单面的，后续可能扩展在缩进按钮上方增加功能图标</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>展开图标示例</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>图标构成</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>图标本体</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>图标图片的表现形式</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>图标名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>该图标代表的功能的正式名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>状态标示</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>显示在图标本体右上角</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>当该图标代表的功能有可用或者可点的操作时（具体效果各个功能标注），右上角出现该提示，提示始终存在，直至无可用或者可点操作消失</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>显示在图标本体下方</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>角色升级提示</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>新功能开启提示</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>升级提示界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>界面标题</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>显示为 Level up！或者其他带有升级类意义的词语，具体见美术设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>升级信息</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>确定按钮</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>点击确定按钮，则关闭当前界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>该窗口为模态不可移动</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>窗口出现后背景有半透明遮罩效果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>该窗口不同于一般提示性窗口，需要比较炫丽，请美术同学单独设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>新功能开启提示界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>显示为Congratulation！或者其他带有恭喜，祝贺类意义的词语，具体见美术设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>提示内容</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>显示为提示信息文本</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>字色与字体见美术规范文档</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>字色与字体见美术规范文档，可保证显示下5行文本即可，每行长度大概300像素</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>提示说明</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>显示解锁的系统或者功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>字色与字体见美术规范文档，需要与提示内容文本颜色区分开</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>该窗口不同于一般提示性窗口，需要有独特样式，请美术同学单独设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>点击界面后界面关闭，同时自动转动镜头至新开系统的图标或者处于屏幕水平中心位置</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>同时该图标或者按钮处于提示点击的样式并进入新功能引导逻辑</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>此期间内玩家无法自动旋转镜头以及进行其他功能操作</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>当玩家提升到一定等级后，会开启对应新功能，此时会弹出新功能提示界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>如玩家在非主界面中升级后退出游戏，则下次进入主界面后再次弹出提示</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>新功能提示只会进行一次，且由服务器端记录是否已经进行完毕（引导结束视为进行完毕）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>1.角色信息区UI</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>包括</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>1.头像边框、头像logo设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>2.玩家等级样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>3.玩家名称样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>4.进度条样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>5.疲劳值样式设计、补充疲劳值按钮设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>2.货币信息区UI</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>包括</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>1.金币显示区样式设计、补充金币按钮设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>2.钻石显示区样式设计、补充钻石按钮设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>3.活动信息区图标</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>1.签到图标以及文字样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>2.活动指引图标以及文字样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>3.充值（商城）图标以及活动样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>4.基础功能图标按钮UI</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>1.任务图标以及文字样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>2.宠物图标以及文字样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>3.背包图标以及文字样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>5.图标通用</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>3.图标状态标识样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>1.图标提示文本样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>包括 hot、new字样的动态效果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>主界面图标通用规则</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>图标效果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>显示效果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>点击效果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>限时图标</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>图标支持定时显示与倒计时消失功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>当配置开启时间后，则在开启时间出现图标，开始时间之前不显示图标</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>当配置倒计时消失时间后，则在图标出现后开始计时，倒计时到达时图标消失</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>图标响应规则</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>点击图标后，识别抬起时手指是否还在图标响应范围内</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>如超出范围，则不响应点击</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>如未超出范围，抬起手指时响应点击效果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>按下手指时不在图标上，则抬起时无论是否在图标上都不响应点击</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>6.角色升级UI</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>1.升级界面整体样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>2.升级界面字体样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>3.确定按钮样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>7.新功能提示UI</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>包括</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>1.新功能提示整体样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>2.新功能提示字体样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>3.新功能入口特效样式设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>物件显示规则</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>场景结构</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>结构组成</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>主场景为3D形式</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>内容为一个日常起居室（详细需求见【美术需求】分页）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>参考图如下样式</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>场景介绍</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>整体为一个四面墙的起居室，可见范围为左前右三面墙以及部分地板以及天花板</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>屋内有各类生活物件组成（如衣柜、床、书桌、书柜等等）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>物件均为3D形式展现</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>镜头相关</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>镜头移动</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>场景中镜头可以按照固定轨迹左右滑动</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>需求移动轨迹可以配置调整</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>镜头高度</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>镜头高度为1.4米，大概为角色坐在床上或者椅子上时眼睛高度一致</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>镜头视距</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>滑动速度以及距离根据玩家滑动的力度以及速度决定</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>镜头视距为1.5米左右，固定不变</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>镜头角度</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>镜头视角为平视（大概为水平夹角在15至-20之间）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>视角不可手动变化</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>默认镜头</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>默认镜头为开启客户端后首次进入主场景的镜头，需求可配置</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>开启其他界面后，未关闭客户端的情况下再次返回主场景，应该保留进入其他界面前的镜头位置</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>场景大小</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>由左至右拖动镜头需求可完整展现大概2.5屏幕的内容</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>左右需要各预留半屏左右大小的场景用于镜头回弹（镜头回弹详见镜头相关）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>单屏幕展现内容示意</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>镜头回弹</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>左右拖动镜头至边界时，无法继续拖动，会有一个类似下拉列表的回弹效果（可继续拉伸一段距离，松手后回弹到边界位置）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>黄色实线为镜头两个边界，黄色虚线为镜头中心线</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>绿色边框为镜头正常可见范围，红色与绿色相接位置即为可见场景的边界</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>图1</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>图2</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>图1为正常情况下显示的镜头边界角度</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>当滑动镜头至图1后，继续向右可以滑动至图2位置，松手后镜头回弹至图1位置</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>左侧边界同理</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>如下镜头顶视图示意</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>蓝色实线为镜头滑动轨迹</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>回弹过程持续0.5秒，镜头角度平缓变化</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>物件定义</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>场景中的家具、电器、用品等可被操作的物品成为物件</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>物件交互</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>当某个物件配置了对应的功能或者玩法入口时，且玩家开启该功能或者玩法的条件时，玩家可以与物件进行交互</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>交互形式</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>点击物件后物件可播放点击动作以及特效，然后打开对应入口界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>响应规则</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>如不处于响应范围内，则不响应点击效果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>点击物件后判断抬起手指位置是否处于物件响应范围内</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>如处于响应范围内，则响应点击效果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>交互响应开启规则</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>当玩家不满足某个物件的开启条件时，无法与物件进行交互</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>点击物件不会有点击效果反馈，同时不会打开对应入口</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>此时物件为普通物件</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>当玩家满足某个物件的开启条件时，普通物件变为可交互物件</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>效果反馈</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>普通物件</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>未点击状态的普通物件无特效反馈</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>点击普通物件无特效反馈</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>点击普通物件无动作反馈</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>可交互物件</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>未点击状态的普通物件有特效反馈</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>点击可交互物件有动作反馈（点击后播放对应点击动作动画，播放一次即可）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>点击可交互物件有特效反馈（点击后播放对应动作的特效效果）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>主界面场景功能扩展</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>1. 照妖镜可以在场景中使用，并照出隐藏功能玩法</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>2.可以支持场景物件扩展（玩家宠物变换为手办形式存放于场景中）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>3.窗外昼夜变换</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>点击物件会有点击效果反馈</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>若物件无动作反馈，则直接打开入口界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>若物件有动作反馈，则播放动作后打开入口界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1144,19 +1144,19 @@
       </rPr>
       <t>I需求</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>场景需求</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>1.主界面场景</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>日常起居室，可以承载目前世界观风格的三面墙场景，需要包含地面与天花板</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1172,7 +1172,7 @@
       </rPr>
       <t>.场景物件</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1188,95 +1188,95 @@
       </rPr>
       <t>PC商店</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>对应功能/玩法</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>可参考物件</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>抽蛋</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>副本选择</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>大冒险</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>新玩法1</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>公会</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>合成</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>分解</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>电脑屏幕</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>衣柜</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>漫画/墙上挂件</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>电话</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>垃圾桶</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>纸抽/存钱罐/魔方</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>需要满足上述玩法对应设计物件</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>某种玩具</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>动作需求</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>暂缓</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1292,7 +1292,7 @@
       </rPr>
       <t>.可交互物件未点击时的自发光特效</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1308,167 +1308,167 @@
       </rPr>
       <t>.物件点击后的特效</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> mt</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>初版文档等待mt审核</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>有些地方是大写的LVL（宠物，结算），需要空格或者点么</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>这里是否需要缩放规则</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>填充方式，逐渐增长的还是突进的，还是待设计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>百分比精确位数</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>这个用的是通用控件还是单独控件？</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>多语言在这儿写还是各个功能写</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>多语言，id用已有的</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>邮箱装备宠物里面用的红点，这个是不是统一一下</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>这个不建议有，因为游戏中会频繁获得材料怪（早年说每天都能获得几只），这样只材料怪而已没必要提示</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>当new和数量同时存在的时候，容易被误解为有x个new</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>new和状态标识同时出现的时候很容易被误解</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>灰掉标上要做的版本号</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>感觉这个功能简单的提示解锁了什么就行，没必要提示这么多文字，要是想提示文字，发个邮件也可以吧</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>配置结构缺失，哪些等级开启哪些功能待定么？</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>文字自动缩放？玩家名字是不是可以规定最大字数</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>还要名称么？多语言</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>还要名称么？多语言</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>同上</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>邮箱？</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>扩展了就不能叫左右了，你不说清楚，帆爷绝逼给你做成左右的</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>名称要考虑多语言，可能图标的宽度显示不下</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>宠物进阶、装备强化都与玩家等级有关</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>时</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>只有这个界面感觉不够，最好经过一次返回主界面，点主界面或者对应入口，这样有助于玩家记忆入口位置</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>这个控件有了，不用提了</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>变化方式，是直接跳还是每次加1逐渐变化/单位时间内增长速度</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>详见签到文档吧</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>如果玩家在线过刷新点也弹出签到界面么，还是重登陆，待定</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>这句im文档写了，删掉吧</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>该图的帧动画</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>说一下都什么时候弹</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>进行完毕后，显示下一个</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>关门放吕布</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>把大界面截过来</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1484,47 +1484,47 @@
       </rPr>
       <t>玩家当前等级</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>已改</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>通用控件，但是商店系统没写…我还是留着吧</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>各个功能自己写</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>当有已完成的任务时，任务图标右上角显示红点提示</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>各系统自己写</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>容易产生歧义，去掉此功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>已改图</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>删</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>图标是 做图上的</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>已去掉文本提示</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1540,158 +1540,158 @@
       </rPr>
       <t>.9版本有运营活动时添加</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>已改</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>已补充</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>升级界面弹出规则</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>邮箱、任务等界面获得经验的界面中，获得经验后直接弹出升级界面，且出现在邮箱、任务等界面上层</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>已补充</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>功能名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>新功能开启</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>功能提示</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>当玩家一次提升多个等级时，可能会同时开启多个新功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>此时需要按照新功能开启等级由低到高一项一项显示（上一项进行完毕后，再次回到主界面后，显示下一个）</t>
   </si>
   <si>
     <t>开启等级</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>已补充</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>该提示信息只在主界面时才会弹出，如当前在非主界面中升级，则在玩家下次返回主界面时进行提示</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>功能名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>读取配置表中的功能名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>只提示功能性内容</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.5</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_levelup_dengji</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_new_title</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>多语言：main_new_tishi</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>战斗后获得经验后，均与界面同时展现（副本结果移动到屏幕上方后），且出现在副本结算界面上层</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>功能开启预告</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>预告内容</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>补充功能开启预告的规则</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>删除多余文字</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.6</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.6</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>程序、qc、美术、木木、mt</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>取消升级后新功能提醒，改为新手引导制作</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>显示长度为200像素</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>取消名称缩放需求</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>图标点击后会做有缩放效果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>图标按下直接缩放处理</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>删除图标提示文本需求</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1707,19 +1707,19 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>签到界面的弹出方式详见签到功能文档</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>其他相关</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>疲劳值名称待确定</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1735,51 +1735,51 @@
       </rPr>
       <t>M布局与雪姬确认</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>创建角色界面增加头像选择功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>同一个等级可以开启多个新功能？</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>一次提升多个等级弹出多个升级提示界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>玩家等级提示方式变更</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>图标上层或者下层可以支持帧动画或者粒子特效效果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>变更图标帧动画效果为图标前后可以增加帧动画图片或者粒子特效</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.7</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>3fat</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>配置+验收</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1795,11 +1795,11 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>原画</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1815,7 +1815,7 @@
       </rPr>
       <t>D</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1831,7 +1831,7 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1847,7 +1847,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1863,7 +1863,7 @@
       </rPr>
       <t>0d</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1879,15 +1879,15 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1903,7 +1903,7 @@
       </rPr>
       <t xml:space="preserve">                   </t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1919,7 +1919,7 @@
       </rPr>
       <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                       </t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1935,7 +1935,7 @@
       </rPr>
       <t xml:space="preserve">     </t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1951,7 +1951,7 @@
       </rPr>
       <t xml:space="preserve">    </t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1967,7 +1967,7 @@
       </rPr>
       <t xml:space="preserve">                 </t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1983,7 +1983,7 @@
       </rPr>
       <t xml:space="preserve">                   </t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>升级信息提示封装</t>
@@ -2005,7 +2005,7 @@
       </rPr>
       <t>.5d</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2021,23 +2021,23 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>1.镜头调整</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>2.场景编辑，选中效果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>3.添加到流程</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">主界面UI </t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t> MG-1496</t>
@@ -2059,7 +2059,7 @@
       </rPr>
       <t>esc</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2075,51 +2075,51 @@
       </rPr>
       <t>eedlevel</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>主界面UI验收</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>1.经验条比例显示不正常，每次获得经验后经验条为满，重新登录后经验条为0，实际经验条可能为50%</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>2.角色等级显示不正常，每次升级后返回主界面后角色等级显示为99级，重新登录后显示正常</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>升级提示界面验收</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>1.文本内容没有读表（显示的是翻译代号）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>2.新功能提示没有读表，每次都显示的是任务（客户端改表function后无法进入游戏）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>等级提升无法验证是否正确</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>活力提升无法验证是否正确</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>活力上限提升无法验证是否正确</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>增加主界面UI验收内容</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>二次验收</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2135,244 +2135,310 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>角色信息界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>头像</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>经验条</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>活力</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>等待活力值系统</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>按钮旋转</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>功能入口</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>图标展开/缩放</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>基础功能部分</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>升级提示界面</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>等级提升</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>活力值提升</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>活力值上限提升</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>新功能预告</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>添加UI部分二次验收结果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>百分比精确至个位数，向上取整</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>补充经验条百分比取整方式</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.8</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>qc</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>调整升级界面title多语言ID与现在的统一</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>对局修改问题回复</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>1. 屏幕左侧的弱点信息是否过于繁琐</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>信息会根据弱点的类型直接显示对应图标，通常情况下玩家看到图标就知道如何应对了</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>针对特别情况，还是需要玩家去看tips来思考如何应对的</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>2.弱点应该和血条挨得近一些</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>之前考虑过放到血条下方，后来放弃主要两个原因</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>1.位置不足，血条下方有buff图标等内容，后续可能会有boss技能显示</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>2.并不是所有弱点都是关联boss血量的，所以放到血条的位置也不是特别合适</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>3.查看tips是否会比较麻烦，战斗中是否还有时间去看</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>我们战斗大部分时间都是挂机的，所以时间应该是充足的</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>从测试反馈的报告来看，参与测试的玩家还是希望能有更多的可以查看、操作的点，可能也是国外玩家与国内玩家不同之处</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>4.大招画阵取消的理由</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>可能目前的设计并没有达到之前的增加参与感的设计目的，因为参与感也是要有相应正反馈的，不然玩家是不会去参与的</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>另外增加了大招的使用时间，使节奏拖沓也是一个比较大的原因</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>当玩家一次性提升多个等级时，只显示最终目标等级的信息</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>显示本次等级提升所有已开启的功能，如从1升至5级，则提示1-5级所有已开启的功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>升级界面等级显示规则调整</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>玩家当前非满级状态时，显示经验条当前百分比且当玩家在主界面获得经验后，百分比直接变更至目标值，无需动态变化</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>每次变化最小值为1%</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>经验条百分比变化规则变更</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>当玩家非满级状态时，玩家在主界面获得经验后，进度条由目前值直接变更为目标值</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>取消经验进度条动画效果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>显示为：恭喜你等级提升至X级！</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>包括功能名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>包括功能开启标题、预告内容</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>开启标题</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>显示为：解锁功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>多语言main_levelup_open</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>预告内容最多显示3行半，显示不下可以滚动查看</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>如升级后没有新开启功能，则不显示功能开启预告部分内容，同时升级信息向下居中显示（如下图）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>界面UI动画样式</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面出现方式为由小到大动画形式展现</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>升级界面相关需求回归</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画形式完善</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画示意如下图</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.5d</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面&amp;动画</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效，动画</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充任务拆分，回归升级示意图，回归UI动画示意图</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.8</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>明确升级界面的修改需求</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>3fat</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2591,7 +2657,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2625,6 +2691,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2823,160 +2895,165 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7987,19 +8064,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>66676</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>24637</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>5906</xdr:colOff>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="图片 48"/>
+        <xdr:cNvPr id="7" name="图片 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8012,8 +8089,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6324600" y="653287"/>
-          <a:ext cx="5435156" cy="3623437"/>
+          <a:off x="6334126" y="666750"/>
+          <a:ext cx="5429250" cy="3619500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8025,15 +8102,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>155387</xdr:colOff>
+      <xdr:colOff>4763</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>124901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>157163</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>155387</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8044,9 +8121,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="9166037" y="544001"/>
-          <a:ext cx="1776" cy="598999"/>
+        <a:xfrm flipV="1">
+          <a:off x="9015413" y="544001"/>
+          <a:ext cx="150624" cy="827599"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8078,15 +8155,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8095,7 +8172,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8020050" y="1143000"/>
+          <a:off x="7867650" y="1371600"/>
           <a:ext cx="2295525" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8215,7 +8292,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>204787</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8228,7 +8305,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="10487024" y="1815051"/>
-          <a:ext cx="2276476" cy="309024"/>
+          <a:ext cx="2276476" cy="485236"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8261,14 +8338,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8277,8 +8354,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7572375" y="1924050"/>
-          <a:ext cx="2914649" cy="400050"/>
+          <a:off x="7572375" y="2190749"/>
+          <a:ext cx="2914649" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8389,9 +8466,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -8409,8 +8486,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9572625" y="3590925"/>
-          <a:ext cx="2800350" cy="33876"/>
+          <a:off x="9496425" y="3433762"/>
+          <a:ext cx="2876550" cy="191039"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8442,15 +8519,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8459,8 +8536,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8648700" y="3390900"/>
-          <a:ext cx="923925" cy="400050"/>
+          <a:off x="8572500" y="3276599"/>
+          <a:ext cx="923925" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9079,7 +9156,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>33876</xdr:rowOff>
     </xdr:from>
@@ -9087,7 +9164,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9099,8 +9176,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10163175" y="2758026"/>
-          <a:ext cx="2305051" cy="70899"/>
+          <a:off x="10106025" y="2758026"/>
+          <a:ext cx="2362201" cy="99474"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9132,15 +9209,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9149,8 +9226,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8058150" y="2352675"/>
-          <a:ext cx="2105025" cy="952500"/>
+          <a:off x="8001000" y="2466975"/>
+          <a:ext cx="2105025" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9288,6 +9365,44 @@
         <a:xfrm>
           <a:off x="7667625" y="9514712"/>
           <a:ext cx="4958906" cy="3305937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>427482</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>27813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="13693775"/>
+          <a:ext cx="5904357" cy="3936238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10971,10 +11086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H45"/>
+  <dimension ref="A2:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:G35"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -11033,28 +11148,28 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71" t="s">
+      <c r="C12" s="81"/>
+      <c r="D12" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="72"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="83"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
@@ -11063,67 +11178,67 @@
       <c r="C14" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="84" t="s">
         <v>295</v>
       </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="75"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="86"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="78"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="89"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="66"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="77"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="79"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -11317,18 +11432,28 @@
         <v>364</v>
       </c>
       <c r="H35" s="32" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B36" s="2"/>
       <c r="C36" s="11"/>
-      <c r="H36" s="32"/>
+      <c r="H36" s="32" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B37" s="2"/>
-      <c r="C37" s="11"/>
-      <c r="H37" s="32"/>
+      <c r="C37" s="11">
+        <v>42451</v>
+      </c>
+      <c r="E37" s="50"/>
+      <c r="G37" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B38" s="2"/>
@@ -11392,6 +11517,20 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E45" s="47" t="s">
         <v>391</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B47" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C47" s="34">
+        <v>42451</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -11406,7 +11545,7 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H25" location="功能开启预告" display="补充功能开启预告的规则"/>
     <hyperlink ref="H26" location="战斗后获得经验后_均与界面同时展现_副本结果移动到屏幕上方后__且出现在副本结算界面上层" display="删除多余文字"/>
@@ -11513,7 +11652,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12020,7 +12159,7 @@
       <c r="T140" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -13074,7 +13213,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="notContainsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -13096,7 +13235,7 @@
   <dimension ref="A2:P163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13118,7 +13257,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E22" s="79" t="s">
+      <c r="E22" s="65" t="s">
         <v>122</v>
       </c>
       <c r="F22" s="37"/>
@@ -13131,7 +13270,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E23" s="37"/>
-      <c r="F23" s="79" t="s">
+      <c r="F23" s="65" t="s">
         <v>123</v>
       </c>
       <c r="G23" s="37"/>
@@ -13143,7 +13282,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E24" s="37"/>
-      <c r="F24" s="80" t="s">
+      <c r="F24" s="66" t="s">
         <v>134</v>
       </c>
       <c r="G24" s="37"/>
@@ -13155,7 +13294,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E25" s="37"/>
-      <c r="F25" s="80"/>
+      <c r="F25" s="66"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
       <c r="I25" s="37"/>
@@ -13170,10 +13309,10 @@
       <c r="B26" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="E26" s="79" t="s">
+      <c r="E26" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="F26" s="79"/>
+      <c r="F26" s="65"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
       <c r="I26" s="37"/>
@@ -13189,7 +13328,7 @@
         <v>346</v>
       </c>
       <c r="E27" s="37"/>
-      <c r="F27" s="81" t="s">
+      <c r="F27" s="67" t="s">
         <v>483</v>
       </c>
       <c r="G27" s="37"/>
@@ -13204,7 +13343,7 @@
         <v>361</v>
       </c>
       <c r="E28" s="37"/>
-      <c r="F28" s="82" t="s">
+      <c r="F28" s="68" t="s">
         <v>365</v>
       </c>
       <c r="G28" s="37"/>
@@ -13227,7 +13366,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E30" s="37"/>
-      <c r="F30" s="83" t="s">
+      <c r="F30" s="69" t="s">
         <v>475</v>
       </c>
       <c r="G30" s="37"/>
@@ -13242,7 +13381,7 @@
         <v>329</v>
       </c>
       <c r="E31" s="37"/>
-      <c r="F31" s="80" t="s">
+      <c r="F31" s="66" t="s">
         <v>134</v>
       </c>
       <c r="G31" s="37"/>
@@ -13292,7 +13431,7 @@
       <c r="B34" s="22"/>
       <c r="D34" s="42"/>
       <c r="E34" s="44"/>
-      <c r="F34" s="85" t="s">
+      <c r="F34" s="71" t="s">
         <v>485</v>
       </c>
       <c r="G34" s="40"/>
@@ -13310,7 +13449,7 @@
       <c r="B35" s="22"/>
       <c r="D35" s="42"/>
       <c r="E35" s="44"/>
-      <c r="F35" s="85" t="s">
+      <c r="F35" s="71" t="s">
         <v>486</v>
       </c>
       <c r="G35" s="40"/>
@@ -13329,7 +13468,7 @@
       <c r="D36" s="42"/>
       <c r="E36" s="44"/>
       <c r="F36" s="43"/>
-      <c r="G36" s="84" t="s">
+      <c r="G36" s="70" t="s">
         <v>487</v>
       </c>
       <c r="H36" s="40"/>
@@ -13347,7 +13486,7 @@
       <c r="D37" s="42"/>
       <c r="E37" s="44"/>
       <c r="F37" s="43"/>
-      <c r="G37" s="84" t="s">
+      <c r="G37" s="70" t="s">
         <v>488</v>
       </c>
       <c r="H37" s="40"/>
@@ -13382,7 +13521,7 @@
       <c r="B39" s="22"/>
       <c r="D39" s="42"/>
       <c r="E39" s="41"/>
-      <c r="F39" s="83" t="s">
+      <c r="F39" s="69" t="s">
         <v>476</v>
       </c>
       <c r="G39" s="37"/>
@@ -13401,7 +13540,7 @@
       <c r="D40" s="42"/>
       <c r="E40" s="40"/>
       <c r="F40" s="43"/>
-      <c r="G40" s="84" t="s">
+      <c r="G40" s="70" t="s">
         <v>484</v>
       </c>
       <c r="H40" s="40"/>
@@ -13445,7 +13584,7 @@
       <c r="D43" s="42"/>
       <c r="E43" s="40"/>
       <c r="F43" s="43"/>
-      <c r="G43" s="84" t="s">
+      <c r="G43" s="70" t="s">
         <v>489</v>
       </c>
       <c r="H43" s="40"/>
@@ -13467,7 +13606,7 @@
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B45" s="12"/>
       <c r="D45" s="42"/>
-      <c r="E45" s="84" t="s">
+      <c r="E45" s="70" t="s">
         <v>490</v>
       </c>
       <c r="F45" s="43"/>
@@ -13480,7 +13619,7 @@
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B46" s="12"/>
       <c r="D46" s="42"/>
-      <c r="E46" s="84"/>
+      <c r="E46" s="70"/>
       <c r="F46" s="43"/>
       <c r="G46" s="40"/>
       <c r="H46" s="40"/>
@@ -13491,7 +13630,7 @@
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B47" s="12"/>
       <c r="D47" s="42"/>
-      <c r="E47" s="84"/>
+      <c r="E47" s="70"/>
       <c r="F47" s="43"/>
       <c r="G47" s="40"/>
       <c r="H47" s="40"/>
@@ -13502,7 +13641,7 @@
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" s="12"/>
       <c r="D48" s="42"/>
-      <c r="E48" s="84"/>
+      <c r="E48" s="70"/>
       <c r="F48" s="43"/>
       <c r="G48" s="40"/>
       <c r="H48" s="40"/>
@@ -13513,7 +13652,7 @@
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="12"/>
       <c r="D49" s="42"/>
-      <c r="E49" s="84"/>
+      <c r="E49" s="70"/>
       <c r="F49" s="43"/>
       <c r="G49" s="40"/>
       <c r="H49" s="40"/>
@@ -13524,7 +13663,7 @@
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="12"/>
       <c r="D50" s="42"/>
-      <c r="E50" s="84"/>
+      <c r="E50" s="70"/>
       <c r="F50" s="43"/>
       <c r="G50" s="40"/>
       <c r="H50" s="40"/>
@@ -13535,7 +13674,7 @@
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="12"/>
       <c r="D51" s="42"/>
-      <c r="E51" s="84"/>
+      <c r="E51" s="70"/>
       <c r="F51" s="43"/>
       <c r="G51" s="40"/>
       <c r="H51" s="40"/>
@@ -13546,7 +13685,7 @@
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="12"/>
       <c r="D52" s="42"/>
-      <c r="E52" s="84"/>
+      <c r="E52" s="70"/>
       <c r="F52" s="43"/>
       <c r="G52" s="40"/>
       <c r="H52" s="40"/>
@@ -13557,7 +13696,7 @@
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="12"/>
       <c r="D53" s="42"/>
-      <c r="E53" s="84"/>
+      <c r="E53" s="70"/>
       <c r="F53" s="43"/>
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
@@ -13568,7 +13707,7 @@
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="12"/>
       <c r="D54" s="42"/>
-      <c r="E54" s="84"/>
+      <c r="E54" s="70"/>
       <c r="F54" s="43"/>
       <c r="G54" s="40"/>
       <c r="H54" s="40"/>
@@ -13579,7 +13718,7 @@
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="12"/>
       <c r="D55" s="42"/>
-      <c r="E55" s="84"/>
+      <c r="E55" s="70"/>
       <c r="F55" s="43"/>
       <c r="G55" s="40"/>
       <c r="H55" s="40"/>
@@ -13590,7 +13729,7 @@
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="12"/>
       <c r="D56" s="42"/>
-      <c r="E56" s="84"/>
+      <c r="E56" s="70"/>
       <c r="F56" s="43"/>
       <c r="G56" s="40"/>
       <c r="H56" s="40"/>
@@ -13601,7 +13740,7 @@
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="12"/>
       <c r="D57" s="42"/>
-      <c r="E57" s="84"/>
+      <c r="E57" s="70"/>
       <c r="F57" s="43"/>
       <c r="G57" s="40"/>
       <c r="H57" s="40"/>
@@ -13612,7 +13751,7 @@
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="12"/>
       <c r="D58" s="42"/>
-      <c r="E58" s="84"/>
+      <c r="E58" s="70"/>
       <c r="F58" s="43"/>
       <c r="G58" s="40"/>
       <c r="H58" s="40"/>
@@ -13623,7 +13762,7 @@
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B59" s="12"/>
       <c r="D59" s="42"/>
-      <c r="E59" s="84"/>
+      <c r="E59" s="70"/>
       <c r="F59" s="43"/>
       <c r="G59" s="40"/>
       <c r="H59" s="40"/>
@@ -13634,7 +13773,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" s="12"/>
       <c r="D60" s="42"/>
-      <c r="E60" s="84"/>
+      <c r="E60" s="70"/>
       <c r="F60" s="43"/>
       <c r="G60" s="40"/>
       <c r="H60" s="40"/>
@@ -13645,7 +13784,7 @@
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" s="12"/>
       <c r="D61" s="42"/>
-      <c r="E61" s="84"/>
+      <c r="E61" s="70"/>
       <c r="F61" s="43"/>
       <c r="G61" s="40"/>
       <c r="H61" s="40"/>
@@ -13656,7 +13795,7 @@
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62" s="12"/>
       <c r="D62" s="42"/>
-      <c r="E62" s="84"/>
+      <c r="E62" s="70"/>
       <c r="F62" s="43"/>
       <c r="G62" s="40"/>
       <c r="H62" s="40"/>
@@ -13667,7 +13806,7 @@
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" s="12"/>
       <c r="D63" s="42"/>
-      <c r="E63" s="84"/>
+      <c r="E63" s="70"/>
       <c r="F63" s="43"/>
       <c r="G63" s="40"/>
       <c r="H63" s="40"/>
@@ -13677,11 +13816,11 @@
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64" s="12"/>
-      <c r="D64" s="86" t="s">
+      <c r="D64" s="72" t="s">
         <v>491</v>
       </c>
-      <c r="E64" s="81"/>
-      <c r="F64" s="80"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="66"/>
       <c r="G64" s="37"/>
       <c r="H64" s="37"/>
       <c r="I64" s="40"/>
@@ -13690,11 +13829,11 @@
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B65" s="12"/>
-      <c r="D65" s="86"/>
-      <c r="E65" s="81" t="s">
-        <v>492</v>
-      </c>
-      <c r="F65" s="80"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="90" t="s">
+        <v>496</v>
+      </c>
+      <c r="F65" s="66"/>
       <c r="G65" s="37"/>
       <c r="H65" s="37"/>
       <c r="I65" s="40"/>
@@ -13704,7 +13843,6 @@
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B66" s="12"/>
       <c r="D66" s="42"/>
-      <c r="E66" s="84"/>
       <c r="F66" s="43"/>
       <c r="G66" s="40"/>
       <c r="H66" s="40"/>
@@ -13715,7 +13853,7 @@
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B67" s="12"/>
       <c r="D67" s="42"/>
-      <c r="E67" s="84"/>
+      <c r="E67" s="70"/>
       <c r="F67" s="43"/>
       <c r="G67" s="40"/>
       <c r="H67" s="40"/>
@@ -13726,7 +13864,7 @@
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B68" s="12"/>
       <c r="D68" s="42"/>
-      <c r="E68" s="84"/>
+      <c r="E68" s="70"/>
       <c r="F68" s="43"/>
       <c r="G68" s="40"/>
       <c r="H68" s="40"/>
@@ -13737,7 +13875,7 @@
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69" s="12"/>
       <c r="D69" s="42"/>
-      <c r="E69" s="84"/>
+      <c r="E69" s="70"/>
       <c r="F69" s="43"/>
       <c r="G69" s="40"/>
       <c r="H69" s="40"/>
@@ -13748,7 +13886,7 @@
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B70" s="12"/>
       <c r="D70" s="42"/>
-      <c r="E70" s="84"/>
+      <c r="E70" s="70"/>
       <c r="F70" s="43"/>
       <c r="G70" s="40"/>
       <c r="H70" s="40"/>
@@ -13759,7 +13897,7 @@
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71" s="12"/>
       <c r="D71" s="42"/>
-      <c r="E71" s="84"/>
+      <c r="E71" s="70"/>
       <c r="F71" s="43"/>
       <c r="G71" s="40"/>
       <c r="H71" s="40"/>
@@ -13770,7 +13908,7 @@
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B72" s="12"/>
       <c r="D72" s="42"/>
-      <c r="E72" s="84"/>
+      <c r="E72" s="70"/>
       <c r="F72" s="43"/>
       <c r="G72" s="40"/>
       <c r="H72" s="40"/>
@@ -13781,7 +13919,7 @@
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B73" s="12"/>
       <c r="D73" s="42"/>
-      <c r="E73" s="84"/>
+      <c r="E73" s="70"/>
       <c r="F73" s="43"/>
       <c r="G73" s="40"/>
       <c r="H73" s="40"/>
@@ -13792,7 +13930,7 @@
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B74" s="12"/>
       <c r="D74" s="42"/>
-      <c r="E74" s="84"/>
+      <c r="E74" s="70"/>
       <c r="F74" s="43"/>
       <c r="G74" s="40"/>
       <c r="H74" s="40"/>
@@ -13803,7 +13941,7 @@
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B75" s="12"/>
       <c r="D75" s="42"/>
-      <c r="E75" s="84"/>
+      <c r="E75" s="70"/>
       <c r="F75" s="43"/>
       <c r="G75" s="40"/>
       <c r="H75" s="40"/>
@@ -13814,7 +13952,7 @@
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B76" s="12"/>
       <c r="D76" s="42"/>
-      <c r="E76" s="84"/>
+      <c r="E76" s="70"/>
       <c r="F76" s="43"/>
       <c r="G76" s="40"/>
       <c r="H76" s="40"/>
@@ -13825,7 +13963,7 @@
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B77" s="12"/>
       <c r="D77" s="42"/>
-      <c r="E77" s="84"/>
+      <c r="E77" s="70"/>
       <c r="F77" s="43"/>
       <c r="G77" s="40"/>
       <c r="H77" s="40"/>
@@ -13836,7 +13974,7 @@
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B78" s="12"/>
       <c r="D78" s="42"/>
-      <c r="E78" s="84"/>
+      <c r="E78" s="70"/>
       <c r="F78" s="43"/>
       <c r="G78" s="40"/>
       <c r="H78" s="40"/>
@@ -13847,7 +13985,7 @@
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="12"/>
       <c r="D79" s="42"/>
-      <c r="E79" s="84"/>
+      <c r="E79" s="70"/>
       <c r="F79" s="43"/>
       <c r="G79" s="40"/>
       <c r="H79" s="40"/>
@@ -13858,7 +13996,7 @@
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B80" s="12"/>
       <c r="D80" s="42"/>
-      <c r="E80" s="84"/>
+      <c r="E80" s="70"/>
       <c r="F80" s="43"/>
       <c r="G80" s="40"/>
       <c r="H80" s="40"/>
@@ -13869,7 +14007,7 @@
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B81" s="12"/>
       <c r="D81" s="42"/>
-      <c r="E81" s="84"/>
+      <c r="E81" s="70"/>
       <c r="F81" s="43"/>
       <c r="G81" s="40"/>
       <c r="H81" s="40"/>
@@ -13880,7 +14018,7 @@
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B82" s="12"/>
       <c r="D82" s="42"/>
-      <c r="E82" s="84"/>
+      <c r="E82" s="70"/>
       <c r="F82" s="43"/>
       <c r="G82" s="40"/>
       <c r="H82" s="40"/>
@@ -13891,7 +14029,7 @@
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B83" s="12"/>
       <c r="D83" s="42"/>
-      <c r="E83" s="84"/>
+      <c r="E83" s="70"/>
       <c r="F83" s="43"/>
       <c r="G83" s="40"/>
       <c r="H83" s="40"/>
@@ -13902,7 +14040,7 @@
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B84" s="12"/>
       <c r="D84" s="42"/>
-      <c r="E84" s="84"/>
+      <c r="E84" s="70"/>
       <c r="F84" s="43"/>
       <c r="G84" s="40"/>
       <c r="H84" s="40"/>
@@ -13913,7 +14051,7 @@
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="12"/>
       <c r="D85" s="42"/>
-      <c r="E85" s="84"/>
+      <c r="E85" s="70"/>
       <c r="F85" s="43"/>
       <c r="G85" s="40"/>
       <c r="H85" s="40"/>
@@ -13924,7 +14062,7 @@
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B86" s="12"/>
       <c r="D86" s="42"/>
-      <c r="E86" s="84"/>
+      <c r="E86" s="70"/>
       <c r="F86" s="43"/>
       <c r="G86" s="40"/>
       <c r="H86" s="40"/>
@@ -13935,7 +14073,7 @@
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B87" s="12"/>
       <c r="D87" s="42"/>
-      <c r="E87" s="84"/>
+      <c r="E87" s="70"/>
       <c r="F87" s="43"/>
       <c r="G87" s="40"/>
       <c r="H87" s="40"/>
@@ -13946,7 +14084,7 @@
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B88" s="12"/>
       <c r="D88" s="42"/>
-      <c r="E88" s="84"/>
+      <c r="E88" s="70"/>
       <c r="F88" s="43"/>
       <c r="G88" s="40"/>
       <c r="H88" s="40"/>
@@ -13957,7 +14095,7 @@
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="12"/>
       <c r="D89" s="42"/>
-      <c r="E89" s="84"/>
+      <c r="E89" s="70"/>
       <c r="F89" s="43"/>
       <c r="G89" s="40"/>
       <c r="H89" s="40"/>
@@ -13968,7 +14106,7 @@
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B90" s="12"/>
       <c r="D90" s="42"/>
-      <c r="E90" s="84"/>
+      <c r="E90" s="70"/>
       <c r="F90" s="43"/>
       <c r="G90" s="40"/>
       <c r="H90" s="40"/>
@@ -13979,7 +14117,7 @@
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B91" s="12"/>
       <c r="D91" s="42"/>
-      <c r="E91" s="84"/>
+      <c r="E91" s="70"/>
       <c r="F91" s="43"/>
       <c r="G91" s="40"/>
       <c r="H91" s="40"/>
@@ -13990,7 +14128,7 @@
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B92" s="12"/>
       <c r="D92" s="42"/>
-      <c r="E92" s="84"/>
+      <c r="E92" s="70"/>
       <c r="F92" s="43"/>
       <c r="G92" s="40"/>
       <c r="H92" s="40"/>
@@ -14001,7 +14139,7 @@
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B93" s="12"/>
       <c r="D93" s="42"/>
-      <c r="E93" s="84"/>
+      <c r="E93" s="70"/>
       <c r="F93" s="43"/>
       <c r="G93" s="40"/>
       <c r="H93" s="40"/>
@@ -14012,7 +14150,7 @@
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B94" s="12"/>
       <c r="D94" s="42"/>
-      <c r="E94" s="84"/>
+      <c r="E94" s="70"/>
       <c r="F94" s="43"/>
       <c r="G94" s="40"/>
       <c r="H94" s="40"/>
@@ -14023,7 +14161,7 @@
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B95" s="12"/>
       <c r="D95" s="42"/>
-      <c r="E95" s="84"/>
+      <c r="E95" s="70"/>
       <c r="F95" s="43"/>
       <c r="G95" s="40"/>
       <c r="H95" s="40"/>
@@ -14034,7 +14172,7 @@
     <row r="96" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B96" s="12"/>
       <c r="D96" s="42"/>
-      <c r="E96" s="84"/>
+      <c r="E96" s="70"/>
       <c r="F96" s="43"/>
       <c r="G96" s="40"/>
       <c r="H96" s="40"/>
@@ -14045,7 +14183,7 @@
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B97" s="12"/>
       <c r="D97" s="42"/>
-      <c r="E97" s="84"/>
+      <c r="E97" s="70"/>
       <c r="F97" s="43"/>
       <c r="G97" s="40"/>
       <c r="H97" s="40"/>
@@ -14056,7 +14194,7 @@
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B98" s="12"/>
       <c r="D98" s="42"/>
-      <c r="E98" s="84"/>
+      <c r="E98" s="70"/>
       <c r="F98" s="43"/>
       <c r="G98" s="40"/>
       <c r="H98" s="40"/>
@@ -14067,7 +14205,7 @@
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B99" s="12"/>
       <c r="D99" s="42"/>
-      <c r="E99" s="84"/>
+      <c r="E99" s="70"/>
       <c r="F99" s="43"/>
       <c r="G99" s="40"/>
       <c r="H99" s="40"/>
@@ -14078,7 +14216,7 @@
     <row r="100" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B100" s="12"/>
       <c r="D100" s="42"/>
-      <c r="E100" s="84"/>
+      <c r="E100" s="70"/>
       <c r="F100" s="43"/>
       <c r="G100" s="40"/>
       <c r="H100" s="40"/>
@@ -14089,7 +14227,7 @@
     <row r="101" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B101" s="12"/>
       <c r="D101" s="42"/>
-      <c r="E101" s="84"/>
+      <c r="E101" s="70"/>
       <c r="F101" s="43"/>
       <c r="G101" s="40"/>
       <c r="H101" s="40"/>
@@ -14100,7 +14238,7 @@
     <row r="102" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B102" s="12"/>
       <c r="D102" s="42"/>
-      <c r="E102" s="84"/>
+      <c r="E102" s="70"/>
       <c r="F102" s="43"/>
       <c r="G102" s="40"/>
       <c r="H102" s="40"/>
@@ -14111,7 +14249,7 @@
     <row r="103" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B103" s="12"/>
       <c r="D103" s="42"/>
-      <c r="E103" s="84"/>
+      <c r="E103" s="70"/>
       <c r="F103" s="43"/>
       <c r="G103" s="40"/>
       <c r="H103" s="40"/>
@@ -14122,7 +14260,7 @@
     <row r="104" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B104" s="12"/>
       <c r="D104" s="42"/>
-      <c r="E104" s="84"/>
+      <c r="E104" s="70"/>
       <c r="F104" s="43"/>
       <c r="G104" s="40"/>
       <c r="H104" s="40"/>
@@ -14978,7 +15116,7 @@
       <c r="P163" s="40"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="notContainsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -15038,7 +15176,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15390,7 +15528,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="A1:A15 A17:A1048576">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -15403,15 +15541,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G17"/>
+  <dimension ref="A2:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9" style="18"/>
+    <col min="1" max="1" width="11.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="18"/>
     <col min="4" max="4" width="24.5" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="18"/>
   </cols>
@@ -15507,7 +15646,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" s="51" t="s">
         <v>398</v>
       </c>
@@ -15515,8 +15654,39 @@
         <v>399</v>
       </c>
     </row>
+    <row r="22" spans="1:5" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="73">
+        <v>42450</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="75" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D24" s="91" t="s">
+        <v>498</v>
+      </c>
+      <c r="E24" s="91" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="75" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D27" s="91" t="s">
+        <v>499</v>
+      </c>
+      <c r="E27" s="91" t="s">
+        <v>497</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G13" r:id="rId1" display="http://192.168.199.122:8880/browse/MG-1496"/>
     <hyperlink ref="G11" r:id="rId2" display="http://192.168.199.122:8880/browse/MG-1497"/>
@@ -15595,7 +15765,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15792,7 +15962,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>